--- a/28_output_generated_medium.xlsx
+++ b/28_output_generated_medium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,22 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall establish a monitoring configuration procedure to ensure network performance requirements are met. This procedure includes the following steps:
-1. The system shall send a createMOI request for perfMetricJob IOC to the Performance Assurance Producer.
-2. The system shall receive the createMOI response from the Performance Assurance Producer.
-3. The Performance Assurance Producer shall create the PM jobs on the specified object instances.
-4. The Performance Assurance Producer shall provide the required measurements and KPIs to the DSO based on the configured reporting mechanisms (file or stream).
-5. The system shall send a createMOI request for ThresholdMonitor IOC to the Performance Assurance Producer.
-6. The attribute performanceMetrics shall contain the measurements defined for each of the network performance requirements as required by the DSO, such as latency, packet loss, and availability.
-7. The attribute performanceMetrics shall also contain an attribute containing the location (Lat/long, TAC, cellid) used to scope the object instance to be monitored.
-8. The Performance Assurance Producer shall create the MOI.
-9. The system shall receive the createMOI response from the Performance Assurance Producer.
-10. The system shall send a createMOI request for NtfSubscriptionControl IOC to the Performance Assurance Producer.
-11. The attribute notificationRecipientAddress shall contain the address of the notification recipient, i.e., the DSO.
-12. The Performance Assurance Producer shall create the MOI.
-13. The system shall receive the createMOI response from the Performance Assurance Producer.
-14. The Performance Assurance Producer shall check for threshold crossing based on the current state of the related performance measurement.
-15. The Performance Assurance Producer shall send a notifyThresholdCrossing notification to the DSO if the performanceMetrics value crosses the configured thresholdValue.</t>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details. The system shall facilitate the monitoring configuration procedure by enabling the DSO to send createMOI requests for performance metrics jobs and threshold monitoring to the Performance Assurance Producer. It shall establish the configured reporting mechanisms in this step. The system shall ensure that the Performance Assurance Producer creates the required MOI jobs on specified object instances and provides the necessary measurements and KPIs to the DSO based on the established reporting mechanisms. Furthermore, the system shall support the creation of MOI for NtfSubscriptionControl IOC with the notification recipient address specified by the DSO and ensure that the Performance Assurance Producer checks for threshold crossing and sends notifyThresholdCrossing notifications to the DSO when required.</t>
         </is>
       </c>
     </row>
@@ -521,7 +506,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure that the attribute 'S' is readable, writable, and notifyable. The system shall provide coverage area TA List (coverageAreaTAList) and support mobility level (uEMobilityLevel), resource sharing level (resourceSharingLevel), and maximum number of UEs (maxNumberofUEs). The system shall consider activity factor (activityFactor), downlink throughput per slice subnet (dLThptPerSliceSubnet), downlink throughput per UE (dLThptPerUE), uplink throughput per slice subnet (uLThptPerSliceSubnet), uplink throughput per UE (uLThptPerUE), uplink speed (uESpeed), and reliability. The system shall support the specified number of operating bands (nROperatingBands), downlink latency (dLLatency), uplink latency (uLLatency), and delay tolerance. The system shall allow for the simultaneous use of slices (sliceSimultaneousUse), support for maximum packet sizes (dLMaxPktSize, uLMaxPktSize), and prioritize energy efficiency. The system shall also consider term density, survival time, support for deterministic communication (dLDeterministicComm, uLDeterministicComm), positioning, and synchronicity.</t>
+          <t xml:space="preserve"> The system shall have readable attributes.
+The system shall have writable attributes.
+The system attributes shall be invariant.
+The system attributes shall be notifiable.
+The system shall have a coverage area with a list of TA attributes.
+The system shall have an attribute named 'uEMobilityLevel' that is readable, writable, and notifiable.
+The system shall have an attribute named'resourceSharingLevel' that is readable, writable, and notifiable.
+The system shall have a maximum number of UEs attribute that is readable, writable, and notifiable.
+The system shall have an attribute named 'activityFactor' that is readable, writable, and notifiable.
+The system shall have a dLThptPerSliceSubnet attribute that is readable, writable, and notifiable.
+The system shall have a dLThptPerUE attribute that is readable, writable, and notifiable.
+The system shall have a uLThptPerSliceSubnet attribute that is readable, writable, and notifiable.
+The system shall have a uLThptPerUE attribute that is readable, writable, and notifiable.
+The system shall have a uESpeed attribute that is readable, writable, and notifiable.
+The system shall have a reliability attribute that is readable, writable, and notifiable.
+The system shall have an attribute named 'nROperatingBands' that is readable, writable, and notifiable.
+The system shall have a dLLatency attribute that is readable, writable, and notifiable.
+The system shall have a uLLatency attribute that is readable, writable, and notifiable.
+The system shall have a delayTolerance attribute that is readable, writable, and notifiable.
+The system shall have a sliceSimultaneousUse attribute that is readable, writable, and notifiable.
+The system shall have a dLMaxPktSize attribute that is readable, writable, and notifiable.
+The system shall have a uLMaxPktSize attribute that is readable, writable, and notifiable.
+The system shall have an energyEfficiency attribute that is readable, writable, and notifiable.</t>
         </is>
       </c>
     </row>
@@ -546,7 +553,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure that the attribute 'S' is readable, writable, and notifyable. The system shall provide coverage area TA List (coverageAreaTAList) and support mobility level (uEMobilityLevel), resource sharing level (resourceSharingLevel), and maximum number of UEs (maxNumberofUEs). The system shall consider activity factor (activityFactor), downlink throughput per slice subnet (dLThptPerSliceSubnet), downlink throughput per UE (dLThptPerUE), uplink throughput per slice subnet (uLThptPerSliceSubnet), uplink throughput per UE (uLThptPerUE), uplink speed (uESpeed), and reliability. The system shall support the specified number of operating bands (nROperatingBands), downlink latency (dLLatency), uplink latency (uLLatency), and delay tolerance. The system shall allow for the simultaneous use of slices (sliceSimultaneousUse), support for maximum packet sizes (dLMaxPktSize, uLMaxPktSize), and prioritize energy efficiency. The system shall also consider term density, survival time, support for deterministic communication (dLDeterministicComm, uLDeterministicComm), positioning, and synchronicity.</t>
+          <t xml:space="preserve"> The system shall have readable attributes.
+The system shall have writable attributes.
+The system attributes shall be invariant.
+The system attributes shall be notifiable.
+The system shall have a coverage area with a list of TA attributes.
+The system shall have an attribute named 'uEMobilityLevel' that is readable, writable, and notifiable.
+The system shall have an attribute named'resourceSharingLevel' that is readable, writable, and notifiable.
+The system shall have a maximum number of UEs attribute that is readable, writable, and notifiable.
+The system shall have an attribute named 'activityFactor' that is readable, writable, and notifiable.
+The system shall have a dLThptPerSliceSubnet attribute that is readable, writable, and notifiable.
+The system shall have a dLThptPerUE attribute that is readable, writable, and notifiable.
+The system shall have a uLThptPerSliceSubnet attribute that is readable, writable, and notifiable.
+The system shall have a uLThptPerUE attribute that is readable, writable, and notifiable.
+The system shall have a uESpeed attribute that is readable, writable, and notifiable.
+The system shall have a reliability attribute that is readable, writable, and notifiable.
+The system shall have an attribute named 'nROperatingBands' that is readable, writable, and notifiable.
+The system shall have a dLLatency attribute that is readable, writable, and notifiable.
+The system shall have a uLLatency attribute that is readable, writable, and notifiable.
+The system shall have a delayTolerance attribute that is readable, writable, and notifiable.
+The system shall have a sliceSimultaneousUse attribute that is readable, writable, and notifiable.
+The system shall have a dLMaxPktSize attribute that is readable, writable, and notifiable.
+The system shall have a uLMaxPktSize attribute that is readable, writable, and notifiable.
+The system shall have an energyEfficiency attribute that is readable, writable, and notifiable.</t>
         </is>
       </c>
     </row>
@@ -571,7 +600,36 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure that the attribute 'S' is readable, writable, and notifyable. It shall also support deterministic communication for both downlink and uplink, and provide a survival time feature. The system shall support positioning and synchronicity, and it shall be capable of nssaa support and n6 protection.</t>
+          <t xml:space="preserve"> The system shall provide readability for all attributes.
+The system shall ensure writability for all attributes.
+The system shall maintain invariance for all attributes.
+The system shall offer notifyability for all attributes.
+The system shall specify the latency for all attributes.
+The system shall support a maximum number of User Equipments (UEs).
+The system shall define the data link throughput per slice subnet.
+The system shall define the data link throughput per UE.
+The system shall support a maximum packet size.
+The system shall support a maximum number of PDU sessions.
+The system shall operate with a specified number of RF operating bands.
+The system shall allow for simultaneous use of slices.
+The system shall tolerate a defined delay.
+The system shall optimize energy efficiency.
+The system shall maintain a specified term density.
+The system shall consider the activity factor.
+The system shall provide a coverage area TA list.
+The system shall enable a defined level of resource sharing.
+The system shall support a specified level of UE mobility.
+The system shall define the UE speed.
+The system shall ensure reliability.
+The system shall provide deterministic communication.
+The system shall support a specified level of deterministic communication.
+The system shall define the survival time.
+The system shall provide positioning services.
+The system shall ensure synchronicity.
+The system shall support Next-Generation 911 (NG911) services.
+The system shall support Network Service Access Authorization (NSAA) support.
+The system shall provide 6-tier protection (n6Protection).
+The system shall support Next Generation 911 (NG911) services with 6-tier protection (n6Protection).</t>
         </is>
       </c>
     </row>
@@ -596,7 +654,36 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure that the attribute 'S' is readable, writable, and notifyable. It shall also support deterministic communication for both downlink and uplink, and provide a survival time feature. The system shall support positioning and synchronicity, and it shall be capable of nssaa support and n6 protection.</t>
+          <t xml:space="preserve"> The system shall provide readability for all attributes.
+The system shall ensure writability for all attributes.
+The system shall maintain invariance for all attributes.
+The system shall offer notifyability for all attributes.
+The system shall specify the latency for all attributes.
+The system shall support a maximum number of User Equipments (UEs).
+The system shall define the data link throughput per slice subnet.
+The system shall define the data link throughput per UE.
+The system shall support a maximum packet size.
+The system shall support a maximum number of PDU sessions.
+The system shall operate with a specified number of RF operating bands.
+The system shall allow for simultaneous use of slices.
+The system shall tolerate a defined delay.
+The system shall optimize energy efficiency.
+The system shall maintain a specified term density.
+The system shall consider the activity factor.
+The system shall provide a coverage area TA list.
+The system shall enable a defined level of resource sharing.
+The system shall support a specified level of UE mobility.
+The system shall define the UE speed.
+The system shall ensure reliability.
+The system shall provide deterministic communication.
+The system shall support a specified level of deterministic communication.
+The system shall define the survival time.
+The system shall provide positioning services.
+The system shall ensure synchronicity.
+The system shall support Next-Generation 911 (NG911) services.
+The system shall support Network Service Access Authorization (NSAA) support.
+The system shall provide 6-tier protection (n6Protection).
+The system shall support Next Generation 911 (NG911) services with 6-tier protection (n6Protection).</t>
         </is>
       </c>
     </row>
@@ -621,32 +708,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide an attribute named 'S' with the following characteristics:
-1. The attribute 'S' shall be readable.
-2. The attribute 'S' shall be writable.
-3. The attribute 'S' shall not be invariant.
-4. The attribute 'S' shall be notifyable.
-5. The attribute 'S' shall support a maximum number of UE (User Equipment) instances.
-6. The attribute 'S' shall have a dLLatency value.
-7. The attribute 'S' shall have a uLLatency value.
-8. The attribute 'S' shall have a dLThptPerSliceSubnet value.
-9. The attribute 'S' shall have a dLThptPerUE value.
-10. The attribute 'S' shall have a uLThptPerSliceSubnet value.
-11. The attribute 'S' shall have a uLThptPerUE value.
-12. The attribute 'S' shall support a maximum number of PDUSessions.
-13. The attribute 'S' shall have a coverageAreaTAList.
-14. The attribute 'S' shall have a reliability value.
-15. The attribute 'S' shall have a resourceSharingLevel value.
-16. The attribute 'S' shall have a dLMaxPktSize value.
-17. The attribute 'S' shall have a uLMaxPktSize value.
-18. The attribute 'S' shall support sliceSimultaneousUse.
-19. The attribute 'S' shall have a delayTolerance value.
-20. The attribute 'S' shall have an energyEfficiency value.
-21. The attribute 'S' shall support dLDeterministicCommunication.
-22. The attribute 'S' shall support uLDeterministicCommunication.
-23. The attribute 'S' shall support survivalTime.
-24. The attribute 'S' shall support nssaaSupport.
-25. The attribute 'S' shall support n6Protection.</t>
+          <t xml:space="preserve"> The system shall:
+1. Provide readability for the 'Attribute name' attribute.
+2. Allow write accessibility for the 'Attribute name' attribute.
+3. Ensure the 'Attribute name' attribute is invariant.
+4. Enable notification capabilities for the 'Attribute name' attribute.
+5. Limit the maximum number of User Equipments (UEs) to the value specified in'maxNumberofUEs'.
+6. Maintain a delay latency of 'dLLatency' for the 'Attribute name' attribute.
+7. Ensure a user latency of 'uLLatency' for the 'Attribute name' attribute.
+8. Determine the data link throughput per slice subnet as specified in 'dLThptPerSliceSubnet'.
+9. Determine the data link throughput per UE as specified in 'dLThptPerUE'.
+10. Limit the user link throughput per slice subnet as specified in 'uLThptPerSliceSubnet'.
+11. Limit the user link throughput per UE as specified in 'uLThptPerUE'.
+12. Support a maximum number of PDUSessions as specified in'maxNumberOfPDUSessions'.
+13. Maintain a list of coverage areas in terms of Time-of-Flight (TA) for the 'coverageAreaTAList' attribute.
+14. Ensure reliability for the'reliability' attribute.
+15. Set the resource sharing level for the'resourceSharingLevel' attribute.
+16. Limit the data link maximum packet size to the value specified in 'dLMaxPktSize'.
+17. Limit the user link maximum packet size to the value specified in 'uLMaxPktSize'.
+18. Allow simultaneous use of slices as specified in'sliceSimultaneousUse'.
+19. Support a delay tolerance as specified in 'delayTolerance'.
+20. Ensure energy efficiency for the 'energyEfficiency' attribute.
+21. Provide deterministic communication for the 'tdLDeterministicComm' attribute.
+22. Provide deterministic communication for the 'uLDeterministicComm' attribute.
+23. Ens</t>
         </is>
       </c>
     </row>
@@ -671,32 +756,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide an attribute named 'S' with the following characteristics:
-1. The attribute 'S' shall be readable.
-2. The attribute 'S' shall be writable.
-3. The attribute 'S' shall not be invariant.
-4. The attribute 'S' shall be notifyable.
-5. The attribute 'S' shall support a maximum number of UE (User Equipment) instances.
-6. The attribute 'S' shall have a dLLatency value.
-7. The attribute 'S' shall have a uLLatency value.
-8. The attribute 'S' shall have a dLThptPerSliceSubnet value.
-9. The attribute 'S' shall have a dLThptPerUE value.
-10. The attribute 'S' shall have a uLThptPerSliceSubnet value.
-11. The attribute 'S' shall have a uLThptPerUE value.
-12. The attribute 'S' shall support a maximum number of PDUSessions.
-13. The attribute 'S' shall have a coverageAreaTAList.
-14. The attribute 'S' shall have a reliability value.
-15. The attribute 'S' shall have a resourceSharingLevel value.
-16. The attribute 'S' shall have a dLMaxPktSize value.
-17. The attribute 'S' shall have a uLMaxPktSize value.
-18. The attribute 'S' shall support sliceSimultaneousUse.
-19. The attribute 'S' shall have a delayTolerance value.
-20. The attribute 'S' shall have an energyEfficiency value.
-21. The attribute 'S' shall support dLDeterministicCommunication.
-22. The attribute 'S' shall support uLDeterministicCommunication.
-23. The attribute 'S' shall support survivalTime.
-24. The attribute 'S' shall support nssaaSupport.
-25. The attribute 'S' shall support n6Protection.</t>
+          <t xml:space="preserve"> The system shall:
+1. Provide readability for the 'Attribute name' attribute.
+2. Allow write accessibility for the 'Attribute name' attribute.
+3. Ensure the 'Attribute name' attribute is invariant.
+4. Enable notification capabilities for the 'Attribute name' attribute.
+5. Limit the maximum number of User Equipments (UEs) to the value specified in'maxNumberofUEs'.
+6. Maintain a delay latency of 'dLLatency' for the 'Attribute name' attribute.
+7. Ensure a user latency of 'uLLatency' for the 'Attribute name' attribute.
+8. Determine the data link throughput per slice subnet as specified in 'dLThptPerSliceSubnet'.
+9. Determine the data link throughput per UE as specified in 'dLThptPerUE'.
+10. Limit the user link throughput per slice subnet as specified in 'uLThptPerSliceSubnet'.
+11. Limit the user link throughput per UE as specified in 'uLThptPerUE'.
+12. Support a maximum number of PDUSessions as specified in'maxNumberOfPDUSessions'.
+13. Maintain a list of coverage areas in terms of Time-of-Flight (TA) for the 'coverageAreaTAList' attribute.
+14. Ensure reliability for the'reliability' attribute.
+15. Set the resource sharing level for the'resourceSharingLevel' attribute.
+16. Limit the data link maximum packet size to the value specified in 'dLMaxPktSize'.
+17. Limit the user link maximum packet size to the value specified in 'uLMaxPktSize'.
+18. Allow simultaneous use of slices as specified in'sliceSimultaneousUse'.
+19. Support a delay tolerance as specified in 'delayTolerance'.
+20. Ensure energy efficiency for the 'energyEfficiency' attribute.
+21. Provide deterministic communication for the 'tdLDeterministicComm' attribute.
+22. Provide deterministic communication for the 'uLDeterministicComm' attribute.
+23. Ens</t>
         </is>
       </c>
     </row>
@@ -721,22 +804,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure that the attribute 'isReadable' is set to true, indicating that the attribute can be read.
-The system shall ensure that the attribute 'isWritable' is set to true, indicating that the attribute can be written to.
-The system shall ensure that the attribute 'isInvariant' is set to true, indicating that the attribute remains constant.
-The system shall ensure that the attribute 'isNotifyable' is set to true, indicating that the attribute can trigger notifications.
-The system shall ensure that the'serviceProfileId' attribute is set to a valid value, representing a unique identifier for the service profile.
-The system shall ensure that the 'pLMNInfoList' attribute is set to a valid list of PLMN information, representing the list of Public Land Mobile Networks.
-The system shall ensure that the'maxNumberofUEs' attribute is set to a valid value, representing the maximum number of User Equipments (UEs) supported.
-The system shall ensure that the 'coverageArea' attribute is set to a valid value, representing the coverage area of the network.
-The system shall ensure that the 'dLLatency' attribute is set to a valid value, representing the downlink latency of the network.
-The system shall ensure that the 'uLLatency' attribute is set to a valid value, representing the uplink latency of the network.
-The system shall ensure that the 'uEMobilityLevel' attribute is set to a valid value, representing the mobility level of the User Equipment.
-The system shall ensure that the 'networkSliceSharingIndicator' attribute is set to a valid value, indicating whether network slices can be shared.
-The system shall ensure that the'sST' attribute is set to a valid value, representing the Service Specific Trigger.
-The system shall ensure that the 'availability' attribute is set to a valid value, representing the availability of the service.
-The system shall ensure that the 'delayTolerance' attribute is set to a valid value, representing the delay tolerance of the service.
-The system shall ensure that the 'dLDeterministicComm' attribute is set to a valid value, representing the deterministic communication in the downlink.
+          <t xml:space="preserve"> The system shall have an attribute named'serviceProfileId' which is readable, writable, invariant, and not notifyable. It should be mapped to a service profile ID.
+The system shall have an attribute named 'pLMNInfoList' which is readable, writable, and invariant. It should represent a list of lane, merge, and navigation information.
+The system shall have an attribute named'maxNumberofUEs' which is readable, writable, and invariant. It should represent the maximum number of User Equipments (UEs) allowed.
+The system shall have an attribute named 'coverageArea' which is readable, writable, and invariant. It should represent the geographical area covered by the system.
+The system shall have an attribute named 'dLatency' which is readable, writable, and invariant. It should represent the delay latency of the system.
+The system shall have an attribute named 'uLatency' which is readable, writable, and invariant. It should represent the user latency of the system.
+The system shall have an attribute named 'uEMobilityLevel' which is readable, writable, and invariant. It should represent the user's mobility level.
+The system shall have an attribute named 'networkSliceSharingIndicator' which is readable, writable, and invariant. It should indicate whether the network slice is shared or not.
+The system shall have an attribute named 'availability' which is readable, writable, and invariant. It should represent the availability status of the system.
+The system shall have an attribute named 'delayTolerance' which is readable, writable, and invariant. It should represent the system's tolerance for delay.
+The system shall have an attribute named 'dLDeterministicComm' which is readable, writable, and invariant. It should represent the deterministic communication capability of the system.
+The system shall have an attribute named 'uLDeterministicComm' which is readable, writable, and invariant. It should represent the user's deterministic communication capability.
+The system shall have an attribute named 'dLThptPerSlice' which is readable, writable, and invariant. It should represent the data link throughput per slice.
 </t>
         </is>
       </c>
@@ -762,22 +842,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure that the attribute 'isReadable' is set to true, indicating that the attribute can be read.
-The system shall ensure that the attribute 'isWritable' is set to true, indicating that the attribute can be written to.
-The system shall ensure that the attribute 'isInvariant' is set to true, indicating that the attribute remains constant.
-The system shall ensure that the attribute 'isNotifyable' is set to true, indicating that the attribute can trigger notifications.
-The system shall ensure that the'serviceProfileId' attribute is set to a valid value, representing a unique identifier for the service profile.
-The system shall ensure that the 'pLMNInfoList' attribute is set to a valid list of PLMN information, representing the list of Public Land Mobile Networks.
-The system shall ensure that the'maxNumberofUEs' attribute is set to a valid value, representing the maximum number of User Equipments (UEs) supported.
-The system shall ensure that the 'coverageArea' attribute is set to a valid value, representing the coverage area of the network.
-The system shall ensure that the 'dLLatency' attribute is set to a valid value, representing the downlink latency of the network.
-The system shall ensure that the 'uLLatency' attribute is set to a valid value, representing the uplink latency of the network.
-The system shall ensure that the 'uEMobilityLevel' attribute is set to a valid value, representing the mobility level of the User Equipment.
-The system shall ensure that the 'networkSliceSharingIndicator' attribute is set to a valid value, indicating whether network slices can be shared.
-The system shall ensure that the'sST' attribute is set to a valid value, representing the Service Specific Trigger.
-The system shall ensure that the 'availability' attribute is set to a valid value, representing the availability of the service.
-The system shall ensure that the 'delayTolerance' attribute is set to a valid value, representing the delay tolerance of the service.
-The system shall ensure that the 'dLDeterministicComm' attribute is set to a valid value, representing the deterministic communication in the downlink.
+          <t xml:space="preserve"> The system shall have an attribute named'serviceProfileId' which is readable, writable, invariant, and not notifyable. It should be mapped to a service profile ID.
+The system shall have an attribute named 'pLMNInfoList' which is readable, writable, and invariant. It should represent a list of lane, merge, and navigation information.
+The system shall have an attribute named'maxNumberofUEs' which is readable, writable, and invariant. It should represent the maximum number of User Equipments (UEs) allowed.
+The system shall have an attribute named 'coverageArea' which is readable, writable, and invariant. It should represent the geographical area covered by the system.
+The system shall have an attribute named 'dLatency' which is readable, writable, and invariant. It should represent the delay latency of the system.
+The system shall have an attribute named 'uLatency' which is readable, writable, and invariant. It should represent the user latency of the system.
+The system shall have an attribute named 'uEMobilityLevel' which is readable, writable, and invariant. It should represent the user's mobility level.
+The system shall have an attribute named 'networkSliceSharingIndicator' which is readable, writable, and invariant. It should indicate whether the network slice is shared or not.
+The system shall have an attribute named 'availability' which is readable, writable, and invariant. It should represent the availability status of the system.
+The system shall have an attribute named 'delayTolerance' which is readable, writable, and invariant. It should represent the system's tolerance for delay.
+The system shall have an attribute named 'dLDeterministicComm' which is readable, writable, and invariant. It should represent the deterministic communication capability of the system.
+The system shall have an attribute named 'uLDeterministicComm' which is readable, writable, and invariant. It should represent the user's deterministic communication capability.
+The system shall have an attribute named 'dLThptPerSlice' which is readable, writable, and invariant. It should represent the data link throughput per slice.
 </t>
         </is>
       </c>
@@ -803,22 +880,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall establish a monitoring configuration procedure for network performance requirements, as outlined in Figure 7.1.2.1.2-1. This procedure involves the following steps:
-1. The Data Service Object (DSO) shall send a createMOI request for perfMetricJob Input/Output Control (IOC) to the Performance Assurance Producer (PAP).
-2. The PAP shall send a createMOI response to the DSO.
-3. The PAP shall create the Performance Management (PM) jobs on the specified object instances.
-4. The PAP shall provide the required measurements and Key Performance Indicators (KPIs) to the DSO based on the configured reporting mechanisms (file or stream).
-5. The DSO shall send a createMOI request for ThresholdMonitor IOC to the PAP.
-5a. The attribute performanceMetrics shall contain the measurements defined for each of the network performance requirements as required by the DSO, such as latency, packet loss, and availability.
-5b. The attribute performanceMetrics shall also contain an attribute containing the location (Lat/Long TAC cellid) used to scope the object instance to be monitored.
-6. The PAP shall create the Monitoring Object Instance (MOI).
-7. The PAP shall send a createMOI response to the DSO.
-8. The DSO shall send a createMOI request for Notification Subscription Control (NtfSubscriptionControl) IOC to the PAP.
-8a. The attribute notificationRecipientAddress shall contain the address of the notification recipient, i.e., the DSO.
-9. The PAP shall create the MOI.
-10. The PAP shall send a createMOI response to the DSO.
-11. The PAP shall check for threshold crossing based on the current state of the related performance measurement.
-12. The PAP shall send a notifyThresholdCrossing notification to the DSO if the performanceMetrics value crosses the configured thresholdValue.</t>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details. The system shall facilitate the monitoring configuration procedure by enabling the Performance Assurance Producer to send createMOI requests for perfMetricJob IOC and ThresholdMonitor IOC to the Data Stream Orchestrator (DSO). Upon receiving these requests, the DSO shall establish the configured reporting mechanisms, either file or stream, and provide the necessary measurements and Key Performance Indicators (KPIs) to the DSO. Additionally, the system shall support the creation of MOI for perfMetricJob and ThresholdMonitor IOC by the Performance Assurance Producer, and upon completion, send createMOI responses to the DSO. The system shall also ensure that the Performance Assurance Producer can check for threshold crossing based on the current state of the related performance measurement and notify the DSO if the performanceMetrics value crosses the configured thresholdValue.</t>
         </is>
       </c>
     </row>
@@ -843,10 +905,10 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide a range of quality policies for Application Providers to select the desired performance level for their applications, based on objectively measured end-to-end parameters such as latency and packet loss.
-The system shall enable a request-response mechanism for Application Providers to specify a geographical point and receive information on the mean latency performance expected at that location.
-The system shall describe the capabilities of the Edge Cloud, including the geographical zones where it is provided and the type and granularity of edge cloud and network services, such as generic Compute, memory, storage, and specialized compute like GPU and future resource types.
-The system shall provide a mechanism to describe the available edge services and their characteristics, such as available SLS infrastructure resources, anchored at a particular location.</t>
+          <t xml:space="preserve"> The system shall provide a comprehensive range of quality policies to Application Providers, enabling them to select performance levels tailored to their application's needs. These policies will be defined based on objectively measured end-to-end parameters, including both network and Cloudlet performance aspects such as latency and packet loss, with average statistics serving as the basis for these measurements.
+The system shall enable a robust request-response mechanism, allowing Application Providers to specify a geographical point representing a typical user's location. In response, the system shall provide informed data on the expected mean latency performance in that area.
+The system shall offer detailed descriptions of the Edge Cloud capabilities, including the geographical zones of service provision. It shall also specify the type and granularity of edge cloud and network services available, which typically encompass generic compute memory storage and specialized compute resources such as GPUs, with provisions for future resource types.
+The system shall establish a mechanism to describe the available edge services and their characteristics, anchoring this information to specific locations. This includes detailing the edge service capabilities and the associated characteristics of available infrastructure resources, such as Service Level Agreements (SLS) infrastructure resources, at a particular location.</t>
         </is>
       </c>
     </row>
@@ -871,10 +933,10 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide a range of quality policies to the Application Provider, allowing them to select the performance level required for their application based on objectively measured end-to-end parameters, including network and Cloudlet performance aspects such as latency and packet loss.
-The system shall enable a request-response mechanism for the Application Provider to specify a geographical point and receive information on the mean latency performance expected at that location.
-The system shall describe the capabilities of the Edge Cloud, including the geographical zones where it is provided and the type and granularity of edge cloud and network services, such as generic Compute, memory, storage, and specialized compute resources like GPU and future resource types.
-The system shall provide a mechanism to describe the available edge services and their characteristics, such as available SLS infrastructure resources, anchored at a particular location.</t>
+          <t xml:space="preserve"> The system shall provide a comprehensive range of quality policies to Application Providers, allowing them to select performance levels tailored to their application's needs. These policies will be based on objectively measured end-to-end parameters, including both network and Cloudlet performance aspects such as latency and packet loss, with average statistics serving as the defined metrics.
+The system shall enable a robust request-response mechanism, enabling Application Providers to specify a geographical point representing a typical user's location. In response, the system shall provide informed data on the expected mean latency performance in that area.
+The system shall offer detailed descriptions of the Edge Cloud capabilities, including the geographical zones of service provision. It shall also disclose the type and granularity of edge cloud and network services available, typically encompassing generic compute memory storage and specialized compute resources like GPUs, with provisions for future resource types.
+The system shall establish a mechanism to describe the available edge services and their characteristics, anchoring this information to specific locations. This includes detailing the edge service capabilities and the associated characteristics of available infrastructure resources, such as Service Level Agreements (SLS), at a particular geographical location.</t>
         </is>
       </c>
     </row>
@@ -899,8 +961,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall utilize Management Data Analytics (MDA) to provision and/or select an optimal target gNB for handover, aiming to reduce or avoid handover rejections. The MDAS producer shall provide a HO optimization analytics output containing current and predicted resource consumption, resource capabilities, and other Key Performance Indicators (KPIs) status for the available target gNB(s). The analytics output shall also include recommended actions to optimize the target gNB for handover, such as resource re-configuration or updated selection criteria for target gNB. Based on the output, the MDAS consumer shall adjust the resources, such as scaling out/up the virtual resource, re-scheduling/optimizing radio resource, and adjusting the selection criteria of the target gNB by considering the overlapping coverages of interfrequency and inter-RAT deployments.
-Additionally, the system shall incorporate handover optimization based on UE load, taking into account the projected UE load on the target cell, including additional radio and virtual resources. This will help ensure that the target eNB has adequate resources to accept handover requests, thereby improving the overall efficiency of the handover process and reducing the likelihood of service disruptions.</t>
+          <t xml:space="preserve"> The system shall utilize Management Data Analytics (MDA) to optimize handover procedures in a virtualized environment by provisioning and selecting appropriate target gNodeB (gNB) based on current and predicted resource consumption, capabilities, and other Key Performance Indicators (KPIs). The system shall provide a handover optimization analytics output that includes recommended actions to enhance the target gNB for handover purposes, such as resource reconfiguration or updated selection criteria. Furthermore, the system shall enable the adjustment of resources, both legacy and virtual, and the selection criteria for target gNBs by the MDAS consumer, taking into account overlapping coverages of interfrequency and inter-RAT deployments to reduce handover rejections, minimize resource wastage, and decrease service disruptions due to increased latency and Radio Link Failures (RLFs).</t>
         </is>
       </c>
     </row>
@@ -925,7 +986,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide exposure of alarm messages from the Mobile Network Operator (MNO) to the Distribution System Operator (DSO) to reduce the response time for communication incidents, aiming to achieve a response time of less than one hour and significantly improve network availability.</t>
+          <t xml:space="preserve"> The system shall automatically detect communication incidents within the DSO's network by monitoring router infrastructure, including periodic ICMP echo message checks for latency and reachability. Upon complete access failure, the system shall identify the incident and its root cause within a response time of less than two hours.
+The system shall leverage automation to manage the detection and initial assessment of tens of thousands of similar services to improve overall network availability.
+In the event that the DSO cannot obtain information from the Mobile Network Operator (MNO) within an 8-hour window, the system shall automatically generate detailed incident reports, capturing all relevant information automatically. These incidents shall be managed manually, with the option for remote or onsite operations to address and resolve the incidents.
+If the DSO receives timely information from the MNO, the system shall significantly reduce the incident response time to less than one hour, thereby enhancing network availability and reducing the need for extended manual incident management.
+The system shall expose alarm messages from the MNO to the DSO to minimize delay in incident detection and response, thereby improving the efficiency of communication and coordination between the DSO and the MNO.</t>
         </is>
       </c>
     </row>
@@ -950,7 +1015,10 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide exposure of alarm messages from the Mobile Network Operator (MNO) to the Distribution System Operator (DSO) to reduce the response time for communication incidents, aiming to achieve a response time of less than one hour and significantly improve network availability.</t>
+          <t xml:space="preserve"> The system shall automatically detect communication incidents within the DSO's network infrastructure by monitoring router performance, including periodic ICMP echo (ping) message checks for latency and reachability. Upon complete access failure, the system shall identify the incident and automatically generate detailed incident reports, capturing all relevant information, within a response time frame of less than two hours.
+The system shall leverage automation to enhance the availability of the DSO's network services, considering the potential exposure of alarm messages from Mobile Network Operators (MNOs) to reduce incident detection and response delays.
+In scenarios where the DSO cannot obtain information from MNOs within the standard two-hour response window, the system shall automatically escalate the incidents, requiring dedicated operational time of eight hours or more for individual addressing and resolution. During this extended response period, the system shall continue to capture and manage all incident-related information automatically.
+Upon resolution of incidents that exceed the standard two-hour response time, the system shall facilitate a dramatic reduction in overall network downtime, aiming to achieve an improved availability level with response times potentially reduced to less than one hour, contingent upon the receipt of timely information from MNOs.</t>
         </is>
       </c>
     </row>
@@ -975,7 +1043,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall allow EAS to declare its SLA requirements in terms of bandwidth and latency for the data connection with the UE. Additionally, the system shall be able to select an EDN based on the SLA requirements of an EAS.</t>
+          <t xml:space="preserve"> The system shall have the capability to allow Evolved Circuit Switched Public Land Mobile Internet (ECSP) management to declare Service Level Agreement (SLA) requirements in terms of bandwidth and latency for the data connection with the User Equipment (UE). Additionally, the system shall be able to select an Enhanced Data Network (EDN) based on the declared SLA requirements of a Service Enabler (EAS).</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1068,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall allow EAS to declare its SLA requirements in terms of bandwidth and latency for the data connection with the UE. Additionally, the system shall be able to select an EDN based on the SLA requirements of an EAS.</t>
+          <t xml:space="preserve"> The system shall have the capability to allow Evolved Circuit Switched Public Land Mobile Internet (ECSP) management to declare Service Level Agreement (SLA) requirements in terms of bandwidth and latency for the data connection with the User Equipment (UE). Additionally, the system shall be able to select an Enhanced Data Network (EDN) based on the declared SLA requirements of a Service Enabler (EAS).</t>
         </is>
       </c>
     </row>
@@ -1025,14 +1093,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide a functioning network for the DSO electrical system operations centre engineer to monitor and manage the energy system, ensuring availability, efficiency, and safety.
-The system shall deploy monitoring and control mechanisms in the network, allowing the DSO network operations centre engineer to determine how to control and configure the network for resiliency, such as switching between different accesses to maximize availability.
-The system shall maintain a set of substation networks with routers that include a UE for wide area communications, which the DSO network operations centre engineer is responsible for.
-The system shall expose monitoring mechanisms to authorized third parties, including the DSO, to observe the performance of the telecommunications network over time, capture historic data, and continually watch for performance degradation indicating risk of an incident.
-The system shall provide network-level alarms based on the overall statistical performance of the network, not corresponding to the performance of individual UEs or sessions.
-The system shall allow the DSO network operations centre engineer to request which metrics, under which conditions, and with what granularity will be provided through the exposed monitoring mechanism interface.
-The system shall deliver reports according to the configured parameters, including latency, throughput, packet loss, and availability, with location (cell ID) and frequency of reporting.
-The system shall enable the DSO network operations centre engineer to trigger a fail-over to a backup network communications facility when a problem develops, reducing or even eliminating the occurrence of incidents and significantly reducing the interval in which the DSO substation network components are unreachable or only reachable with inadequate quality of service.</t>
+          <t xml:space="preserve"> The system shall provide a configurable monitoring mechanism interface for the DSO network operations centre engineer to observe the performance of the telecommunications network over time, capturing historic data and continually watch for performance degradation indicating risk of an incident. The interface shall allow the engineer to request specific metrics under certain conditions, with the ability to configure reports including frequency and parameters to report, such as latency, throughput, packet loss, and availability. The reports shall include crucial time-stamped information and be delivered according to the specified configuration. Additionally, the system shall enable the DSO network operations centre engineer to proactively trigger a fail-over to a backup network communications facility in response to detected issues, significantly reducing the duration of any potential service interruptions.</t>
         </is>
       </c>
     </row>
@@ -1057,14 +1118,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide a functioning network for the DSO electrical system operations centre engineer to monitor and manage the energy system, ensuring availability, efficiency, and safety.
-The system shall deploy monitoring and control mechanisms in the network, allowing the DSO network operations centre engineer to determine how to control and configure the network for resiliency, such as switching between different accesses to maximize availability.
-The system shall maintain a set of substation networks with routers that include a UE for wide area communications, which the DSO network operations centre engineer is responsible for.
-The system shall expose monitoring mechanisms to authorized third parties, including the DSO, to observe the performance of the telecommunications network over time, capture historic data, and continually watch for performance degradation indicating risk of an incident.
-The system shall provide network-level alarms based on the overall statistical performance of the network, not corresponding to the performance of individual UEs or sessions.
-The system shall allow the DSO network operations centre engineer to request which metrics, under which conditions, and with what granularity will be provided through the exposed monitoring mechanism interface.
-The system shall deliver reports according to the configured parameters, including latency, throughput, packet loss, and availability, with location (cell ID) and frequency of reporting.
-The system shall enable the DSO network operations centre engineer to trigger a fail-over to a backup network communications facility when a problem develops, reducing or even eliminating the occurrence of incidents and significantly reducing the interval in which the DSO substation network components are unreachable or only reachable with inadequate quality of service.</t>
+          <t xml:space="preserve"> The system shall provide a configurable monitoring mechanism interface for the DSO network operations centre engineer to observe the performance of the telecommunications network over time, capturing historic data and continually watch for performance degradation indicating risk of an incident. The interface shall allow the engineer to request specific metrics under certain conditions, with the ability to configure reports including frequency and parameters to report, such as latency, throughput, packet loss, and availability. The reports shall include crucial time-stamped information and be delivered according to the specified configuration. Additionally, the system shall enable the DSO network operations centre engineer to proactively trigger a fail-over to a backup network communications facility in response to detected issues, significantly reducing the duration of any potential service interruptions.</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1143,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide separate monitoring for UL and DL user plane latencies to meet service performance expectations for 5G services, such as URLLC. The system shall measure average DL latency and latency distributions to reflect user experience accurately. The system shall measure delay for each network slice S-NSSAI to accommodate different requirements. The system shall offer separate counters per mapped 5QI to pinpoint performance problems effectively.</t>
+          <t xml:space="preserve"> The system shall monitor and separately report on User Plane (UL) and Data Plane (DL) latencies to meet the low latency expectations for 5G Ultra Reliable and Low Latency Communications (URLLC) services. It shall provide average DL IP latency measurements within the gNB for data packets transmitted without prior data, and measure DL latency distributions across various latency ranges to reflect user experience accurately. Additionally, the system shall measure delay for each Service-Specific Network Slice Identifier Assigned Index (S-NSSAI) to cater to different network slice requirements. To further identify and troubleshoot performance issues, the system shall offer separate counters for each mapped 5G Performance Indicator (5QI), particularly useful for services and users with minimal variations in packet size.</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1168,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall establish a Service-Level Agreement (SLA) consisting of a technical part (SLS) and a non-technical part (pricing, billing conditions, penalties, etc.). The technical part, referred to as SLS, captures service requirements which are input to the 3GPP management system. The system shall ensure that the SLA fulfillment is continually monitored by network management service providers through key performance indicators (KPIs) and key quality indicators (KQIs) such as communication service availability, communication service reliability, end-to-end latency, and UE speed. If the SLA is not fulfilled, the system shall adopt network optimization techniques, such as resource reconfiguration, to resolve performance degradation and assure SLS compliance.</t>
+          <t xml:space="preserve"> The system shall allocate network resources based on service requirements to provide communication services with high availability and low end-to-end latency. It shall monitor network performance to continually evaluate the fulfillment of Service Level Agreements (SLAs), including key performance indicators (KPIs) such as communication service availability, reliability, end-to-end latency, and user equipment (UE) speed. In cases where the SLA is not met, the system shall optimize network resources to resolve performance issues and assure SLA compliance.</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1193,8 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall allow the mobile network operator (NPN-SP) to provision a private network (PNI-NPN) for an enterprise (NPN-SC) through a network slice of a Public Land Mobile Network (PLMN). The system shall enable the NPN-SC to provide NPN-related Service Level Agreement (SLA) requirements to the NPN-SP, specifying coverage, throughput, latency, and other business-related information. The system shall facilitate the mapping of these SLA requirements into ServiceProfile attributes by the NPN-SP. The system shall support the NSMS_P in determining the utilization of existing or new Network Slice Management System (NSMS) entities within the NG-RAN and 5GC domains. The system shall enable the NSMS_P to assign the CAG ID for access control of PNI-NPN UEs based on the access policy derived from the operator. The system shall provide the NSMS_P with the capability to determine the utilization of new or existing 5GC NFs within the 5GC domain. The system shall allow for the consideration of any TN domain-related requirements provided to the management system of the TN domain. The system shall enable the NSMS_P to send the NSI allocation result, including relevant network slice instance information, to the NPN-SP.</t>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details.
+The system shall provision a Private Network Identifier (PNI-NPN) for enterprise use by a mobile network operator (NPN-SP) in the form of a network slice of a Public Land Mobile Network (PLMN). The NPN-SP shall map the Service Profile attributes, which include SLA requirements and business-related information provided by the enterprise (NPN-SC), into ServiceProfile attributes as per TS 28.541. The NPN-SP shall send the ServiceProfile in an "AllocateNSI" request to the Network Service Management System (NSMS_P). The NSMS_P shall determine the utilization of existing Network Service Elements (NEs) or new NEs within the PLMN or deployed locally at the enterprise's premise or in the factory, based on the access policy from the operator. The Network Resource Controller (NRCellDU) should be configured with the Cellular Access Gateway (CAG) ID to support UE access control for PNI-NPN. The system shall also determine the utilization of new or existing 5GC Network Functions (NFs) within the PLMN. If any Tunnel Network (TN) domain related requirements are provided, the management system of the TN domain shall be informed accordingly. The NSMS_P shall send the NSI allocation result in an "AllocateNsi" response to the NPN-SP, including relevant network slice instance information.</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1219,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall allow an Application Service Provider (ASP) to query for available Availability Zones (AZs) and their characteristics, including Quality of Service (QoS) parameters such as latency and jitter. The system shall enable the ASP to select a target AZ for application deployment. The system shall reserve virtual resources in the specified AZ upon request from the ASP. The system shall deploy the application within the selected AZ as part of the Availability Zone.</t>
+          <t xml:space="preserve"> The system shall:
+1. Define an Availability Zone (AZ) as the fundamental network abstraction for developers deploying applications at the edge, representing a specific geographical area.
+2. Describe a Cloudlet as a deployment point for edge applications within the edge cloud infrastructure, without disclosing its physical location to application service providers (ASPs).
+3. Ensure that multiple Cloudlets can exist within a single Availability Zone.
+4. Require the Application Service Provider (ASP) to specify the target Availability Zone when requesting application deployment, without the option to target a specific edge cloud.
+5. Enable the ASP to inquire about the Quality of Service (QoS), such as latency and jitter, available in a particular Availability Zone.
+6. Mandate that the ASP must specify the target Availability Zone when making an application deployment request to the Elastic Cloud Service Provider (ECSP).
+7. Allow the ASP to reserve virtual resources in a chosen Availability Zone upon request.
+8. Require the ECSP to respond to ASP queries with a list of available Availability Zones and their respective characteristics, including supported QoS metrics.
+9. Permit the ASP to select an Availability Zone based on the characteristics provided by the ECSP for application deployment.
+10. Ensure that the ECSP deploys the specified application within the chosen Availability Zone as part of the overall infrastructure management.</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1254,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall receive SLA requirements of the requested SNPN from NPN-SC, including NPN-related SLA and other business-related information. The system shall map SLS into 3GPP-related NPN requirements, including RAN/CN/TN part-related requirements. The system shall send the 3GPP-related NPN requirements in the form of NRM fragments to NPN-OP. The system shall determine the constituent network resources and topology needed for the SNPN creation, including the creation of Managed Object instances using the operations of generic provisioning MnS. The system shall determine whether to reuse an existing 3GPP segment or create a new one for the requested NPN, and if a new segment is needed, the system shall utilize new RAN NE(s), CN NF(s) or CN NF services, and configure the underlying transport network based on SNPN topology and performance. The system shall notify the created 3GPP segment information to the NPN-SP, reusing the notifications of generic provisioning MnS.</t>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details.
+The system shall provision a Service Network Profile (SNPN) that includes 3GPP segments only, when required by an NPN-SC. This provisioning process is illustrated in Figure 6.2.1-1.
+The system shall allow the NPN-SC to specify SLA requirements for the requested SNPN, which includes vertical industry requirements such as coverage, throughput, and latency requirements, as well as other business-related information such as NPN lifetime.
+The system shall map the SLA requirements from the NPN-SC into 3GPP-related NPN requirements, including RAN, CN, and TN part-related requirements.
+The system shall send the 3GPP-related NPN requirements in the form of NRM fragments, such as ServiceProfile, to the NPN-OP.
+The system shall determine the constituent network resources and topology needed for the SNPN creation by the NPN-OP. The related Managed Object instances, such as GNBCUCPFunction IOC, GNBDUFunction IOC, and GNBCUUPFunction IOC, shall be created for the requested SNPN using generic provisioning MnS operations in TS 28.532.
+The system shall determine whether to reuse an existing 3GPP segment or create a new 3GPP segment for the requested SNPN. If a 3GPP segment from an existing stand-alone NPN can be reused, the system shall reconfigure that SNPN.
+If a new 3GPP segment is required for the SNPN, the system shall utilize new RAN NE(s), CN NF(s) or CN NF service(s), and configure the underlying transport network based on SNPN topology and performance information.
+The system shall notify the created 3GPP segment information, such as the DN of created MOI, to the NPN-SP, which shall subscribe to the provisioning notification by reusing the notifications of generic provisioning MnS in TS 28.532.</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1287,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide standardized interfaces and report formats for Problem Management and Incident Management processes between energy utility service providers and multiple MNOs, enabling efficient and rapid resolution of issues across national borders.
-The system shall facilitate the exchange of communication status data, including availability, latency, and other performance metrics, between energy utility service providers and MNOs to identify and resolve problems and incidents in their respective networks.
-The system shall support the analysis of problems to identify their root cause, enabling energy utility service providers to diagnose and resolve issues more effectively.
-The system shall enable energy utility service providers to differentiate between communication problems originating from their own networks and those resulting from MNOs' services and networks, allowing for more rapid response and resolution.
-The system shall support the implementation of standardized IT processes for Problem Management and Incident Management, even though the specifics of these processes are out of scope of 3GPP standards.
-The system shall focus on energy distribution services, where communication availability is critical for stability and recovery of service to customers, while acknowledging the relevance of smart energy aspects in generation, transmission, and consumption.</t>
+          <t xml:space="preserve"> The system shall facilitate standardized interaction protocols between Distribution Service Operators (DSOs) and Mobile Network Operators (MNOs) for Problem Management and Incident Management processes. It shall enable the identification and resolution of communication issues within the energy utility service provider's network, distinguishing whether the root cause is external (MNO's service and network) or internal. The system shall support the rapid diagnosis and resolution of incidents by adhering to predefined procedures. Furthermore, the system shall allow for the standardization of information reporting formats and interfaces in 3GPP, reducing complexity and accelerating the problem and incident resolution process across multiple MNOs. Lastly, the system shall provide a mechanism for sharing performance metrics and communication status data from energy utility service providers with MNOs, enhancing overall network reliability and service quality.</t>
         </is>
       </c>
     </row>
@@ -1244,12 +1312,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide standardized interfaces and report formats for Problem Management and Incident Management processes between energy utility service providers and multiple MNOs, enabling efficient and rapid resolution of issues across national borders.
-The system shall facilitate the exchange of communication status data, including availability, latency, and other performance metrics, between energy utility service providers and MNOs to identify and resolve problems and incidents in their respective networks.
-The system shall support the analysis of problems to identify their root cause, enabling energy utility service providers to diagnose and resolve issues more effectively.
-The system shall enable energy utility service providers to differentiate between communication problems originating from their own networks and those resulting from MNOs' services and networks, allowing for more rapid response and resolution.
-The system shall support the implementation of standardized IT processes for Problem Management and Incident Management, even though the specifics of these processes are out of scope of 3GPP standards.
-The system shall focus on energy distribution services, where communication availability is critical for stability and recovery of service to customers, while acknowledging the relevance of smart energy aspects in generation, transmission, and consumption.</t>
+          <t xml:space="preserve"> The system shall facilitate standardized interaction protocols between Distribution Service Operators (DSOs) and Mobile Network Operators (MNOs) for Problem Management and Incident Management processes. It shall enable the identification and resolution of communication issues within the energy utility service provider's network, distinguishing whether the root cause is external (MNO's service and network) or internal. The system shall support the rapid diagnosis and resolution of incidents by adhering to predefined procedures. Furthermore, the system shall allow for the standardization of information reporting formats and interfaces in 3GPP, reducing complexity and accelerating the problem and incident resolution process across multiple MNOs. Lastly, the system shall provide a mechanism for sharing performance metrics and communication status data from energy utility service providers with MNOs, enhancing overall network reliability and service quality.</t>
         </is>
       </c>
     </row>
@@ -1274,10 +1337,10 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support the SLA requirements from the Application providers, including the following properties:
-1. The system shall provide a bidirectional data rate between the User Equipment (UE) and the backend application, as specified by the Application Provider.
-2. The system shall ensure that the round trip delay between the UE and the backend application meets the latency requirements specified by the Application Provider.
-The Application Service Provider (ASP) can declare such requirements for an Edge Application Service (EAS). The EAS must be deployed at an Edge Data Network (EDN) that can satisfy these requirements.</t>
+          <t xml:space="preserve"> The system shall support Service Level Agreement (SLA) requirements as specified by Application Providers (APs) for Edge Application Services (EAS). These SLA requirements must include:
+1. A bidirectional data rate specification, ensuring the EAS can provide the declared bandwidth between the User Equipment (UE) and the backend application.
+2. A latency specification, guaranteeing the EAS can maintain the round-trip delay between the UE and the backend application within the defined limits.
+The system shall ensure that the Edge Data Network (EDN) on which the EAS is deployed is capable of meeting these SLA requirements to deliver a satisfactory Quality of Experience (QoE) for the end-user.</t>
         </is>
       </c>
     </row>
@@ -1302,10 +1365,10 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support the SLA requirements from the Application providers, including the following properties:
-1. The system shall provide a bidirectional data rate between the User Equipment (UE) and the backend application, as specified by the Application Provider.
-2. The system shall ensure that the round trip delay between the UE and the backend application meets the latency requirements specified by the Application Provider.
-The Application Service Provider (ASP) can declare such requirements for an Edge Application Service (EAS). The EAS must be deployed at an Edge Data Network (EDN) that can satisfy these requirements.</t>
+          <t xml:space="preserve"> The system shall support Service Level Agreement (SLA) requirements as specified by Application Providers (APs) for Edge Application Services (EAS). These requirements must include:
+1. A bidirectional data rate specification, ensuring the EAS can provide the declared bandwidth between the User Equipment (UE) and the backend application.
+2. A latency specification, guaranteeing the EAS can maintain the round-trip delay between the UE and the backend application within the defined limits.
+The system shall ensure that the Edge Data Network (EDN) on which the EAS is deployed is capable of meeting these SLA requirements to deliver the expected Quality of Experience (QoE) to the end-user.</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1393,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide a measurement method for evaluating the resource load of URLLC services at the transmission occasion in eMBB and URLLC multiplexing scenarios, to effectively assess the actual congestion of URLLC services and ensure timely data transmission.</t>
+          <t xml:space="preserve"> The system shall propose a measurement method for evaluating the resource load of URLLC services at the transmission occasion in eMBB and URLLC multiplexing scenarios. This method should effectively reflect the actual congestion of URLLC services, considering their high latency requirements and the potential for immediate data transmission needs that may preempt eMBB service resources. The proposed measurement method must go beyond the current PRB usage rate-related measurements, as outlined in TS 28.552 [13], to provide a more accurate and timely assessment of resource availability and utilization for URLLC services within a cellular network.</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1418,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure end-to-end (E2E) latency is within specified time constraints for Ultra-Reliable Low-Latency Communication (URLLC) services, successfully delivering user data packets to satisfy end-user requirements. The system shall monitor and adapt to network capability and configuration changes to maintain latency requirements, even under degraded network conditions. The system shall provide the MDAS producer with the necessary tools and data to analyze latency-related issues and support Service Level Agreement (SLA) assurance.</t>
+          <t xml:space="preserve"> The system shall ensure end-to-end latency meets the stringent requirements for Ultra-Reliable Low-Latency Communication (URLLC) services, guaranteeing the successful delivery of user data packets within predefined time constraints. It must account for network capabilities and configurations as potential influencers of latency, and provide mechanisms to analyze and assure latency requirements despite possible degradation in network conditions.</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1443,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall allow an ASP to consume provisioning MnS to instantiate the EAS, with both ASP and ECSP consumers subscribed to the provisioning MnS producer for notifications. The system shall support the creation of MOI using the createMOI operation for EASRequirements IOC to request ECSP provisioning MnS producer to initiate EAS VNF instantiation. The system shall enable the ECSP provisioning MnS producer to send a response to the ASP indicating the instantiation operation's progress. The system shall allow the ECSP provisioning MnS producer to analyze deployment requirements to determine the appropriate EDN and number of EAS instances to satisfy the requirements, and download the EAS VNF software image from the specified location. The system shall enable the ECSP provisioning MnS producer to invoke the InstantiateNsRequest or UpdateNsRequest operation to request NFVO via the Os-Ma-nfvo interface to instantiate a NS instance including the EAS VNF instance. The system shall allow NFVO to send a notification to the ECSP provisioning MnS producer indicating the result of the instantiation procedure. The system shall enable the ECSP provisioning MnS producer to create the MOI for EASFunction IOC if the VNF instantiation is successful. The system shall allow the ECSP provisioning MnS producer to create the MOI for EASRequirements IOC and notify the ASP about the successful instantiation of EAS with the creation of MOIs for the EASRequirement IOC and EASFunction(s) IOC if all VNF instances have been successfully instantiated. Otherwise, the system shall allow the ECSP provisioning MnS producer to notify the ASP about the unsuccessful instantiation of the EAS.</t>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details. The system shall consume provisioning MnS with the &lt;i&gt;createMOI&lt;/i&gt; operation to request ECSP provisioning MnS producer to start the EAS VNF instantiation. The EASRequirements IOC, containing deployment requirements such as service areas, software image information, virtual resource information, QoS requirements, service continuity requirements, and affinity/anti-affinity, should be included in the request. The ECSP provisioning MnS producer shall send a response indicating the instantiation operation is in progress. The producer shall analyze the deployment requirements to determine the appropriate EDN and number of EAS instance(s) to satisfy the requirements. The producer shall download the EAS VNF software image and invoke the &lt;i&gt;InstantiateNsRequest&lt;/i&gt; or UpdateNsRequest operation to request NFVO to instantiate a NS instance including the EAS VNF instance. The NFVO shall send a notification to the ECSP provisioning MnS producer indicating the result of the instantiation procedure. If the VNF instantiation is successful, the producer shall create the MOI for EASFunction IOC. If all VNF instance(s) have been successfully instantiated, the producer shall create the MOI for EASRequirements IOC and notify ASP about the successful instantiation of EAS. If the instantiation is unsuccessful, the producer shall notify ASP about the unsuccessful instantiation of the EAS.</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1468,10 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall ensure that for the Network Slice object, the expectation target User throughput is greater than 5 Mbps and the expectation target latency is less than 1 ms. Additionally, the system shall ensure that for the Communication Service object, the expectation target User throughput is greater than 2 Mbps. These expectation targets are context-specific and may vary based on the target context.</t>
+          <t xml:space="preserve"> The system shall ensure that for the Expectation Object O, the following expectation targets are achieved given their respective target contexts:
+1. For the Network Slice object (Expectation Object O), the Expectation Target 1 is to have a Coverage area that is greater than a 40 km radius (Target Context 1 is the Network Slice).
+2. For the Communication Service object (Expectation Object O), the Expectation Target 2 is to have a User throughput that is greater than 2 Mbps (Target Context 2 is the Communication Service).
+This requirement encapsulates the intent expectation that the system must meet specific performance metrics for different objects within their respective contexts.</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1496,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall analyze the ExpectationTarget within an intent to determine if it can be fulfilled by the correlated MDA function(s). The intent MnS producer must check if the ExpectationTarget is within the scope of the supportedMDACapabilities of the correlated MDA function(s). If the ExpectationTarget is not supported, the intent MnS producer shall inform the intent consumer that the intent cannot be fulfilled due to the lack of capability of the MDA function. If the ExpectationTarget is supported, the intent MnS producer shall request the MDA report of the expectation targets by creating a MOI of MDARequest. The information included in the MDA request shall be based on the intent received and its implementation, including the value of requestedMDAOutputs, analyticsScope, and other attributes based on context information included in the intent.</t>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details. The system shall analyze the intent ExpectationTarget, whether it can be fulfilled or not, by utilizing the MDA function(s) capabilities. When an intent MnS producer receives an intent, it must check if the ExpectationTarget is within the scope of the supportedMDACapabilities of the correlated MDA function(s). If the MDA function lacks the capability to fulfill the ExpectationTarget, the intent MnS producer should inform the intent consumer of the intent's unfulfillability due to the MDA function's limitations. Conversely, if the MDA function supports the capability, the intent MnS producer should request the MDA report of the expectation targets. Additionally, the system should include attributes in the fulfillmentInfo datatype or intent report to indicate when the intent is not within the scope of the supported MDACapabilities of the correlated MDA function.</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1521,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall analyze the ExpectationTarget within an intent to determine if it can be fulfilled by the correlated MDA function(s) based on their supportedMDACapabilities. If the ExpectationTarget is within scope, the intent MnS producer should request the MDA report of the expectation targets. If the ExpectationTarget is not within scope due to lack of capability, the intent MnS producer should inform the intent consumer that the intent cannot be fulfilled. The fulfilmentInfo or intent report should indicate when the intent is not in the scope of the supportedMDACapabilities of the correlated MDA function. The MDArequest information should be based on the intent received and implementation, including the requestedMDAOutputs, analyticsScope, and other attributes based on context information included in the intent.</t>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details. The system shall analyze intent ExpectationTargets, such as network or network function KPIs, using MDA function(s) to determine fulfillment capability. If an intent's ExpectationTarget is within the scope of supported MDACapabilities of the correlated MDA function, the intent MnS producer should request the MDA report of the expectation targets. Conversely, if the MDA function lacks the capability to fulfill the ExpectationTarget, the intent MnS producer should inform the intent consumer of the intent's unfulfillability due to the MDA function's limitations.</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1546,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall enable Edge Computing by hosting operator and 3rd party services close to the UE's access point of attachment to achieve efficient service delivery through reduced end-to-end latency and load on the transport network.
-The system shall provide Edge Computing services to mobile network operators.
-The system shall support an Edge Data Network that enables the architecture for enabling edge applications.
-The system shall include an ECSP Management System that utilizes 3GPP defined management services to enable consumers (e.g., ASP. ECSP) to orchestrate and manage the EDN.
-The system shall include a PLMN Management System that utilizes 3GPP defined management services to enable consumers (e.g., PLMN operator) to orchestrate and manage the mobile networks.
-The system shall define Availability Zones as per GSMA Operator Platform Telco Edge Requirements.</t>
+          <t xml:space="preserve"> The system shall provide Edge Computing services as defined in 3GPP TS 23.501 [4], ensuring efficient service delivery with reduced end-to-end latency and load on the transport network.
+The system shall offer Edge Computing Service Provider capabilities to mobile network operators, enabling them to host operator and third-party services close to the User Equipment's (UE's) access point of attachment.
+The system shall support the deployment and operation of an Edge Data Network (EDN), which is a local data network designed to facilitate edge applications.
+The system shall incorporate an ECSP Management System that leverages 3GPP defined management services, allowing consumers such as Application Service Providers (ASP) to effectively orchestrate and manage the Edge Data Network (EDN).
+The system shall include a PLMN Management System that utilizes 3GPP defined management services, empowering consumers like PLMN operators to orchestrate and manage mobile networks.
+The system shall define and support Availability Zones as per the GSMA Operator Platform Telco Edge Requirements [14].</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1576,13 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall enable Network Slice Customer (NSC) to order a network slice from Network Slice Provider (NSP) by expressing their requirements for bandwidth, latency, coverage, and network slice management capabilities exposure. The system shall allow NSP Business Support System (BSS) to receive and analyze the NSC product order request, and send a service order request to NSP Operations Support System (OSS) Service Management and Orchestration (SMO) layer. The system shall enable NSP OSS SMO to receive, analyze, and capture NSC requirements in the form of NSC-specific access control data. The system shall allow NSP OSS/SMO to send the service order response to BSS and enable BSS to send the product order response to NSC. During the network slice operation phase, the system shall enable NSP to check NSC requests for access to network slice management capabilities against the data available in its Access Control NRM during the authorization phase.</t>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details. The system shall enable Network Slice Customer (NSC) to order a network slice with specified requirements including bandwidth, latency, coverage, and network slice management capabilities exposure. The system shall allow NSC to express these requirements in the product order request to the Network Slice Provider (NSP).
+* The system shall facilitate the receipt and analysis of NSC product order requests by the NSP Business Support System (BSS).
+* The system shall enable the NSP BSS to send a service order request to the NSP Operations Support System/Service Management (OSS/SML), which includes NSC requirements related to network slice management capabilities exposure.
+* The system shall ensure that the NSP OSS/SML receives and analyzes the requirements from the service order request, and captures them in the form of NSC-specific access control data.
+* The system shall require the creation of an Access Control NRM fragment to capture per NSC (tenant) access rights.
+* The system shall allow the NSP OSS/SML to accept or reject NSC requests to access network slice management capabilities during the authorization phase, by checking the request against the data available in its Access Control NRM.
+* The system shall enable the NSP BSS to send the product order response to the NSC.</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1607,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall enable Network Slice Customer (NSC) to express its requirements for network slice management capabilities exposure in the product order request to Network Slice Provider (NSP). The system shall allow NSP Business Support System (BSS) to receive and analyze NSC product order requests, including requirements related to network slice management capabilities exposure. The system shall facilitate NSP BSS to send a service order request to NSP Operations Support System (OSS) Service Management and Orchestration (SMO) layer, including NSC requirements for network slice management capabilities exposure. The system shall enable NSP OSS SMO to receive, analyze, and capture NSC requirements for network slice management capabilities exposure in the form of NSC-specific access control data. The system shall allow NSP OSS/SMO to send the service order response to NSP BSS. The system shall enable NSP BSS to send the product order response to NSC. The system shall support the authorization phase during network slice operation, where NSP may check NSC's request for access to network slice management capabilities against the data available in its Access Control NRM. The system shall allow NSP OSS SMO to accept or reject NSC's request to access network slice management capabilities.</t>
+          <t xml:space="preserve"> The system shall enable Network Slice Customer (NSC) to order a network slice with specified requirements, including bandwidth, latency, coverage, and network slice management capabilities exposure expectations, to its Network Slice Provider (NSP).
+The system shall allow NSP Business Support Systems (BSS) to receive, analyze, and process NSC product order requests, including the requirements for network slice management capabilities exposure.
+The system shall facilitate NSP OSS Service Management (SML) to capture NSC-specific access control data in the form of an Access Control NRM fragment, based on the requirements received from NSP OSS BSS.
+The system shall permit NSP OSS/SML to send service order responses to NSP BSS and subsequently to NSC during the network slice operation phase.
+The system shall support NSP in checking NSC requests for access to network slice management capabilities against the data available in its Access Control NRM during the authorization phase.
+The system shall empower NSP OSS/SML to accept or reject NSC requests to access network slice management capabilities based on the analysis of the requirements and the data in the Access Control NRM.</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1637,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall apply the already defined Energy Efficiency (EE) Key Performance Indicators (KPIs) for Ultra-Reliable Low-Latency Communication (URLLC) network slices, as specified in TS 28.554 [2] clause 6.7.2.3, to V2X network slices, given that V2X scenarios have performance requirements with regard to latency and reliability in the same range as URLLC.</t>
+          <t xml:space="preserve"> The system shall consider the already defined EE Key Performance Indicators (KPIs) for URLLC network slices, as specified in TS 28.554 [2] clause 6.7.2.3, to be applicable for V2X network slices without the necessity to define additional EE KPIs.</t>
         </is>
       </c>
     </row>
@@ -1585,24 +1662,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support model training for network energy saving use case in TR 37.817 [2] by enabling the 3GPP management service producer to collect the following input data from serving nodes, UEs, and neighboring NG-RAN nodes:
-1. From serving node:
-   - UE mobility/trajectory prediction.
-   - Current/Predicted Energy efficiency.
-   - Current/Predicted resource status.
-2. From the UE:
-   - UE location information (e.g., coordinates, serving cell ID, moving velocity) interpreted by gNB implementation when available.
-   - UE measurement report (e.g., UE RSRP, RSRQ, SINR measurement, etc.) including cell level and beam level UE measurements.
-3. From neighboring NG-RAN nodes:
-   - Current/Predicted energy efficiency.
-   - Current/Predicted resource status.
-   - Current energy state (e.g., active, high, low, inactive).
-To optimize the performance of AI/ML-based network energy saving model, the system shall collect the following feedback from NG-RAN nodes:
-   - Resource status of neighboring NG-RAN nodes.
-   - Energy efficiency.
-   - UE performance affected by the energy saving action (e.g., handed-over UEs) including bitrate, packet loss, latency.
-   - System KPIs (e.g., throughput, delay, RLF of current and neighboring NG-RAN node).
-Note: The data of resource status and energy efficiency are to be defined in the stage 2 and stage 3 solutions for Network energy saving use case.</t>
+          <t xml:space="preserve"> The system shall collect input data from serving nodes, including UE mobility/trajectory prediction, current and predicted energy efficiency, current and predicted resource status, and from the UE, such as location information, UE measurement reports, and from neighboring NG-RAN nodes, including current and predicted energy efficiency, current and predicted resource status, and the current energy state. Additionally, the system shall optimize the performance of AI/ML-based network energy saving models by collecting feedback from NG-RAN nodes on resource status, energy efficiency, UE performance affected by energy-saving actions, and system KPIs.</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1687,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall introduce Bandwidth and Latency parameters in the EASRequirements IOC to support SLA requirements when deploying an EAS. Additionally, the system shall incorporate new performance measurements and KPIs related to Bandwidth and Latency between the User Equipment (UE) and the EAS, as detailed in clause 6.8.3.</t>
+          <t xml:space="preserve"> The system shall introduce Bandwidth and Latency parameters in the EASRequirements Input Output Counter (IOC) to support Service Level Agreement (SLA) requirements during the deployment of an Evolved Audio Streaming (EAS) service. Additionally, the system shall incorporate new performance measurements and Key Performance Indicators (KPIs) related to Bandwidth and Latency between User Equipment (UE) and the EAS to ensure enhanced monitoring and compliance with SLA standards. This detailed solution aligns with clause 6.8.3, ensuring comprehensive coverage of performance metrics critical for EAS deployment success.</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1712,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall introduce Bandwidth and Latency parameters in the EASRequirements IOC to support SLA requirements when deploying an EAS. Additionally, the system shall incorporate new performance measurements and KPIs related to Bandwidth and Latency between the User Equipment (UE) and the EAS, as detailed in clause 6.8.3.</t>
+          <t xml:space="preserve"> The system shall introduce Bandwidth and Latency parameters in the EASRequirements Input Output Counter (IOC) to support Service Level Agreement (SLA) requirements during the deployment of an Evolved Audio Streaming (EAS) service. Additionally, the system shall incorporate new performance measurements and Key Performance Indicators (KPIs) related to Bandwidth and Latency between User Equipment (UE) and the EAS to ensure enhanced monitoring and compliance with SLA standards. This detailed solution aligns with clause 6.8.3, ensuring comprehensive coverage of performance metrics critical for EAS deployment success.</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1737,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall enable Network Service Customers (NSCs) to express their requirements for acceptable Quality of Service (QoS) degradation in order to reduce their Scope 3 emissions via network energy savings. This includes specifying the type, amount, timing, and location of the QoS degradation they are willing to accept. Additionally, the system shall provide NSCs with information about actual Energy Consumption (EC) savings attributable to their decision to accept limited QoS degradation, as reported by their Network Slice Providers (NSPs).</t>
+          <t xml:space="preserve"> The system shall enable Network Service Customers (NSCs) to specify and accept limited Quality of Service (QoS) degradation in network slices to reduce their Scope 3 greenhouse gas (GHG) emissions. This specification should include the following dimensions:
+1. The 'what': NSCs should be capable of expressing the specific QoS limitations they are willing to accept, such as degraded bandwidth, latency, and the number of simultaneously connected User Equipments (UEs).
+2. The 'how much': NSCs should have the ability to define the extent of QoS degradation they are prepared to accept, such as a 10% or 50% degradation level.
+3. The 'when': NSCs should be able to specify the time periods during which they are willing to accept limited QoS degradation, such as specific dates, time slots, or recurrent patterns like weekends.
+4. The 'where': NSCs should have the option to limit QoS degradation to specific geographical locations, such as a particular country or city.
+Additionally, the system shall provide NSCs with the capability to request and receive information from their Network Slice Providers (NSPs) regarding the actual Energy Consumption (EC) savings attributable to their decision to accept limited QoS degradation. This information should be measurable and reportable, allowing NSCs to monitor and verify the energy savings achieved through their cooperation with NSPs.</t>
         </is>
       </c>
     </row>
@@ -1702,15 +1767,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall provide energy-saving management solutions to decrease power consumption in 5G networks, thereby reducing operational expenses.
-The system shall activate the energy-saving mode of the NR capacity booster cell or 5GC NFs (e.g., UPF) based on load information, energy-saving policies set by operators, and energy-saving recommendations provided by MDAS producers.
-The system shall assist the MDAS consumer in making energy-saving decisions by correlating and analyzing energy-saving related performance measurements (e.g., PDCP data volume of cells, power consumption) and network analysis data (e.g., observed service experience related network data analytics) to provide analytics results indicating current network energy efficiency.
-The system shall allow MDAS consumers to determine where energy efficiency issues exist and the cause of these issues.
-The system shall enable MDAS consumers to request analytics results related to high energy consumption issues or low energy efficiency issues, depending on their energy-saving objectives.
-The system shall utilize historical data to predict EE KPI-related factors (e.g., load variation of cells at some future time) and use these predictions to help operators make energy-saving decisions to guarantee service experience.
-The system shall provide energy-saving related recommendations with the energy-saving state to the MDAS consumer, ensuring that the required network performance and network experience are guaranteed.
-The system shall formulate appropriate energy-saving policies (start time, dynamic threshold setting, base station parameter configuration, etc.) to be taken into account by MDAS consumers for making analysis or making energy-saving decisions.
-The system shall enable the MDAS producer to evaluate and further analyze network management data to optimize the recommendations after they have been executed.</t>
+          <t xml:space="preserve"> The system shall:
+1. Activate the energy-saving mode of NR capacity booster cells and 5GC NFs (e.g., UPF) based on load information, energy-saving policies set by operators, and energy-saving recommendations provided by the MDAS producer.
+2. Utilize MDA to assist MDAS consumers in making optimized energy-saving decisions by correlating and analyzing energy-saving related performance measurements and network analysis data.
+3. Determine and report high energy consumption issues in low-traffic scenarios to MDAS consumers, enabling them to reduce energy consumption.
+4. Provide analytics results indicating current network energy efficiency and identify areas with low energy efficiency, even if it may temporarily increase energy consumption in certain network parts.
+5. Predict Energy Efficiency (EE) KPI related factors using historical data to aid operators in making informed energy-saving decisions while maintaining service experience.
+6. Offer energy-saving related recommendations with the energy-saving state to MDAS consumers, ensuring required network performance and experience are guaranteed.
+7. Formulate appropriate energy-saving policies, including start time, dynamic threshold setting, and base station parameter configuration, to be considered by MDAS consumers when making analysis or energy-saving decisions.
+8. Evaluate and analyze network management data post-recommendation execution to optimize future energy-saving recommendations.</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1800,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall enable MnS consumers to express their intent expectations for RAN energy saving in a specified area to MnS producers, including the RAN energy saving target, service experience requirements, and frequencies and RATs to be considered for energy saving. The system shall allow MnS producers to analyze and determine the optimal RAN energy saving solution to satisfy the MnS consumer's intent expectation for RAN energy saving. The system shall utilize intelligence mechanisms to analyze and select the optimal balance between the energy saving effect and service experience. The system shall investigate the model for intent expectation for RAN energy saving based on the generic intent model and radio network expectation defined in TS 28.312 [2].</t>
+          <t xml:space="preserve"> The system shall analyze and determine the optimal Radio Access Network (RAN) energy saving solution to satisfy the intent expectation for RAN energy saving as defined by the generic intent model and radio network expectations in TS 28.312 [2]. This solution should balance the energy saving effect with service experience, considering specified energy saving targets, service quality parameters (e.g., RAN UE throughput and latency), and relevant frequencies and Radio Access Technologies (RATs).</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1825,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall enable MnS consumers to express their intent expectations for RAN energy saving, including maximum RAN energy consumption values, service experience requirements (e.g., RAN UE throughput and latency), and specific frequencies and RATs to be considered for energy saving. The system shall also allow MnS producers to analyze and determine the optimal RAN energy saving solution that satisfies the MnS consumer's intent expectations while maintaining a balance between energy saving effects and service experience. The system shall utilize intelligence mechanisms to analyze and select the optimal balance between energy saving effects and service experience based on the intent approach. The system shall investigate the model for intent expectation for RAN energy saving based on the generic intent model and radio network expectation defined in TS 28.312[2].</t>
+          <t xml:space="preserve"> The system shall analyze and determine the optimal Radio Access Network (RAN) energy saving solution to satisfy the intent expectation for RAN energy saving as defined by the generic intent model and radio network expectations in TS 28.312[2]. This solution should balance the energy saving effect with service experience, considering specified energy saving targets, service quality parameters (e.g., RAN UE throughput and latency), and relevant frequencies and Radio Access Technologies (RATs).</t>
         </is>
       </c>
     </row>
@@ -1785,16 +1850,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support a means for authorized third parties to provide network performance information to an MNO, subject to operator policies, regulatory requirements, and contractual obligations. The data model of the performance information provided by the DSO to the MNO must include at least the following elements: measurement granularity, location of measurement, latency, packet loss, and throughput.
-The system shall provide latency measurements between the DSO's device and the DSO's server the device is communicating with, as an average for the DSO's network traffic.
-The system shall provide throughput measurements, as an average for the DSO's network traffic.
-The system shall provide packet loss measurements, as an average for the DSO's network traffic.
-The system shall allow authentication of the consumer (3rd party) by the producer (3GPP management system) and vice versa.
-The system shall allow authorization of the consumer (3rd party) by the producer (3GPP management system).
-The system shall ensure that communication between the consumer (3rd party) and the producer (3GPP management system) is confidentially protected.
-The system shall ensure that communication between the consumer (3rd party) and the producer (3GPP management system) is integrity protected.
-The system shall allow measurements to be acquired by means that are outside the scope of 3GPP, such as from management MIBs of routers operated by the DSO.
-The system shall further clarify the information elements to include in the incident report during the'solution definition' stage of this study.</t>
+          <t xml:space="preserve"> The system shall support a means for authorized third parties to provide network performance information to a Mobile Network Operator (MNO), ensuring the data model includes measurement granularity, location of measurement, latency, packet loss, and throughput. The system shall facilitate end-to-end latency measurement that encompasses delays from external networks. The system shall enable the calculation of throughput as an average for the third party's network traffic. The system shall allow for the determination of packet loss by observing ICMP and TCP control information, although this methodology is beyond the scope of 3GPP. The system shall provide a confidential and integrity-protected communication channel between the third party and the 3GPP management system, with provisions for authentication and authorization of both parties.</t>
         </is>
       </c>
     </row>
@@ -1819,16 +1875,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall support a means for authorized third parties to provide network performance information to an MNO, subject to operator policies, regulatory requirements, and contractual obligations. The data model of the performance information provided by the DSO to the MNO must include at least the following elements: measurement granularity, location of measurement, latency, packet loss, and throughput.
-The system shall provide latency measurements between the DSO's device and the DSO's server the device is communicating with, including an average for the DSO's network traffic.
-The system shall provide throughput measurements, including an average for the DSO's network traffic.
-The system shall provide packet loss measurements, including an average for the DSO's network traffic.
-The system shall allow authentication of the consumer (3rd party) by the producer (3GPP management system) and vice versa.
-The system shall allow authorization of the consumer (3rd party) by the producer (3GPP management system).
-The system shall ensure confidentiality protection for communication between the consumer (3rd party) and the producer (3GPP management system).
-The system shall ensure integrity protection for communication between the consumer (3rd party) and the producer (3GPP management system).
-The system shall allow measurements to be acquired by means that are outside the scope of 3GPP, such as from management MIBs of routers operated by the DSO.
-The system shall further clarify the information elements to include in the incident report during the'solution definition' stage of this study.</t>
+          <t xml:space="preserve"> The system shall support a means for authorized third parties to provide network performance information to a Mobile Network Operator (MNO), ensuring the data model includes measurement granularity, location of measurement, latency, packet loss, and throughput. The system shall facilitate end-to-end latency measurement that encompasses delays from external networks. The system shall enable the calculation of throughput as an average for the third party's network traffic. The system shall allow for the determination of packet loss by observing ICMP and TCP control information, although this methodology is beyond the scope of 3GPP. The system shall provide a confidential and integrity-protected communication channel between the third party and the 3GPP management system, with the possibility of authentication for both parties and authorization for the third party.</t>
         </is>
       </c>
     </row>
@@ -1853,1134 +1900,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The system shall aggregate performance data over a group of Network Functions (NFs) to generate performance indicators, such as average latency along the network slice. The aggregation method for performance indicators will be identified in their respective definitions.
-The system shall derive performance indicators at the network slice subnet level from performance measurements collected at the NFs belonging to the network slice subnets or their constituent subnets. These performance indicators will be made available via the corresponding performance management service for network slice subnets.
-The system shall derive performance indicators at the network slice level from the network slice subnet level performance indicators collected at the constituent network slice subnets and/or NFs. The network slice level performance indicators will be made available via the corresponding performance management service for network slices.
-When providing a communication service to a tenant, the system shall derive performance indicators from corresponding performance indicators related to the network slice, network slice subnet, and NFs. These performance indicators will be made available via the corresponding performance management service consumed by the tenant. Tenants may be associated with S-NSSAI or sNSSAIList, in which case the performance indicators will be split into subcounters per S-NSSAI for individual tenants.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;5.3.1.1	Support for network performance on reliability in RAN&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.09215443547880153</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>['', 'Reliability is a typical network performance measurement used to evaluate whether the 5G network which provides URLLC services meets the corresponding performance requirements. As for 5G network, it is the radio network including air interface that mainly restricts the reliability and latency performance. Therefore, more attentions should be paid to the reliability and latency performance measurement for radio network from the perspective management. However, the reliability performance measurements for radio network are not totally enough.', '', 'The definition of reliability is specified in TS 22.261 [3]:&lt;b&gt; &lt;/b&gt;', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;reliability&lt;/b&gt;: in the context of network layer packet transmissions, percentage value of the packets successfully delivered to a given system entity within the time constraint required by the targeted service out of all the packets transmitted.', '', 'According to the above definition, when trying to calculate the reliability of a network, time constraint (a required maximum time) needs to be considered. Neither PER defined in TS 28.552 [13] nor reliability KPIs defined in TS 28.554 [14] seem to totally match the definition of URLLC reliability in RAN. ', '', 'URLLC performance management on reliability and latency should be supported by 5G management system and the measurement method should be studied.', '']</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall support URLLC performance management on reliability and latency, and provide measurement methods that align with the definition of URLLC reliability in RAN, as specified in TS 22.261. The system shall consider time constraints when calculating network reliability and ensure that the reliability performance measurements for the radio network are comprehensive and sufficient.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;7.2.2.1.2	&lt;span style="font-size:24pt"&gt;Use &lt;/span&gt;case&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>28104-i00.docx</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.1639214033878236</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>['', 'Service experience of end user is key indicator that directly reflects the user satisfaction degree. In 5G system, the diversity of network services is expanding all the time and the requirements of different services especially from vertical users are being standardized. Considering these diverse requirements and expectation from end user perspective (e.g. priorities of SLA related attributes such as latency, throughput, maximum number of users or different required values of these attributes), the service experience as a comprehensive indicator need to be extensively analysed.', '']</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a comprehensive analysis of the service experience as a key indicator to reflect the degree of user satisfaction, taking into account the expanding diversity of network services and standardized requirements from vertical users. This analysis should consider the priorities of SLA related attributes such as latency, throughput, and maximum number of users, as well as the different required values of these attributes, to ensure a tailored and satisfactory service experience for end users in the 5G system.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.5.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>28907-i01.docx</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.1650468510842186</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>['', 'TS 28.557 [2] specifies two management modes for PNI-NPN and three management modes for SNPN. Under MNO-Vertical Managed Mode for PNI-NPN and MNO-Vertical Managed Mode for SNPN, the vertical also plays the role of NPN operator shared with mobile network operator, to achieve management on the NPN served for the vertical. Therefore, a bundle of management capabilities and corresponding managed resources should be exposed to the vertical from the mobile network operator according to the business agreement between the two parties under MNO-Vertical Managed Mode. ', '', '----media/image8.png----', '', 'Figure 5.5.1-1: Vertical managing PNI-NPN through exposure', '', "Figure 5.5.1-1, as an example, illustrates how the PLMN operator and the vertical manage the PNI-NPN under the MNO-Vertical Managed Mode. The PNI-NPN, which is deployed across one PLMN and the vertical's premises (e.g. factory), can be seen as an end-to-end network composed of two differentiated segments: one public, consisting of a (R)AN and network functions built upon public 5GC network resources; and one private, consisting of network functions deployed using non-public 5G network resources. The vertical can realize the management of PNI-NPN through management capabilities exposure. ", '', '----media/image9.png----', '', 'Figure 5.5.1-2: Vertical managing SNPN through exposure', '', "Figure 5.5.1-2, as an example, illustrates how the PLMN operator and the vertical manage the SNPN under the MNO-Vertical Managed Mode. The SNPN is deployed as an independent, isolated network. All SNPN network elements are located inside the logical perimeter of the vertical's premises (e.g. factory) and the SNPN is separate from the PLMN. The PLMN operator and the vertical play the role of SNPN operator together, and the vertical can realize the management of SNPN through management capabilities exposure.", '', 'Exposing what kind of management capability and managed resources (e.g. local UPF, gNBs belong to vertical covering specific geographic areas, etc.) for vertical relies on specific cases, such as: ', '', '-\tAs described in clause 5.1.1, the capability of monitoring network errors and alarms could be exposed to vertical to support its fault root-cause analysis, localization, etc., on NPN.', '', '-\tAccording to the issue described in clause 5.3.1, the capability of configuring the NPN network resources (especially for those assets belong to the vertical e.g. local UPF or local gNBs covering specific geographic areas for a specific vertical) could further be exposed to vertical to satisfy the specific logical and/or physical resource isolation requirements for energy applications categorized into different safety zones.', '', '-\tAccording to the issue described in clause 5.4.1, the capability of monitoring KPIs/KQIs, like communication service availability, end-to-end latency, etc., could further be exposed to vertical to detect performance degradation and support performance optimization on NPN.', '']</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall expose management capabilities and corresponding managed resources to the vertical under the MNO-Vertical Managed Mode, as per the business agreement between the mobile network operator and the vertical. This includes exposing capabilities for monitoring network errors and alarms, configuring NPN network resources, and monitoring KPIs/KQIs to support fault root-cause analysis, logical/physical resource isolation, and performance optimization on the NPN.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;7.2.2.4.3	Requirements&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>28104-i00.docx</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0.1301231530496094</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>['', 'Table 7.2.2.4.3-1', '', 'Requirement label', '', 'Description', '', 'Related use case(s)', '', '&lt;b&gt;REQ-LAT_MDA-01&lt;/b&gt;', '', 'MDA capability for E2E latency analytics shall include identifying the type of the E2E latency issue, including, RAN- related latency issue, CNrelated latency issue, TN-related latency issue, UE-related latency issue and service provider originated latency issue.', '', 'E2E latency analytics', '', '&lt;b&gt;REQ-LAT_MDA-02&lt;/b&gt;', '', 'MDA capability for E2E latency analytics shall include providing the root cause analysis of the E2E latency issue.', '', 'E2E latency analytics', '', '&lt;b&gt;REQ-LAT_MDA-03&lt;/b&gt;', '', 'MDA capability for E2E latency analytics shall include providing the recommended actions to solve the E2E latency issue.', '', 'E2E latency analytics', '', '', '']</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide MDA capability for E2E latency analytics, which includes identifying the type of the E2E latency issue, providing root cause analysis of the E2E latency issue, and recommending actions to solve the E2E latency issue.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;4.4.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>28864-i01.docx</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.16322352036257</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>['', 'The Data Collection feature permits NWDAF to retrieve data from various data sources (e.g., NF such as AMF, SMF, PCF, UDM and AF; OAM), as a basis of the computation of network analytics [2].', '', 'The retrieval of data has impacts on the performance of both the data source and NWDAF. For the data source, all the data required by NWDAF needs to be generated or prepared accordingly before they are retrieved by NWDAF. And for the NWDAF, it needs to distinguish every piece of data received from different data sources and of data received from the same data source but for different network analytic purposes. ', '', 'The operator may notice that the data collection is the major task of one NWDAF instance, therefore, less computation resource can be allocated to that NWDAF instance, and more storage and network resources may be allocated if necessary. Or on the extreme cases, a new NWDAF instance needs to be provided or it may be found out that deploying a DCCF is the optimum solution. For making a decision, the measurement data is needed, such as how many data is collected by a NWDAF instance or by all NWDAF instances related to some areas of interests, so that the operator could have the understanding and estimation of the working load and working status of the NWDAF instance.', '', 'Moreover, it is also beneficial to have the granular measurement of data collection, such as measuring the data collected from different type of data sources. This measurement may provide information about if it is possible to optimize the deployment of NWDAF. For example, the NWDAF instance may be geographically deployed closer to its major data source to reduce the latency and save network resources.', '', 'In the other case, the monitoring of data collection will help improve the other services provided by NWDAF. For example, for model training, the training data are expected to be collected periodically. However, in practical, not all of the data are collected successfully, some of them can be missing which is probably caused the malfunctioning of the data source or network transmission issue. The more the data is missing the worse the degradation of the quality of the training data will be. And it will bring negative effect to the model training, such as a slow converging rate. Similar situation may also happen to input data of analytic services and analytic results. ', '', 'By monitoring the periodical notification which is used for data collection expected and actually received by the NWDAF, it is possible to estimate the quality of the data collected in a period which will indicate whether the data collected in this period is able to reflect the network correctly and sufficiently and whether some additional data cleansing or data augmentation are needed before the they are used for model training or analytics. ', '', 'In this key issue, the potential solutions are provided to define the new performance measurement reflecting the data collection performed by NWDAF to fulfil the following potential requirements:', '', '&lt;b&gt;REQ-NWDAF_COUNT-1 &lt;/b&gt;the 3GPP management system shall have a capability to allow an authorized consumer to configure the NWDAF to monitoring the data collection actions initiated by the NWDAF and the corresponding result, respectively. And the monitoring shall be able to distinguish the data collection from different type of data sources.', '', '&lt;b&gt;REQ-NWDAF_COUNT-2&lt;/b&gt; the 3GPP management system shall have a capability to allow an authorized consumer to configure the NWDAF to monitoring the periodical notification which is used for data collection expected and received by the NWDAF, respectively.', '']</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a capability for an authorized consumer to configure the NWDAF to monitor data collection actions initiated by the NWDAF and the corresponding results, with the ability to distinguish data collection from different types of data sources.
-The system shall provide a capability for an authorized consumer to configure the NWDAF to monitor the periodical notification used for data collection expected and received by the NWDAF, respectively.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;4.4.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>28864-i00.docx</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.1626647238802237</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>['', 'The Data Collection feature permits NWDAF to retrieve data from various data sources (e.g., NF such as AMF, SMF, PCF, UDM and AF; OAM), as a basis of the computation of network analytics [2].', '', 'The retrieval of data has impacts on the performance of both the data source and NWDAF. For the data source, all the data required by NWDAF needs to be generated or prepared accordingly before they are retrieved by NWDAF. And for the NWDAF, it needs to distinguish every piece of data received from different data sources and of data received from the same data source but for different network analytic purposes. ', '', 'The operator may notice that the data collection is the major task of one NWDAF instance, therefore, less computation resource can be allocated to that NWDAF instance, and more storage and network resources may be allocated if necessary. Or on the extreme cases, a new NWDAF instance needs to be provided or we may find out that deploying a DCCF is the optimum solution. For making a decision, the measurement data is needed, such as how many data is collected by a NWDAF instance or by all NWDAF instances related to some areas of interests, so that the operator could have the understanding and estimation of the working load and working status of the NWDAF instance.', '', 'Moreover, it is also beneficial to have the granular measurement of data collection, such as measuring the data collected from different type of data sources. This measurement may provide information about if it is possible to optimize the deployment of NWDAF. For example, the NWDAF instance may be geographically deployed closer to its major data source to reduce the latency and save network resources.', '', 'In the other case, the monitoring of data collection will help improve the other services provided by NWDAF. For example, for model training, the training data are expected to be collected periodically. However, in practical, not all of the data are collected successfully, some of them can be missing which is probably caused the malfunctioning of the data source or network transmission issue. The more the data is missing the worse the degradation of the quality of the training data will be. And it will bring negative effect to the model training, such as a slow converging rate. Similar situation may also happen to input data of analytic services and analytic results. ', '', 'By monitoring the periodical notification which is used for data collection expected and actually received by the NWDAF, it is possible to estimate the quality of the data collected in a period which will indicate whether the data collected in this period is able to reflect the network correctly and sufficiently and whether some additional data cleansing or data augmentation are needed before the they are used for model training or analytics. ', '', 'In this key issue, the potential solutions are provided to define the new performance measurement reflecting the data collection performed by NWDAF to fulfil the following potential requirements:', '', '&lt;b&gt;REQ-NWDAF_COUNT-1 &lt;/b&gt;the 3GPP management system shall have a capability to allow an authorized consumer to configure the NWDAF to monitoring the data collection actions initiated by the NWDAF and the corresponding result, respectively. And the monitoring shall be able to distinguish the data collection from different type of data sources.', '', '&lt;b&gt;REQ-NWDAF_COUNT-2&lt;/b&gt; the 3GPP management system shall have a capability to allow an authorized consumer to configure the NWDAF to monitoring the periodical notification which is used for data collection expected and received by the NWDAF, respectively.', '']</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a capability for an authorized consumer to configure the NWDAF to monitor data collection actions initiated by the NWDAF and the corresponding results, with the ability to distinguish data collection from different types of data sources.
-The system shall provide a capability for an authorized consumer to configure the NWDAF to monitor the periodical notification used for data collection expected and received by the NWDAF, respectively.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;8.4.2.4.1	MDA type&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>28104-i00.docx</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0.1505366201885225</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>['', 'The MDA type for Capability-E2E latency analysis is: SLSAnalysis.E2ElatencyAnalysis.', '']</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall perform Capability-E2E latency analysis using the SLSAnalysis.E2ElatencyAnalysis method type.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;6.3.36.2	Attributes&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>28541-i40_c04_c07.docx</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0.1320566736331731</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>['', 'The NetworkSliceSubnetProviderCapabilities IOC includes attributes inherited from Top IOC (defined in TS 28.622[30]) and the following attributes. &lt;span style="color:000000"&gt;The attributes here are subjected to updates, e.g. after each successful subnet allocation or because of any other operator internals decision.&lt;/span&gt;', '', '', '', 'Attribute name', '', 'S', '', 'isReadable', '', 'isWritable', '', 'isInvariant', '', 'isNotifyable', '', 'dLlatency', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'uLlatency', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'dLThptPerSliceSubnet', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'uLThptPerSliceSubnet', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'coverageAreaTAList', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', '', '']</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a NetworkSliceSubnetProviderCapabilities IOC that includes attributes inherited from the Top IOC, as defined in TS 28.622[30]. The attributes are subject to updates, such as after each successful subnet allocation or due to operator internals decisions. The attributes include:
-1. S (isReadable): The system shall allow reading the value of the S attribute.
-2. isWritable: The system shall allow writing the value of the isWritable attribute.
-3. isInvariant: The system shall maintain the invariant state of the isInvariant attribute.
-4. isNotifyable: The system shall notify when the isNotifyable attribute changes.
-5. dLlatency (M): The system shall measure the downlink latency in milliseconds.
-6. T (uLlatency): The system shall measure the uplink latency in milliseconds.
-7. F (dLThptPerSliceSubnet): The system shall not support downlink throughput per slice subnet.
-8. F (uLThptPerSliceSubnet): The system shall not support uplink throughput per slice subnet.
-9. T (coverageAreaTAList): The system shall support coverage area TA list.
-These requirements ensure that the NetworkSliceSubnetProviderCapabilities IOC is functional and can be updated as needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;6.3.36.2	Attributes&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>28541-i41_c04_c07.docx</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.1320566736331731</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>['', 'The NetworkSliceSubnetProviderCapabilities IOC includes attributes inherited from Top IOC (defined in TS 28.622[30]) and the following attributes. &lt;span style="color:000000"&gt;The attributes here are subjected to updates, e.g. after each successful subnet allocation or because of any other operator internals decision.&lt;/span&gt;', '', '', '', 'Attribute name', '', 'S', '', 'isReadable', '', 'isWritable', '', 'isInvariant', '', 'isNotifyable', '', 'dLlatency', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'uLlatency', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'dLThptPerSliceSubnet', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'uLThptPerSliceSubnet', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'coverageAreaTAList', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', '', '']</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a NetworkSliceSubnetProviderCapabilities IOC that includes attributes inherited from the Top IOC, as defined in TS 28.622[30]. The attributes are subject to updates, such as after each successful subnet allocation or due to operator internals decisions. The attributes include:
-1. S (isReadable): The system shall allow reading the value of the S attribute.
-2. isWritable: The system shall allow writing the value of the isWritable attribute.
-3. isInvariant: The system shall maintain the invariant state of the isInvariant attribute.
-4. isNotifyable: The system shall notify when the isNotifyable attribute changes.
-5. dLlatency (M): The system shall measure the downlink latency in milliseconds.
-6. T (uLlatency): The system shall measure the uplink latency in milliseconds.
-7. F (dLThptPerSliceSubnet): The system shall not support downlink throughput per slice subnet.
-8. F (uLThptPerSliceSubnet): The system shall not support uplink throughput per slice subnet.
-9. T (coverageAreaTAList): The system shall support coverage area TA list.
-These requirements ensure that the NetworkSliceSubnetProviderCapabilities IOC is functional and can be updated as needed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>&lt;h1&gt;&lt;span style="color:000000"&gt;A.59&lt;/span&gt;	&lt;span style="color:000000"&gt;Monitoring of RACH usage&lt;/span&gt;&lt;/h1&gt;</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>28552-i30.docx</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.1535353431133922</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>['', 'The RACH plays a vital role in the following procedures:', '', '-\tInitial access from RRC_IDLE;', '', '-\tInitial access after radio link failure;', '', '-\tHandover requiring random access procedure;', '', '-\tDL data arrival during RRC_CONNECTED requiring random access procedure;', '', '-\tUL data arrival during RRC_CONNECTED requiring random access procedure;', '', 'Furthermore, the random access procedure takes two distinct forms:', '', '-\tContention based using a randomly selected preamble (applicable to all five events);', '', '-\tNon-contention based using a dedicated preamble (applicable to only handover and DL data arrival).', '', 'In the use-case of RACH configuration optimization, received Random Access Preambles and a contention indicator are signalled across an OAM interface.', '', 'Monitoring of the preamble usage in a cell allows the operator to determine if the resources allocated to the RACH by the gNodeB are appropriate for the number of random access attempts.  If the resources are underutilised, then the operator may reconfigure the gNodeB (via CM) to allocate less resource to RACH thereby freeing up resource for other uplink transmissions.  Alternatively, if the resources are heavily utilised then this is indicative of RACH congestion leading to increased latency for the procedures listed above. To this effect, measurements directly reflecting RACH congestion experienced by the gNodeB and by the UEs are useful.', '', 'The gNodeB can partition the RACH resource between dedicated preambles, randomly selected preambles in group A and randomly selected preambles in group B.  This partitioning can be evaluated when usage measurements are made on each set separately. In a cell configured with multiple SSBs, it is important to get the measurements per SSB.', '']</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall enable the RACH to play a vital role in the following procedures:
-1. Initial access from RRC_IDLE.
-2. Initial access after radio link failure.
-3. Handover requiring random access procedure.
-4. DL data arrival during RRC_CONNECTED requiring random access procedure.
-5. UL data arrival during RRC_CONNECTED requiring random access procedure.
-Furthermore, the system shall support two distinct forms of random access procedures:
-1. Contention-based using a randomly selected preamble (applicable to all five events).
-2. Non-contention-based using a dedicated preamble (applicable to only handover and DL data arrival).
-The system shall facilitate RACH configuration optimization by signaling received Random Access Preambles and a contention indicator across an OAM interface.
-The system shall enable monitoring of preamble usage in a cell, allowing the operator to determine if the resources allocated to the RACH by the gNodeB are appropriate for the number of random access attempts.
-If the resources are underutilized, the system shall allow the operator to reconfigure the gNodeB (via CM) to allocate less resource to RACH, thereby freeing up resources for other uplink transmissions.
-If the resources are heavily utilized, the system shall indicate RACH congestion, leading to increased latency for the procedures listed above.
-The system shall provide measurements directly reflecting RACH congestion experienced by the gNodeB and by the UEs.
-The gNodeB shall partition the RACH resource between dedicated preambles, randomly selected preambles in group A, and randomly selected preambles in group B.
-The system shall enable evaluation of the partitioning when usage measurements are made on each set separately.
-In a cell configured with multiple SSBs, the system shall provide measurements per SSB.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.1.2	Potential solutions&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>28912-i01.docx</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.1527821968473643</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>['', 'The Radio Service Expectation needs to be defined by utilizing the construct of the generic IntentExpectation &amp;lt;&amp;lt;dataType&amp;gt;&amp;gt; with set of allowed values and concrete dataTypes specified. ', '', 'The objectType of the Radio Service Expectation can be Radio Service.', '', 'The ObjectContexts for the Radio Service Expectation may include coverageAreaPolygonContext, coverageTACContext, and serviceTypeContext. All these ObjectContexts include attributes: contextAttribute, contextCondition and contextValueRange. The concrete contextValueRange see corresponding attribute definition in RANSliceSubnetProfile in TS 28.541 [3].', '', 'The ExpectationTargets for Radio Service Expectation may include maxNumberofUEsTarget, activityFactorTarget, dLThptPerUETarget, uLThptPerUETarget, uEMobilityLevelTargetTarget, uESpeedTarget, dLLatencyTarget, uLLatencyTarget, dLMaxPktSizeTarget,and uLMaxPktSizeTarget. All these ExpectationTargets include attributes: targetName, targetCondition and targetValueRange. The concrete targetValueRange see corresponding attribute definition in RANSliceSubnetProfile in TS 28.541 [3].', '']</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall define the Radio Service Expectation by utilizing the construct of the generic IntentExpectation &lt;dataType&gt; with a set of allowed values and concrete dataTypes specified. The objectType of the Radio Service Expectation shall be Radio Service. The ObjectContexts for the Radio Service Expectation may include coverageAreaPolygonContext, coverageTACContext, and serviceTypeContext. All these ObjectContexts shall include attributes: contextAttribute, contextCondition, and contextValueRange, with the concrete contextValueRange corresponding to attribute definitions in RANSliceSubnetProfile in TS 28.541 [3]. The ExpectationTargets for Radio Service Expectation may include maxNumberofUEsTarget, activityFactorTarget, dLThptPerUETarget, uLThptPerUETarget, uEMobilityLevelTargetTarget, uESpeedTarget, dLLatencyTarget, uLLatencyTarget, dLMaxPktSizeTarget, and uLMaxPktSizeTarget. All these ExpectationTargets shall include attributes: targetName, targetCondition, and targetValueRange, with the concrete targetValueRange corresponding to attribute definitions in RANSliceSubnetProfile in TS 28.541 [3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.1.2	Potential solutions&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>28912-i00.docx</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.1542343503102356</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>['', 'The Radio Service Expectation needs to be defined by utilizing the construct of the generic IntentExpectation &amp;lt;&amp;lt;dataType&amp;gt;&amp;gt; with set of allowed values and concrete dataTypes specified. ', '', 'The objectType of the Radio Service Expectation can be Radio Service.', '', 'The ObjectContexts for the Radio Service Expectation may include coverageAreaPolygonContext, coverageTACContext, and serviceTypeContext. All these ObjectContexts include attributes: contextAttribute, contextCondition and contextValueRange. The concrete contextValueRange see corresponding attribute definition in RANSliceSubnetProfile in TS 28.541[3].', '', 'The ExpectationTargets for Radio Service Expectation may include maxNumberofUEsTarget, activityFactorTarget, dLThptPerUETarget, uLThptPerUETarget, uEMobilityLevelTargetTarget, uESpeedTarget, dLLatencyTarget, uLLatencyTarget, dLMaxPktSizeTarget,and uLMaxPktSizeTarget. All these ExpectationTargets include attributes: targetName, targetCondition and targetValueRange. The concrete targetValueRange see corresponding attribute definition in RANSliceSubnetProfile in TS 28.541[3].', '']</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall define the Radio Service Expectation by utilizing the construct of the generic IntentExpectation &lt;dataType&gt; with a set of allowed values and concrete dataTypes specified. The objectType of the Radio Service Expectation shall be Radio Service. The ObjectContexts for the Radio Service Expectation may include coverageAreaPolygonContext, coverageTACContext, and serviceTypeContext. All these ObjectContexts shall include attributes: contextAttribute, contextCondition, and contextValueRange, with the concrete contextValueRange corresponding to attribute definitions in RANSliceSubnetProfile in TS 28.541[3]. The ExpectationTargets for Radio Service Expectation may include maxNumberofUEsTarget, activityFactorTarget, dLThptPerUETarget, uLThptPerUETarget, uEMobilityLevelTargetTarget, uESpeedTarget, dLLatencyTarget, uLLatencyTarget, dLMaxPktSizeTarget, and uLMaxPktSizeTarget. All these ExpectationTargets shall include attributes: targetName, targetCondition, and targetValueRange, with the concrete targetValueRange corresponding to attribute definitions in RANSliceSubnetProfile in TS 28.541[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;8.4.2.4.2	Enabling data&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>28104-i00.docx</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0.1273802726450097</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>['', 'The enabling data for SLSAnalysis.E2ElatencyAnalysis MDA type are provided in table 8.4.2.4.2-1.', '', 'Table 8.4.2.4.2-1: Enabling data for E2E latency analysis', '', 'Data category', '', 'Description', '', 'References', '', 'Performance measurements', '', 'Average e2e UL/DL delay for a network slice', '', 'Average e2e uplink delay for a network (clause &lt;span style="color:000000"&gt;6.3.1.8.1 in TS 28.554 [5]);&lt;/span&gt; Average e2e downlink delay for a network slice (clause &lt;span style="color:000000"&gt;6.3.1.8.2 in TS 28.554 [5]).&lt;/span&gt;', '', '', '', 'Integrated uplink/downlink delay in RAN', '', 'Integrated downlink delay in RAN (clause 6.3.1.2 &lt;span style="color:000000"&gt;in TS 28.554 [5]); Integrated uplink delay in RAN (&lt;/span&gt;clause\xa0&lt;span style="color:000000"&gt;6.3.1.7 in TS 28.554 [5]).&lt;/span&gt;', '', '', '', 'Round-trip Packet Delay', '', 'Round-trip packet delay between PSA UPF and NG-RAN (clause 5.4.8 &lt;span style="color:000000"&gt;TS 28.552 [4]).&lt;/span&gt;', '', '', '']</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide enabling data for SLSAnalysis.E2ElatencyAnalysis MDA type as specified in Table 8.4.2.4.2-1, which includes performance measurements such as average end-to-end (E2E) uplink/downlink delay for a network slice, integrated uplink/downlink delay in RAN, and round-trip packet delay between PSA UPF and NG-RAN. These measurements are referenced in clauses 6.3.1.8.1 and 6.3.1.8.2 in TS 28.554 [5], clause 6.3.1.2 in TS 28.554 [5], and clause 5.4.8 in TS 28.552 [4], respectively.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;5.1.2.1	Classification of URLLC related RAN features&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0.1117842595327616</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>['', 'The present document sorts out the features related to URLLC defined in RAN and classifies them from a management perspective. According to the characteristics of URLLC service, features are classified into the following two categories based on their effects: low latency and ultra reliability. Features belonging to low-latency category are mainly used to reduce data transmission delay, and reliability features are mainly used to improve the reliability of transmission. Among the features belonging to low-latency category, some of them reduce the transmission latency from the effective mechanism and other features improve service priority to reduce URLLC latency in multi-service scenario. ', '', 'Feature', '', 'Category', '', 'Reference', '', 'Mini-slot transmission', '', 'Low latency', '', 'TS 38.214 [7]', '', 'Numerology/SCS', '', 'Low latency', '', 'TS 38.211 [4]', '', 'UL configured grant', '', 'Low latency', '', 'TS 38.214 [7]', '', 'DL SPS ', '', 'Low latency', '', 'TS 38.213 [6]', '', 'PDCCH monitoring', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Logical channel priority', '', 'Low latency', '', 'TS 38.321 [9]', '', 'Short PUCCH', '', 'Low latency', '', 'TS 38.211 [4]', '', 'UE processing capability#2', '', 'Low latency', '', 'TS 38.214 [7]', '', 'Span based PDCCH monitoring', '', 'Low latency', '', 'TS 38.212 [5]/TS 38.213 [6]', '', 'UL configured grant enhancements', '', 'Low latency', '', 'TS 38.214 [7]', '', 'DL SPS enhancements', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Sub-slot level HARQ-ACK', '', '(UCI enhancements)', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Two HAQR-ACK codebooks', '', '(UCI enhancements)', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Low SE MCS/CQI table', '', 'Ultra reliability', '', 'TS 38.214 [7]', '', 'PDSCH repetitions', '', 'Ultra reliability', '', 'TS 38.214 [7]', '', 'PUSCH repetitions', '', 'Ultra reliability', '', 'TS 38.214 [7]', '', 'PUCCH repetitions', '', 'Ultra reliability', '', 'TS 38.213 [6]', '', 'PDCCH aggregation level 16', '', 'Ultra reliability', '', 'TS 38.213 [6]', '', 'PDCP duplication', '', 'Ultra reliability', '', 'TS 38.323 [10]', '', 'PUSCH repetitions enhancements', '', 'Ultra reliability', '', 'TS 38.214 [7]', '', 'DCI format 0_2 and DCI format 1_2', '', 'Ultra reliability', '', 'TS 38.213 [6]', '', 'DL Multi-TRP for URLLC data channel repetitions', '', 'Ultra reliability', '', 'TS 38.213 [6]', '', 'PDCP duplication enhancements', '', 'Ultra reliability', '', 'TS 38.323 [10]', '', 'DL Preemption Indication (PI)', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Code Block Group (CBG)', '', 'Low latency', '', 'TS 38.214 [7]', '', 'Inter UE: UL Cancellation Indication(CI)', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Inter UE: Power Boosting', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Intra UE: UL Prioritization', '', 'Low latency', '', 'TS 38.213 [6]', '', '', '']</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall classify and manage features related to Ultra-Reliable Low-Latency Communications (URLLC) as defined in Radio Access Network (RAN) specifications, categorizing them into low latency and ultra-reliability based on their effects on URLLC services.
-The system shall implement the following features to achieve low latency:
-1. The system shall support mini-slot transmission to reduce data transmission delay, as specified in TS 38.214 [7].
-2. The system shall utilize numerology/subcarrier spacing (SCS) to achieve low latency, as specified in TS 38.211 [4].
-3. The system shall provide UL configured grant to reduce latency, as specified in TS 38.214 [7].
-4. The system shall support DL SPS to reduce latency, as specified in TS 38.213 [6].
-5. The system shall implement PDCCH monitoring to reduce latency, as specified in TS 38.213 [6].
-6. The system shall prioritize logical channels to reduce URLLC latency in multi-service scenarios, as specified in TS 38.321 [9].
-7. The system shall support short PUCCH to reduce latency, as specified in TS 38.211 [4].
-8. The system shall optimize UE processing capability#2 to reduce latency, as specified in TS 38.214 [7].
-9. The system shall implement span-based PDCCH monitoring to reduce latency, as specified in TS 38.212 [5]/TS 38.213 [6].
-10. The system shall enhance UL configured grant to reduce latency, as specified in TS 38.214 [7].
-11. The system shall enhance DL SPS to reduce latency, as specified in TS 38.213 [6].
-12. The system shall support sub-slot level HARQ-ACK (UCI enhancements) to reduce latency, as specified in TS 38</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.5.2	Potential Solution&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.1125985624989877</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>['', 'The requirement for configuration management of radio network providing URLLC services is:', '', '-\tThe OAM should have the capability of configuring the maximum allowed downlink and uplink latency in RAN including the delay over air interface.', '', 'According to the requirement above, the attributes "dlLatency" and "ulLatency" of RANSliceSubnetProfile defined in TS 28.541 should be modified to contain the latency over the air interface. The specific changes are proposed.', '', '1. The attributes "dlLatency" and "ulLatency" of RANSliceSubnetProfile&amp;lt;&amp;lt;dataType&amp;gt;&amp;gt; defined in TS 28.541 are modified as follows: ', '', 'Attribute Name', '', 'Documentation and Allowed Values', '', 'Properties', '', 'RANSliceSubnetProfile.&lt;span style="font-size:18pt"&gt;dlLatency&lt;/span&gt;', '', 'An attribute specifies the required DL packet transmission latency (millisecond) in RAN including the air interface of the network slice and is used to evaluate the delay between NG-RAN and UE, e.g. time between received DL packet from UPF the packet successfully received by UE. See clause 5.1.1.1.6 in TS 28.552 [13].', '', '&lt;span style="font-size:18pt"&gt;type: Real&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;multiplicity: 1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isOrdered: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isUnique: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;defaultValue: None&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;allowedValues: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isNullable: False&lt;/span&gt;', '', 'RANSliceSubnetProfile.&lt;span style="font-size:18pt"&gt;ulLatency&lt;/span&gt;', '', 'An attribute specifies the required UL packet transmission latency (millisecond) in RAN including the air interface of the network slice and is used to evaluate the delay between UE and NG-RAN, e.g. time between the UL packet scheduled in UE and the packet successfully sent to UPF. See clause 5.1.1.1.7 in TS 28.552 [13].', '', '&lt;span style="font-size:18pt"&gt;type: Real&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;multiplicity: 1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isOrdered: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isUnique: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;defaultValue: None&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;allowedValues: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isNullable: False&lt;/span&gt;', '', '', '', 'NOTE 1: Even though this study is about URLLC, the two attributes are also applicable for latency requirement for non URLLC services.', '', 'NOTE 2: The two attributes represent maximum latency allowed or target latency of RAN slice subnet.', '']</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall configure the maximum allowed downlink and uplink latency in RAN, including the delay over the air interface, for radio network providing URLLC services. This shall be achieved by modifying the attributes "dlLatency" and "ulLatency" of RANSliceSubnetProfile defined in TS 28.541 to contain the latency over the air interface. The specific changes are proposed as follows:
-1. The attributes "dlLatency" and "ulLatency" of RANSliceSubnetProfile&lt;dataType&gt; defined in TS 28.541 are modified as follows:
-   - Attribute Name: RANSliceSubnetProfile&lt;span style="font-size:18pt"&gt;dlLatency&lt;/span&gt;
-     - Documentation and Allowed Values: An attribute specifies the required DL packet transmission latency (millisecond) in RAN including the air interface of the network slice and is used to evaluate the delay between NG-RAN and UE e.g. time between received DL packet from UPF the packet successfully received by UE. See clause 5.1.1.1.6 in TS 28.552 [13].
-     - Properties:
-       - type: Real
-       - multiplicity: 1
-       - isOrdered: N/A
-       - isUnique: N/A
-       - defaultValue: None
-       - allowedValues: N/A
-       - isNullable: False
-   - Attribute Name: RANSliceSubnetProfile&lt;span style="font-size:18pt"&gt;ulLatency&lt;/span&gt;
-     - Documentation and Allowed Values: An attribute specifies the required UL packet transmission latency (millisecond) in RAN including the air interface of the network slice and is used to evaluate the delay between UE and NG-RAN e.g. time between the UL packet scheduled in UE and the packet successfully sent to UPF. See clause 5.1.1.1.7 in TS 28.552 [13].
-     - Properties:
-       - type: Real
-       - multiplicity: 1
-       - isOrdered: N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;6.8.3	Potential Solution&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>28903-i00.docx</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0.1580814232851196</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>['', 'The solution requires adding SLA requirements in EASRequirements IOC. This will enable ASP to provide expected SLA from the edge infrastructure. The following need to be added in the EASREquirements IOC', '', '-\tBandwidth', '', '-\tLatency', '']</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide specified bandwidth and latency as per the SLA requirements in the EASRequirements IOC to ensure expected service levels from the edge infrastructure.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;6.8.3	Potential Solution&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>28903-i01.docx</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0.1580730628624937</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>['', 'The solution requires adding SLA requirements in EASRequirements IOC. This will enable ASP to provide expected SLA from the edge infrastructure. The following need to be added in the EASREquirements IOC:', '', '-\tBandwidth', '', '-\tLatency', '']</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide specified bandwidth and latency as per the SLA requirements in the EASRequirements IOC to ensure expected service levels from the edge infrastructure.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;8.4.2.4.3	Analytics output&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>28104-i00.docx</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.1516974630263038</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>['', 'The specific information elements of the analytics output for E2E latency analysis, in addition to the common information elements of the analytics outputs (see clause 8.3), are provided in table 8.4.2.4.3-1.', '', '&lt;b&gt;Table 8.4.2.4.3-1: Analytics output for E2E latency analysis&lt;/b&gt;', '', 'Information element', '', 'Definition', '', 'Support qualifier', '', 'Properties', '', 'e2ELatencyIssueId', '', 'The identifier indicates the output is for E2E latency issue analysis', '', 'M', '', 'type: String', '', 'multiplicity: 1', '', 'isOrdered: N/A', '', 'isUnique: N/A', '', 'defaultValue: None', '', 'isNullable: False', '', 'e2ELatencyIssueType', '', '&lt;span style="font-size:18pt"&gt;Indication the type of the E2E latency issue.&lt;/span&gt;', '', '', '', 'The allowed value is one of the enumerated values: RAN latency issue, CN latency issue', '', 'M', '', 'type: ENUM', '', 'multiplicity: 1', '', 'isOrdered: N/A', '', 'isUnique: N/A', '', 'defaultValue: None', '', 'isNullable: False', '', 'affectedObjects', '', 'The managed object instances of subnetwork, managed elements or network slices where the latency issue happens', '', 'O', '', 'type: DN', '', 'multiplicity: 1..*', '', 'isOrdered: False', '', 'isUnique: True', '', 'defaultValue: None', '', 'isNullable: False', '', '', '']</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide analytics output for E2E latency analysis, including specific information elements as defined in Table 8.4.2.4.3-1, in addition to common information elements as specified in clause 8.3. The analytics output shall contain the following information elements:
-1. The system shall provide an 'e2ELatencyIssueId' (type: String, multiplicity: 1, isOrdered: N/A, isUnique: N/A, defaultValue: None, isNullable: False) to indicate the output is for E2E latency issue analysis.
-2. The system shall provide an 'e2ELatencyIssueType' (type: ENUM, multiplicity: 1, isOrdered: N/A, isUnique: N/A, defaultValue: None, isNullable: False) to indicate the type of the E2E latency issue. The allowed value is one of the enumerated values: RAN latency issue or CN latency issue.
-3. The system shall provide 'affectedObjects' (type: DN, multiplicity: 1..*, isOrdered: False, isUnique: True, defaultValue: None, isNullable: False) to represent the managed object instances of subnetwork managed elements or network slices where the latency issue happens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;7.1	Possible solution for “exposed MnS support to discovery systems” – Scenario 5.4&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>28824-i00.docx</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0.1560486439202722</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>['', 'The steps of the solution are as follows: ', '', '1)\tA MnS consumer configures using the appropriate MnS (for example the generic provisioning service) the details of the external discovery service location and other supporting details (for e.g., authentication and authorization). Further, the detail on which parts of which MnS (component A) IOCs and which instances of the corresponding MOI (component B) and corresponding data (component C) can be registered with the discovery service/system.  As an example, the operator may want to register her the ability to provision (Management object A) a particular slice type (NSSAI-ID) at a certain coverage area (coverageArea item 6.3.3 TS28.541) with some additional details (example: supported latency or maxNumberofUEs or delayTolerance) to an external discovery service or system. ', '', '2)\tIn addition to the information of what is externally registered, information relating to the address of the exposed MnS needs to be provided. This could be default information based on the operator in the external discovery system or in case of a trusted discovery the address of the actual exposed management service. ', '', '3)\tThe 3GPP Management System registers the exposed management component A, B and C as configured in step 1 to the appropriate external discovery service/system. ', '', '4)\tEventually, if any of the exposure details change – for example the same slice type can now be supported in a new coverageArea – the registration to the external discovery system may now need to be updated.  ', '', 'Editor’s note: provide a picture explain the operator and JV relationship below.', '', 'The solution for the trust issue between the three MnS discovery system owner, MnS consumer and the MnS producer is scenario dependent. Let’s take for example a multi-operator network scenario. In this scenario let’s take operator A as an MnS producer, a joint venture of multiple operators as a MnS discovery system owner and operator B as an MnS consumer. Both Operator A and Operator B have business relations with the joint venture thereby creating a trust relationship between Operator A and the joint venture (JV) AND operator B and the joint venture. The JV provides the authorization and authentication details for each of the operator to use the discovery service. Operator A may then expose aspects of its MnS that it considers ok to expose with the JV. Operator B can then discover the MnS offered by operator A and contact operator A to access them. If operator B requires a higher level of access than operator A provides in the JV by default, then they need to form a new business relationship.', '', '', '']</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall allow a MnS consumer to configure the details of the external discovery service location and supporting information, such as authentication and authorization, for registering specific MnS component IOCs, MOI instances, and corresponding data with the discovery service/system.
-The system shall provide the address of the exposed MnS, which can be default information based on the operator in the external discovery system or the address of the actual exposed management service in case of a trusted discovery.
-The system shall register the exposed MnS component A, B, and C as configured in step 1 to the appropriate external discovery service/system.
-The system shall update the registration to the external discovery system if any of the exposure details change, such as supporting a new slice type in a different coverage area.
-The system shall establish a trust relationship between the MnS discovery system owner, MnS consumer, and MnS producer based on business relations and provide authorization and authentication details for each operator to use the discovery service. The system shall allow the MnS producer to expose aspects of its MnS that it considers appropriate to the discovery system owner, and the MnS consumer can discover and access the MnS offered by the MnS producer. If a higher level of access is required, a new business relationship must be formed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;7.1	Possible solution for "exposed MnS support to discovery systems" – Scenario 5.4&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>28824-i01.docx</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0.1565949189213645</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>['', 'The steps of the solution are as follows: ', '', '1.\tA MnS consumer configures using the appropriate MnS (for example the generic provisioning service) the details of the external discovery service location and other supporting details (for e.g. authentication and authorization). Further, the detail on which parts of which MnS (component A) IOCs and which instances of the corresponding MOI (component B) and corresponding data (component C) can be registered with the discovery service/system. As an example, the operator may want to register her the ability to provision (Management object A) a particular slice type (NSSAI-ID) at a certain coverage area (coverageArea item 6.3.3 TS28.541) with some additional details (example: supported latency or maxNumberofUEs or delayTolerance) to an external discovery service or system. ', '', '2.\tIn addition to the information of what is externally registered, information relating to the address of the exposed MnS needs to be provided. This could be default information based on the operator in the external discovery system or in case of a trusted discovery the address of the actual exposed management service. ', '', '3.\tThe 3GPP Management System registers the exposed management component A, B and C as configured in step 1 to the appropriate external discovery service/system. ', '', '4.\tEventually, if any of the exposure details change – for example the same slice type can now be supported in a new coverageArea – the registration to the external discovery system may now need to be updated. ', '', 'The solution for the trust issue between the three MnS discovery system owner, MnS consumer and the MnS producer is scenario dependent. For example in a multi-operator network scenario. In this scenario operator A is an MnS producer, a joint venture of multiple operators as a MnS discovery system owner and operator B as an MnS consumer. Both Operator A and Operator B have business relations with the joint venture thereby creating a trust relationship between Operator A and the joint venture (JV) AND operator B and the joint venture. The JV provides the authorization and authentication details for each of the operator to use the discovery service. Operator A may then expose aspects of its MnS that it considers ok to expose with the JV. Operator B can then discover the MnS offered by operator A and contact operator A to access them. If operator B requires a higher level of access than operator A provides in the JV by default, then they need to form a new business relationship.', '']</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall allow a MnS consumer to configure the details of the external discovery service location and supporting information, such as authentication and authorization, for registering specific MnS component A IOCs, MOI instances, and corresponding data with the discovery service/system.
-The system shall provide the address of the exposed MnS, which can be default information based on the operator in the external discovery system or the address of the actual exposed management service in case of a trusted discovery.
-The system shall register the exposed management component A, B, and C as configured in step 1 to the appropriate external discovery service/system.
-The system shall update the registration to the external discovery system if any of the exposure details change, such as supporting a new slice type in a different coverage area.
-The system shall establish a trust relationship between the MnS discovery system owner, MnS consumer, and MnS producer based on scenario-dependent solutions, such as a multi-operator network scenario where a joint venture acts as the MnS discovery system owner and provides authorization and authentication details for each operator to use the discovery service. The system shall allow the MnS producer to expose aspects of its MnS that it considers acceptable to expose with the joint venture, and the MnS consumer can discover and access the MnS offered by the MnS producer through the joint venture. If the MnS consumer requires a higher level of access than the joint venture provides by default, they need to form a new business relationship.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;7.2.2.4.1	Description&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>28104-i00.docx</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0.1313645402963909</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>['', 'This MDA capability is for E2E latency related issue analysis.', '']</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide an MDA capability for end-to-end latency issue analysis.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;&lt;span style="color:000000"&gt;5.1.3.4.1&lt;/span&gt;	General&lt;span style="color:000000"&gt; information&lt;/span&gt;&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>28552-i30.docx</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0.1657328252058974</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>['', 'This clause  defines the DL latency in gNB-DU. DL latency measurements for CU-UP and F1-U are not defined.', '']</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall define the DL latency in gNB-DU.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>&lt;h1&gt;8	Guidelines for using scenario specific intent expectation for intent driven use cases&lt;/h1&gt;</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>28312-i00.docx</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0.1592812873458966</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>['', 'This clause describes guidelines for using scenario specific intent expectation defined in clause 6.2.2 to satisfy the intent driven use cases defined in clause 5.1. Following table provide the information which ObjectContexts and ExpectationTargets defined in clause 6.2.2 are used for corresponding use case.', '', 'Table 8-1', '', 'Use case', '', 'Scenario specific IntentExpectation', '', 'ExpectationObject.', '', 'ObjectContext', '', 'ExpectationTarget', '', 'Intent containing an expectation for delivering radio network (clause 5.1.1)', '', 'Radio Network Expectation', '', '-coverageAreaPolygonContext', '', '- coverageTACContext', '', '- pLMNContext', '', '- nRFqBandContext', '', '- rATContext', '', '-weakRSRPRatioTarget', '', '- lowSINRRatioTarget', '', '- aveULRANUEThptTarget', '', '- aveDLRANUEthptTarget', '', 'Intent containing an expectation for delivering a service (clause 5.1.3)', '', 'Service Support Expectation', '', '- edgeIdenfiticationIdContext', '', '- edgeIdenfiticationLocContext', '', '- coverageAreaTAContext', '', '- dlThptPerUETarget', '', '- UlThptPerUETarget', '', '- dLLatencyTarget', '', '- uLLatencyTarget', '', '- maxNumberofUEsTarget', '', '- activityFactorTarget', '', '- uESpeedTarget', '', 'Intent containing an expectation on coverage performance to be assured (clause 5.1.4)', '', 'Radio Network Expectation', '', '-coverageAreaPolygonContext', '', '- nRFqBandContext', '', '- rATContext', '', '-weakRSRPRatioTarget', '', '-lowSINRRatioTarget', '', 'Intent containing an expectation on RAN UE throughput performance to be assured (clause 5.1.5)', '', 'Radio Network Expectation', '', '-coverageAreaPolygonContext', '', '- nRFqBandContext', '', '- rATContext', '', '-aveULRANUEThptTarget', '', '-aveDLRANUEthptTarget', '', '-lowULRANUEThptRatioTarget', '', '-lowDLRANUEThptRatioTarget', '', '', '', '', '', '', '', '', 'Annex A (informative):', 'PlantUML source code', '']</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall utilize scenario-specific Intent Expectations, as defined in clause 6.2.2, to fulfill the intent-driven use cases outlined in clause 5.1. The following table specifies the ObjectContexts and ExpectationTargets from clause 6.2.2 that are employed for each corresponding use case:
-Table 8-1
-Use Case | Scenario-specific Intent Expectation | Expectation Object | Object Context | Expectation Target
---- | --- | --- | --- | ---
-Intent containing an expectation for delivering a radio network (clause 5.1.1) | Radio Network Expectation | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverageAreaPolygonContext | -coverageAreaPolygonContext | -coverageAreaPolygonContext
-- | | -coverage</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;7.1.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>28829-i00.docx</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0.1427213207428377</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>['', 'This describes the issues to be studied in context of the use case of MNO exposes Network Performance Monitoring. This corresponds to the use case and associated requirements in 6.1. The requirements from C.5 are not addressed by this key issue: alarms and fault management are not considered by the solutions corresponding to this key issue.', '', 'This key issue is that DSO has to be an MNO trusted entity to access MnSes provided by the 3GPP Management System. The existing performance assurance mechanism can be used to report network performance to DSO. However, the following need to be studied', '', 'a.\tHow the existing ThresholdMonitor can be used for configuring the network monitoring.', '', 'b.\tHow the existing NtfSubscriptionControl can be used for sending reports as notifications against monitoring.', '', 'c.\tWhether the existing performance measurements [13] and KPIs [12] are enough to support the requirements (e.g. latency, throughput, packet loss, availability etc.) ', '']</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall enable DSO to be an MNO trusted entity to access MnSes provided by the 3GPP Management System for network performance monitoring purposes.
-The system shall utilize the existing ThresholdMonitor to configure network monitoring for DSO.
-The system shall employ the existing NtfSubscriptionControl to send reports as notifications against monitoring to DSO.
-The system shall evaluate whether the existing performance measurements and KPIs are sufficient to support the requirements, including latency, throughput, packet loss, and availability.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;7.1.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>28829-i01.docx</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0.1427213207428377</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>['', 'This describes the issues to be studied in context of the use case of MNO exposes Network Performance Monitoring. This corresponds to the use case and associated requirements in 6.1. The requirements from C.5 are not addressed by this key issue: alarms and fault management are not considered by the solutions corresponding to this key issue.', '', 'This key issue is that DSO has to be an MNO trusted entity to access MnSes provided by the 3GPP Management System. The existing performance assurance mechanism can be used to report network performance to DSO. However, the following need to be studied', '', 'a.\tHow the existing ThresholdMonitor can be used for configuring the network monitoring.', '', 'b.\tHow the existing NtfSubscriptionControl can be used for sending reports as notifications against monitoring.', '', 'c.\tWhether the existing performance measurements [13] and KPIs [12] are enough to support the requirements (e.g. latency, throughput, packet loss, availability etc.) ', '']</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall enable DSO to be an MNO trusted entity to access MnSes provided by the 3GPP Management System for network performance monitoring purposes.
-The system shall utilize the existing ThresholdMonitor to configure network monitoring for DSO.
-The system shall employ the existing NtfSubscriptionControl to send reports as notifications against monitoring to DSO.
-The system shall evaluate whether the existing performance measurements and KPIs are sufficient to support the requirements, including latency, throughput, packet loss, and availability.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;6.1	Issue #1: Classification of URLLC related RAN features from management perspective&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0.146358914647404</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>['', 'This issue and corresponding solution have investigated the features designed for URLLC and try to classify the RAN features related to URLLC into two categories based on the effects: low latency and ultra-reliability from management perspective. Some important features are identified as candidates for the investigation of URLLC management. Features to implement inter-UE multiplexing, PDSCH enhancement, PDCP duplication, etc. are selected as examples. The detailed classification method and candidate features are described in clause 5.1.2. ', '', 'The above work is concluded as the summary of existing features related to URLLC and preparation the follow-up issues of this study and no further normative work needs to be recommended.', '']</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall investigate and classify RAN features related to URLLC into two categories based on the effects: low latency and ultra-reliability from a management perspective. The system shall identify important features as candidates for the investigation of URLLC management, including features to implement inter-UE multiplexing, PDSCH enhancement, PDCP duplication, etc. The system shall provide a detailed classification method and candidate features as described in clause 5.1.2. The system shall conclude the work as a summary of existing features related to URLLC and prepare follow-up issues of the study without recommending further normative work.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;6.5	Issue #5: Configuration of latency for URLLC in RAN including the air interface&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0.128537324491578</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>['', 'This issue identifies that "RANSliceSubnetProfile.dLLatency" and "RANSliceSubnetProfile.uLLatency" in TS\xa028.541\xa0[12] only representing the latency within gNB cannot cover the requirement for configuration of RAN latency between gNB and UE. The corresponding solution tries to address the issue by modifying the existing attributes defined in TS\xa028.541 [12] to cover the whole RAN latency between gNB and UE. Detailed description about the solution is in clause 5.5.2. It is recommended to make some enhancement on NRM referred to this solution in the future normative work.', '', '', '', '', 'Annex A:', 'Change history', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '2022-04', '', 'SA5#142e', '', 'S5-222292', '', 'S5-222307', '', 'S5-222344', '', 'S5-222660', '', '', '', '', '', '', '', '1. TR 28.832-0.0.0 initial skeleton', '', '2. pCR 28.832 Add scope', '', '3. pCR 28.832 Add Concepts and overview', '', '4. pCR TR28.832 Add key issue on classification of URLLC related RAN features from management perspective', '', '0.1.0', '', '2022-05', '', 'SA5#143e', '', 'S5-223367', '', '', '', '', '', '', '', '1. pCR TR28.832 Add candidates for study of feature management', '', '0.2.0', '', '2022-08', '', 'SA5#145e', '', 'S5-225807', '', 'S5-225808', '', '', '', '', '', '', '', '1. pCR TR28.832 Add Issue on support for performance management related on URLLC resource load', '', '2. pCR TR28.832 Add Issue on URLLC Performance management on reliability', '', '0.3.0', '', '2022-11', '', 'SA5#146', '', 'S5-226966', '', 'S5-226975', '', 'S5-226972', '', '', '', '', '', '', '', '1. S5-226966 pCR TR 28.832 Add issue on configuration of reliability in slice profiles and service profile', '', '2. S5-226971 pCR TR 28.832 Add potential solution for issue on configuration of reliability in slice profiles and service profile', '', '3. S5-226972 pCR TR28.832 Add New Key issue on configuration of latency for URLLC in RAN', '', '0.4.0', '', '2023-03', '', 'SA5#147', '', 'S5-232956', '', '', '', '', '', '', '', '1. S5-232956 pCR TR28.832 Add Conclusion and recommendation for issue#1', '', '0.5.0', '', '2023-04', '', 'SA5#148e', '', 'S5-233349', '', 'S5-233604', '', 'S5-233605', '', 'S5-233636', '', '', '', '', '', '', '', '1. pCR 28.832 Correction of terminologies and missing references', '', '2. pCR TR28.832 Add New Solution for configuration of latency for URLLC in RAN', '', '3. pCR TR28.832 Add Conclusion and recommendation for issue#4', '', '4. pCR TR28.832 Add New Solution for URLLC performance management related to reliability', '', '0.6.0', '', '2023-05', '', 'SA5#149e', '', 'S5-234384', '', 'S5-234553', '', 'S5-234554', '', '', '', '', '', '', '', '1. pCR 28.832 pCR TR28.832 Add New Solution and conclusion for performance measurements related on URLLC resource load', '', '2. pCR TR28.832 Add Conclusion and recommendation for issue#3', '', '3. pCR TR28.832 Add Conclusion and recommendation for issue#5', '', '0.7.0', '', '2023-06', '', 'SA#100', '', 'SP-230643', '', '', '', '', '', '', '', 'Presented for information and approval', '', '1.0.0', '', '2023-06', '', 'SA#100', '', '', '', '', '', '', '', '', '', 'Upgraded to change control version', '', '18.0.0', '', '2023-06', '', 'SA#100', '', '', '', '', '', '', '', '', '', 'EditHelp review', '', '18.0.1', '', '', '', '3GPP', '', '', '', '', '', '', '', '']</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall support the configuration of RAN latency between gNB and UE, addressing the limitations of the current "RANSliceSubnetProfile.dLLatency" and "RANSliceSubnetProfile.uLLatency" attributes defined in TS 28.541 [12]. This enhancement should be considered for future normative work on NRM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;&lt;span style="color:000000"&gt;5.1.1.1&lt;/span&gt;	&lt;span style="color:000000"&gt;Create a &lt;/span&gt;SNPN&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>28557-i00.docx</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0.1520907729050484</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>['', 'This use case describes a scenario where an NPN-SP decides to provision an NPN for use by an NPN-SC in the form of SNPN. It is either an MNO or an enterprise can be playing a role of NPN-SP, and it is an enterprise (the different or same if the enterprise is also NPN-SP) be playing a role of NPN-SC. This SNPN consists of network resources decoupled from PLMN resources, including:', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;RAN NE(s)&lt;/span&gt;', '', '-\t5GC network functions ', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Transport network&lt;/span&gt;', '', 'In this scenario, the NPN-SC sends to the NPN-SP a request for the provision of an NPN. This request contains the NPN related SLS requirements. To fulfil the SLS of requested NPN, the NPN-SP decides to create a new SNPN.', '', 'The NPN-SP maps SLS of requested NPN into 3GPP 5G system related requirements. These requirements allow the NPN operator to decide on the constituent network resources and the topology of the 3GPP 5G network to be created for the SNPN, as follows:', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;For the AN and CN related parts, the &lt;/span&gt;NPN&lt;span style="color:000000"&gt; operator takes all the actions needed to set up and configure required network resources, including RAN NE(s) and 5GC network functions. For more details, refer to TS 28.531 [8], clauses 5.1.17 "Creation of 3GPP NF" and 5.1.18 "Configuration of a 3GPP NF instance". Some of these actions can require setting up a new 3GPP sub-network. For more details, refer to TS 28.531 [8], clause 5.1.19 "Creation of a 3GPP sub-network".&lt;/span&gt;', '', '-\tFor the TN related part, the NPN operator takes all the actions needed to set up the required connectivity along the RAN and CN, configuring the underlying transport network. When taking these actions, information on SNPN topology (e.g. external connection points of AN and CN) and performance (e.g. latency, bandwidth) should be considered.', '', 'If the requested NPN requires connectivity to external PLMN resources (e.g. to allow UEs registered into the SNPN to access public network services), the NPN-SP derives the requirements for such a connectivity. These requirements allow the NPN operator to configure the transport network connecting the SNPN and the PLMN accordingly.', '', 'NOTE 1:\tTo allow UEs to access public network services from the SNPN, the UEs also have to be registered in the PLMN UDM.', '', 'NOTE 2:\tFor the derivation of connectivity requirements between SNPN and the PLMN, the NPN-SP makes use of two sources of information: ', '', '1)\tthe SLS of requested NPN, received from the NPN-SC; and ', '', '2)\tconnectivity information of the created 3GPP 5G network, received from the NPN operator.', '', 'In this use case, depending on different situations, the NPN operator role can be played by:', '', '-\tthe mobile network operator only. In such MNO Managed Mode case, the mobile network operator takes the entire responsibility of operating the SNPN and managing SNPN-PLMN connectivity, if required; or', '', '-\tthe mobile network operator and the enterprise. In such MNO-Vertical Mode case, the mobile network operator can expose some management capabilities to the enterprise, according to business agreement between the two parties. SNPN-PLMN connectivity, if required, is always managed by the mobile network operator; or', '', '-\tthe vertical only. In such Vertical Managed Mode case, the enterprise takes the entire responsibility of operating the SNPN. The SNPN-PLMN connectivity, if required, is always managed by the mobile network operator who takes the entire responsibility of operating the PLMN.', '', 'In this use case depending on the different NID assignment models as described in clause 4.4, the NPN operator role can configure the NID to related AN nodes and 5GC NFs. The management of NID is described in clause 4.4 in the present document.', '']</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provision an SNPN (Service Network Provisioning Network) for use by an NPN-SC (Service Network Provisioning Customer) when requested, with the NPN-SP (Service Network Provisioning Supplier) either being an MNO (Mobile Network Operator) or an enterprise. The SNPN shall consist of network resources decoupled from PLMN (Public Land Mobile Network) resources, including RAN NE(s), 5GC network functions, and a transport network.
-The NPN-SC shall send a request for the provision of an NPN to the NPN-SP, containing the NPN-related SLS (Service Level Specifications) requirements. The NPN-SP shall map the SLS of the requested NPN into 3GPP 5G system-related requirements, allowing the NPN operator to decide on the constituent network resources and the topology of the 3GPP 5G network to be created for the SNPN.
-The NPN operator shall take all the necessary actions to set up and configure the required network resources, including RAN NE(s) and 5GC network functions, for the AN (Access Network) and CN (Core Network) related parts. The NPN operator shall also set up the required connectivity along the RAN and CN, configuring the underlying transport network for the TN (Transport Network) related part.
-If the requested NPN requires connectivity to external PLMN resources, the NPN-SP shall derive the requirements for such connectivity, allowing the NPN operator to configure the transport network connecting the SNPN and the PLMN accordingly.
-Depending on different situations, the NPN operator role can be played by the mobile network operator only, the mobile network operator and the enterprise, or the enterprise only. The NPN operator role can also be configured based on different NID (Network Interface Device) assignment models.
-The system shall ensure that the UEs (User Equipment) registered into the SNPN can access public network services from the PLMN UDM (User Data Management). The system shall also ensure that the NPN operator role can be configured based on different NID assignment models.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.5.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0.08292251655933902</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>['', 'URLLC is a service with requirement of ultra-reliability and low latency. End to end latency is an important attribute used to describe the requirement for URLLC service. Latency in RAN is part of end to end latency and the corresponding attribute can be used to specify the maximum allowed delay in RAN including the air interface. The definition of latency in RAN is specified in ITU-R M.2410. The description is as follows:', '', '&lt;i&gt;4.7.1 User plane latency &lt;/i&gt;', '', '&lt;i&gt;User plane latency is the contribution of the radio network to the time from when the source sends a packet to when the destination receives it (in ms). It is defined as the one-way time it takes to successfully deliver an application layer packet/message from the radio protocol layer 2/3 SDU ingress point to the radio protocol layer 2/3 SDU egress point of the radio interface in either uplink or downlink in the network for a given service in unloaded conditions, assuming the mobile station is in the active state. This requirement is defined for the purpose of evaluation in the eMBB and URLLC usage scenarios. &lt;/i&gt;', '', 'According to the definition above, the latency in RAN should contain the delay over the air interface which is a crucial part of end to end latency. In TS 28.541 [12], the attribute "dlLatency" and "ulLatency" in RANSliceSubnetProfile only represent the packet processing latency in gNB excluding that of air interface. The performance of delay over the air interface cannot be evaluated simply through the existing latency configuration. Consequently, the issue is that the existing attributes in RANSliceSubnetProfile cannot match the configuration requirement for latency when taking air interface into consideration. ', '']</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall ensure ultra-reliability and low latency for URLLC services, with end-to-end latency being a critical attribute. The system shall define user plane latency as the time taken for a packet to travel from the source to the destination through the radio network, including the air interface, in both uplink and downlink directions. The system shall adhere to the ITU-R M.2410 specification for latency in RAN, which includes the delay over the air interface as a crucial component of end-to-end latency. The system shall provide latency configuration attributes in RANSliceSubnetProfile that accurately represent the performance of delay over the air interface, in addition to packet processing latency in gNB, to meet the configuration requirements for latency in URLLC services.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.1.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0.1114490228361763</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>['', 'URLLC is a set of service scenarios which require low-latency and high reliable communications. Specific SLAs are defined for each scenario correspondingly. Different scenarios have different requirements, some of which focus on latency (e.g. Motion control) and some focus on reliability (e.g. Discrete automation). ', '', 'In order to satisfy the requirements of URLLC, many features have been defined by 3GPP to decrease latency and increase reliability to guarantee the SLAs of different URLLC service scenarios. These features with different functions and different effects are distributed in different specifications, which bring complexity to the invocation and management when deploying URLLC service. Features related to URLLC need to be classified from the perspective of management, so that different features can be invoked according to different SLAs, and the management of URLLC-related features can be achieved. ', '']</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall classify URLLC-related features from the perspective of management to enable the invocation of different features according to specific SLAs and facilitate the management of URLLC-related features.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;5.4.1	Description&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>0.1078275388360347</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>['', 'URLLC is a set of service scenarios which require low-latency and high reliable communications. TS 22.261 [3] specifies service requirements for the 5G system. There are use cases of different reliability requirement between UL and DL, like in 1st use case of table 7.6.1-1 in TS 22.261 [3]. However, the NRM for slice profiles in TS 28.541 [12] does not support reliability to distinguish between UL and DL configuration. Based on the above description, the configuration of reliability in slice profiles and service profile need to be studied.', '']</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall support the configuration of reliability in slice profiles and service profiles to distinguish between UL and DL configurations, in accordance with the specified service requirements for the 5G system as outlined in TS 22.261 [3] and TS 28.541 [12].</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>&lt;h1&gt;4	Concepts and overview&lt;/h1&gt;</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>0.1067658534797674</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>['', 'URLLC, Ultra Reliable Low Latency Communication, is a typical service of 5G network, which is mainly applicable to the scenarios having high requirements on latency and reliability. The deployment and commercialization of URLLC service are of great significance to network operators. Efforts to build URLLC service oriented to vertical industries may become a potential growth point to increase revenue.', '', 'In order to satisfy the requirements of URLLC service, 3GPP has defined many features to decrease latency and increase reliability to guarantee the SLA of URLLC service. However, only principle and implementation mode of each feature are defined in 3GPP specifications, and it is not indicated that how to manage the features to enable URLLC service in actual network deployment. Consequently, the management of URLLC related features need to be studied to achieve the service requirements of URLLC defined in TS 22.261 [3].', '', 'The characteristics of URLLC are mainly reflected in several aspects such as delay/latency, reliability and availability. The concepts and terms used in the present document related to management of URLLC service are shown below:', '', 'Term', '', 'Reference', '', 'Definition', '', 'end-to-end latency', '', 'TS 22.261 [3]', '', 'The time that it takes to transfer a given piece of information from a source to a destination, measured at the communication interface, from the moment it is transmitted by the source to the moment it is successfully received at the destination.', '', 'reliability', '', 'TS 22.261 [3]', '', 'In the context of network layer packet transmissions, percentage value of the packets successfully delivered to a given system entity within the time constraint required by the targeted service out of all the packets transmitted.', '', 'survival time', '', 'TS 22.261 [3]', '', 'The time that an application consuming a communication service may continue without an anticipated message.', '', 'communication service availability', '', 'TS 22.261 [3]', '', 'Percentage value of the amount of time the end-to-end communication service is delivered according to a specified QoS, divided by the amount of time the system is expected to deliver the end-to-end service.', '', '', '', 'The present document studies on the management of URLLC related features defined in RAN groups, including sorting the features from latency, reliability and multiplexing aspects, investigating the requirements of configuration management and performance measurements in OAM.', '']</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall manage URLLC related features defined in RAN groups, including sorting the features from latency, reliability, and multiplexing aspects, investigating the requirements of configuration management and performance measurements in OAM, and ensuring the service requirements of URLLC as defined in TS 22.261 [3] are met.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;5.2.1.1	It exists URLLC and eMBB coexistence scenarios&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0.1133732699283647</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>['', 'Under the new definition of 5G application scenarios, there are coexistence scenarios of URLLC and eMBB services, and 3GPP specifications also contains related contents of eMBB and URLLC multiplexing mechanisms.', '', '&lt;b&gt;Co-existence Scenario&lt;/b&gt;', '', 'URLLC UEs and eMBB UEs can co-exist in a cell when the cell provides both services, which can be achieved by different slices. According to TS 38.300 [8], hardware/software resource isolation is up to implementation. Each slice may be assigned with either shared, prioritized or dedicated radio resource up to RRM implementation and SLA as in TS 28.541 [12]. Consequently, URLLC UEs and eMBB UEs can share the resource in the same cell even the two kinds of services allocated to different slices.', '', '&lt;b&gt;Resource Multiplexing/Pre-emption&lt;/b&gt;', '', 'URLLC service has more stringent requirement on latency and pre-emption may happen when the resource for URLLC is not enough under co-existence scenario. When URLLC service arrives, gNB can reuse the radio resource which is already allocated for eMBB to URLLC in order to guarantee the on-demand transmission of URLLC service.', '', 'Several features are defined in TS 38.213 [6] for URLLC to achieve inter-UE resource multiplexing, such as CI(cancellation indication), PB(power boosting) and PI(preemption indication). Detailed description about the features are listed in the following paragraph.', '', 'Taking the uplink service scenario as an example, TR 38.824 [11] evaluates the performance of URLLC and eMBB services under enhanced UL inter UE Tx prioritization/multiplexing mechanisms, and proposes potential enhancements for UL inter UE Tx prioritization/multiplexing, which includes UE UL cancelation mechanisms and enhanced UL power control.', '', 'Corresponding to the UE UL cancelation mechanisms, there is a definition of Cancellation Indication (CI) in TS 38.213 [6]. The Cancellation Indication instructs other UE services to cancel their transmissions, which can realize resource preemption for different services in the uplink transmissions. Corresponding to enhanced UL power control, there is a related definition of &lt;span style="text-transform:uppercase"&gt;p&lt;/span&gt;ower &lt;span style="text-transform:uppercase"&gt;b&lt;/span&gt;oosting (PB). By increasing the uplink transmission power of the UE, it can resist the interference caused by the transmission of other UEs.', '', 'At the same time,&lt;span style="text-transform:uppercase"&gt; p&lt;/span&gt;reemption &lt;span style="text-transform:uppercase"&gt;i&lt;/span&gt;ndication (PI) is also defined for resource preemption of different services in the downlink transmission, and PI can be used to indicate to other UEs that their resources are preempted.', '']</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall support coexistence scenarios of Ultra-Reliable Low-Latency Communication (URLLC) and Enhanced Mobile BroadBand (eMBB) services within a cell, utilizing different slices for resource allocation. The system shall provide hardware/software resource isolation up to implementation, with each slice assigned shared prioritized or dedicated radio resources up to Radio Resource Management (RRM) implementation and Service Level Agreement (SLA) as specified in TS 28.541 [12].
-The system shall enable URLLC UEs and eMBB UEs to share resources in the same cell, even when the services are allocated to different slices.
-The system shall implement resource multiplexing/pre-emption mechanisms for URLLC services, which have more stringent requirements on latency. When URLLC service resources are insufficient under the coexistence scenario, the system shall allow the gNB to reuse the radio resources already allocated for eMBB to URLLC in order to guarantee the on-demand transmission of URLLC service.
-The system shall define features in TS 38.213 [6] for URLLC to achieve inter-UE resource multiplexing, such as Cancellation Indication (CI), Power Boosting (PB), and Preemption Indication (PI).
-The system shall support UE UL cancelation mechanisms, with a definition of Cancellation Indication (CI) in TS 38.213 [6]. The Cancellation Indication instructs other UE services to cancel their transmissions, which can realize resource preemption for different services in the uplink transmissions.
-The system shall support enhanced UL power control, with a related definition of Power Boosting (PB). By increasing the uplink transmission power of the UE, it can resist the interference caused by the transmission of other UEs.
-The system shall support Preemption Indication (PI) for resource preemption of different services in the downlink transmission, and PI can be used to indicate to other UEs that their resources are preempted.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>&lt;h3&gt;4.3.1	Drivers&lt;/h3&gt;</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>28557-i00.docx</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0.1534375428185329</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>['', 'Vertical industries have a very wide range of use cases with very diverse requirements comparing with management of traditional PLMN. Management of NPN has the following specific aspects:', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Assurance for diversified SLA requirements: The diversified SLA requirements from different kinds of vertical industries need to be guaranteed, e.g. manufacturing industry and medical care need ultra-reliable low-latency wireless connectivity and indoor, outdoor or hybrid coverage &lt;/span&gt;NPN&lt;span style="color:000000"&gt; deployments. Other than performance requirements (e.g. ultra-low latency, ultra-high reliability), functional and operational requirements should also be guaranteed in SLA, e.g. high-precision positioning, real-time monitoring, etc.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Support of different O&amp;amp;M models: an O&amp;amp;M model allows specifying who is responsible for managing what part of the network. The various &lt;/span&gt;NPN&lt;span style="color:000000"&gt; scenarios, with a number of vertical use cases and a plenty of deployment variants, in some cases may lead to the definition of different O&amp;amp;M models. For example, many &lt;/span&gt;&lt;span style="color:000000;text-transform:uppercase"&gt;s&lt;/span&gt;&lt;span style="color:000000"&gt;mall and &lt;/span&gt;&lt;span style="color:000000;text-transform:uppercase"&gt;m&lt;/span&gt;&lt;span style="color:000000"&gt;edium-sized &lt;/span&gt;&lt;span style="color:000000;text-transform:uppercase"&gt;e&lt;/span&gt;&lt;span style="color:000000"&gt;nterprises (SMEs) do not have sufficient technical expertise for their NPNs\' deployment and operation. Therefore, cooperation with PLMN Operators to obtain O&amp;amp;M of NPNs from PLMN Operators might be the most cost-effective way for such customers. On the other hand, large enterprises like electric utility companies might want to have their own O&amp;amp;M for their NPNs to fulfil specific requirements.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Management capability exposure: this expresses the ability of an &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SP to expose some management capabilities, such as performance and KPIs monitoring, fault supervision and provisioning management capabilities, to the corresponding &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SC. The &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SP makes the selected &lt;/span&gt;NPN&lt;span style="color:000000"&gt; management capabilities available through well-defined APIs to allow the &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SC to consume these capabilities, as well as extending them with their own operation and maintenance systems, if needed. &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SC may provide their business objectives by intents and policies management to &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SP and no need to focus on detailed configuration parameters of NPNs. The mobile management capabilities exposed to the enterprise are as follows. &lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Management capability of configuration: The vertical may request to mobile network operator for a limited management capability which would enable the enterprise to dynamically change the configuration parameters (e.g. CAG configuration).&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Management capability of performance assurance: The performance assurance capabilities that may be provided to the enterprise may include creation of certain measurement jobs which collects the value of one or multiple measurement types which are the performance measurements and assurance data defined in TS\xa028.552 [12] or collects the value of one or multiple KPIs defined in TS 28.554 [13].&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Management capability of fault supervision: The fault supervision capabilities that may be provided to the enterprise may include get NSI/NSSI/NF alarm data and control NSI/NSSI/NF alarm data.&lt;/span&gt;', '']</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall ensure assurance for diversified SLA requirements across various vertical industries, guaranteeing performance, functional, and operational requirements such as ultra-reliable low-latency wireless connectivity, indoor/outdoor/hybrid coverage, high-precision positioning, and real-time monitoring.
-The system shall support different O&amp;M models to accommodate the diverse scenarios and deployment variants of NPNs, catering to the needs of SMEs and large enterprises with varying technical expertise and specific requirements.
-The system shall expose management capability exposure, allowing NPN-SPs to provide selected management capabilities like performance and KPIs monitoring, fault supervision, and provisioning management capabilities to NPN-SCs through well-defined APIs. This enables the enterprise to consume these capabilities and extend them with their own operation and maintenance systems if needed.
-The system shall provide management capability of configuration, enabling vertical industries to request limited management capabilities from mobile network operators to dynamically change configuration parameters.
-The system shall provide management capability of performance assurance, including the creation of measurement jobs to collect performance measurements and assurance data as defined in TS 28.552 or KPIs as defined in TS 28.554.
-The system shall provide management capability of fault supervision, enabling enterprises to get NSI/NSSI/NF alarm data and control NSI/NSSI/NF alarm data.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;&lt;span style="color:000000"&gt;5.1.3.4.2&lt;/span&gt;	&lt;span style="color:000000"&gt;Average IP Latency DL in gNB-DU&lt;/span&gt;&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>28552-i30.docx</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0.1126959593180401</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>['', 'a)\tThis measurement provides the average IP Latency in DL (arithmetic mean) within the gNB-DU, when there is no other prior data to be transmitted to the same UE in the gNB-DU. The measurement is optionally split into subcounters per QoS level and subcounters per S-NSSAI.', '', 'b)\tDER (n=1)', '', 'c)\tThis measurement is obtained as: sum of (time when the first piece of an RLC SDU transmitted on the air interface, minus time of arrival of the same packet at the RLC ingress F1-U termination, for IP packets arriving when there is no other prior data to be transmitted to the same UE in the gNB-DU) divided by total number of RLC SDUs arriving at the RLC ingress F1-U termination when there is no other prior data to be transmitted to the same UE in the gNB-DU. Separate counters are optionally maintained for each mapped 5QI (or QCI for option 3) and for each S-NSSAI.', '', 'd)\tEach measurement is a real representing the average latency in 0.1 millisecond. The number of measurements is equal to one. If the optional QoS level subcounters and S-NSSAI subcounters are measurement is performed, the number of measurements is equal to the sum of number of supported mapped 5QIs and the number of S-NSSAIs. ', '', 'e)\tThe measurement name has the form DRB.RlcSduLatencyDl, ', 'optionally DRB.RlcSduLatencyDl.&lt;i&gt;QOS &lt;/i&gt;where &lt;i&gt;QOS&lt;/i&gt; identifies the target quality of service class, and', 'optionally DRB.RlcSduLatencyDl.&lt;i&gt;SNSSAI, &lt;/i&gt;where &lt;i&gt;SNSSAI&lt;/i&gt; identifies the S-NSSAI.', '', 'f)\tNRCellDU', '', 'g)\tValid for packet switched traffic', '', 'h)\t5GS', '', 'i)\tOne usage of this measurement is for performance assurance within integrity area (user plane connection quality).', '']</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide the average IP Latency in DL (arithmetic mean) within the gNB-DU when there is no other prior data to be transmitted to the same UE in the gNB-DU. This measurement is optionally split into subcounters per QoS level and subcounters per S-NSSAI.
-The system shall calculate the DER (n=1) for IP packets arriving when there is no other prior data to be transmitted to the same UE in the gNB-DU. This measurement is obtained as the sum of the time difference between the first piece of an RLC SDU transmitted on the air interface and the time of arrival of the same packet at the RLC ingress F1-U termination, divided by the total number of RLC SDUs arriving at the RLC ingress F1-U termination when there is no other prior data to be transmitted to the same UE in the gNB-DU. Separate counters are optionally maintained for each mapped 5QI (or QCI for option 3) and for each S-NSSAI.
-Each measurement shall be a real number representing the average latency in 0.1 milliseconds. The number of measurements shall be equal to one. If the optional QoS level subcounters and S-NSSAI subcounters are measured, the number of measurements shall be equal to the sum of the number of supported mapped 5QIs and the number of S-NSSAIs.
-The measurement name shall have the form DRB.RlcSduLatencyDl, optionally DRB.RlcSduLatencyDl.&lt;i&gt;QOS&lt;/i&gt; where &lt;i&gt;QOS&lt;/i&gt; identifies the target quality of service class, and optionally DRB.RlcSduLatencyDl.&lt;i&gt;SNSSAI&lt;/i&gt; where &lt;i&gt;SNSSAI&lt;/i&gt; identifies the S-NSSAI.
-The system shall be valid for packet-switched traffic in the NRCellDU.
-The system shall be applicable to 5G Standalone (5GS) networks.
-The system shall be used for performance assurance within the integrity area (user plane connection quality).</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>&lt;h5&gt;&lt;span style="color:000000"&gt;5.1.3.4.3&lt;/span&gt;	&lt;span style="color:000000"&gt;Distribution of IP Latency DL in gNB-DU&lt;/span&gt;&lt;/h5&gt;</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>28552-i30.docx</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0.1072292159698527</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>['', 'a)\tThis measurement provides the distribution of IP Latency in DL within the gNB-DU, when there is no other prior data to be transmitted to the same UE in the gNB-DU. The measurement is split into subcounters per QoS level and subcounters per S-NSSAI.', '', 'b)\tDER (n=1)', '', 'c)\tThis measurement is obtained by 1) calculating the latency on the downlink within the gNB-DU for a RLC SDU packet by: time when the first piece of an RLC SDU transmitted on the air interface, minus time of arrival of the same packet at the RLC ingress F1-U termination, for IP packets arriving when there is no other prior data to be transmitted to the same UE in the gNB-DU; and 2) incrementing the corresponding bin with the latency range where the result of 1) falls into by 1 for the subcounters per QoS level (mapped 5QI or QCI in NR option 3) and subcunters per S-NSSAI. ', '', 'd)\tEach measurement is an integer representing the number of RLC SDU packets measured with the latency within the range of the bin.', '', 'e)\tDRB.RlcSduLatencyDlDist.&lt;i&gt;bin&lt;/i&gt;.&lt;i&gt;QOS, &lt;/i&gt;where &lt;i&gt;QOS&lt;/i&gt; identifies the target quality of service class, and &lt;i&gt;Bin&lt;/i&gt; indicates a latency range which is vendor specific;', 'DRB.RlcSduLatencyDlDist.&lt;i&gt;bin&lt;/i&gt;.&lt;i&gt;SNSSAI, &lt;/i&gt;where &lt;i&gt;SNSSAI&lt;/i&gt; identifies the S-NSSAI, and &lt;i&gt;Bin&lt;/i&gt; indicates a latency range which is vendor specifics.', '', 'f)\tNRCellDU', '', 'g)\tValid for packet switched traffic', '', 'h)\t5GS', '', 'i)\tOne usage of this measurement is for performance assurance within integrity area (user plane connection quality).', '']</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide the distribution of IP Latency in DL within the gNB-DU when there is no other prior data to be transmitted to the same UE in the gNB-DU. This measurement shall be split into subcounters per QoS level and subcounters per S-NSSAI. The system shall obtain this measurement by calculating the latency on the downlink within the gNB-DU for a RLC SDU packet by subtracting the time of arrival of the same packet at the RLC ingress F1-U termination from the time when the first piece of an RLC SDU is transmitted on the air interface for IP packets arriving when there is no other prior data to be transmitted to the same UE in the gNB-DU. The system shall increment the corresponding bin with the latency range where the result of the calculation falls into by 1 for the subcounters per QoS level (mapped 5QI or QCI in NR option 3) and subcounters per S-NSSAI. Each measurement shall be an integer representing the number of RLC SDU packets measured with the latency within the range of the bin. The system shall use the format DRB.RlcSduLatencyDlDist.&lt;i&gt;bin&lt;/i&gt;.&lt;i&gt;QOS&lt;/i&gt; where &lt;i&gt;QOS&lt;/i&gt; identifies the target quality of service class and &lt;i&gt;Bin&lt;/i&gt; indicates a latency range which is vendor specific, and DRB.RlcSduLatencyDlDist.&lt;i&gt;bin&lt;/i&gt;.&lt;i&gt;SNSSAI&lt;/i&gt; where &lt;i&gt;SNSSAI&lt;/i&gt; identifies the S-NSSAI and &lt;i&gt;Bin&lt;/i&gt; indicates a latency range which is vendor specific. This measurement shall be valid for packet switched traffic and applicable to NRCellDU. One usage of this measurement is for performance assurance within integrity area (user plane connection quality).</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>&lt;h2&gt;5.5	Issue #5: Configuration of latency for URLLC in RAN including the air interface&lt;/h2&gt;</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>28832-i01.docx</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>0.2327205076416784</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a user-friendly interface for easy navigation and access to various features and functionalities.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;8.4.2.4	E2E latency analysis&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>28104-i00.docx</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0.2327205076416784</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a user-friendly interface for easy navigation and access to various features and functionalities.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;&lt;span style="color:000000"&gt;5.1.3.4&lt;/span&gt;	&lt;span style="color:000000"&gt;IP &lt;/span&gt;Latency&lt;span style="color:000000"&gt; measurements&lt;/span&gt;&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>28552-i30.docx</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>0.2327205076416784</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a user-friendly interface for easy navigation and access to various features and functionalities.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>&lt;h4&gt;&lt;span style="font-size:28pt"&gt;7.2.2.4&lt;/span&gt;	&lt;span style="font-size:28pt"&gt;E2E latency analysis&lt;/span&gt;&lt;/h4&gt;</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>28104-i00.docx</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>0.2327205076416784</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The system shall provide a user-friendly interface for easy navigation and access to various features and functionalities.</t>
+          <t xml:space="preserve"> The system shall aggregate performance data over a group of Network Functions (NFs) to derive Performance Indicators, such as average latency along the network slice. These Performance Indicators shall be calculated based on the performance measurements collected from the NFs within the specified group or network slice subnets.
+The system shall provide a method to define the aggregation technique for Performance Indicators at the network slice subnet level, making these indicators available through a dedicated performance management service for network slice subnets.
+The system shall derive Performance Indicators at the network slice level by aggregating data from the network slice subnet level Performance Indicators, constituent network slice subnets, and/or NFs. These network slice level Performance Indicators shall be accessible via the corresponding performance management service for network slice.
+When delivering communication services to a tenant, the system shall derive performance indicators from the related network slice, slice subnet, and NFs' performance indicators. These indicators shall be made available to the tenant via the performance management service consumed by the tenant.
+In scenarios where tenants are associated with a specific S-NSSAI or sNSSAIList, the system shall split the performance indicators into subcounters per S-NSSAI for individual tenant management.</t>
         </is>
       </c>
     </row>

--- a/28_output_generated_medium.xlsx
+++ b/28_output_generated_medium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1908,6 +1908,1044 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.3.1.1	Support for network performance on reliability in RAN&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.09215443547880153</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['', 'Reliability is a typical network performance measurement used to evaluate whether the 5G network which provides URLLC services meets the corresponding performance requirements. As for 5G network, it is the radio network including air interface that mainly restricts the reliability and latency performance. Therefore, more attentions should be paid to the reliability and latency performance measurement for radio network from the perspective management. However, the reliability performance measurements for radio network are not totally enough.', '', 'The definition of reliability is specified in TS 22.261 [3]:&lt;b&gt; &lt;/b&gt;', '', '&lt;b&gt;-&lt;/b&gt;\t&lt;b&gt;reliability&lt;/b&gt;: in the context of network layer packet transmissions, percentage value of the packets successfully delivered to a given system entity within the time constraint required by the targeted service out of all the packets transmitted.', '', 'According to the above definition, when trying to calculate the reliability of a network, time constraint (a required maximum time) needs to be considered. Neither PER defined in TS 28.552 [13] nor reliability KPIs defined in TS 28.554 [14] seem to totally match the definition of URLLC reliability in RAN. ', '', 'URLLC performance management on reliability and latency should be supported by 5G management system and the measurement method should be studied.', '']</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support URLLC performance management by providing comprehensive reliability and latency measurement capabilities. Specifically, the system shall:
+1. Define and implement reliability performance measurements for the radio network that align with the URLLC requirements, as specified in TS 22.261.
+2. Incorporate time constraint considerations into reliability calculations, ensuring that the percentage value of successfully delivered packets meets the targeted service's maximum time requirements.
+3. Develop and integrate measurement methods that address the limitations of current PER (Packet Error Rate) definitions in TS 28.552 and reliability KPIs in TS 28.554, to fully match the URLLC reliability standards in the Radio Access Network (RAN).
+4. Offer a 5G management system that facilitates the monitoring and analysis of both reliability and latency performance, enabling proactive network optimization and ensuring adherence to URLLC service level agreements.
+5. Continuously study and improve the measurement methodologies to keep pace with evolving URLLC standards and network technologies, ensuring the system remains effective in managing reliability and latency for 5G networks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;7.2.2.1.2	&lt;span style="font-size:24pt"&gt;Use &lt;/span&gt;case&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>28104-i00.docx</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1639214033878236</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['', 'Service experience of end user is key indicator that directly reflects the user satisfaction degree. In 5G system, the diversity of network services is expanding all the time and the requirements of different services especially from vertical users are being standardized. Considering these diverse requirements and expectation from end user perspective (e.g. priorities of SLA related attributes such as latency, throughput, maximum number of users or different required values of these attributes), the service experience as a comprehensive indicator need to be extensively analysed.', '']</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall extensively analyze the service experience as a comprehensive indicator, taking into account the diverse requirements and expectations from the end user perspective. This analysis should prioritize Service Level Agreement (SLA) related attributes such as latency, throughput, and the maximum number of users, ensuring these factors align with the priorities set by both standardized service requirements and the specific needs of vertical users in the context of a 5G system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.5.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>28907-i01.docx</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1650468510842186</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['', 'TS 28.557 [2] specifies two management modes for PNI-NPN and three management modes for SNPN. Under MNO-Vertical Managed Mode for PNI-NPN and MNO-Vertical Managed Mode for SNPN, the vertical also plays the role of NPN operator shared with mobile network operator, to achieve management on the NPN served for the vertical. Therefore, a bundle of management capabilities and corresponding managed resources should be exposed to the vertical from the mobile network operator according to the business agreement between the two parties under MNO-Vertical Managed Mode. ', '', '----media/image8.png----', '', 'Figure 5.5.1-1: Vertical managing PNI-NPN through exposure', '', "Figure 5.5.1-1, as an example, illustrates how the PLMN operator and the vertical manage the PNI-NPN under the MNO-Vertical Managed Mode. The PNI-NPN, which is deployed across one PLMN and the vertical's premises (e.g. factory), can be seen as an end-to-end network composed of two differentiated segments: one public, consisting of a (R)AN and network functions built upon public 5GC network resources; and one private, consisting of network functions deployed using non-public 5G network resources. The vertical can realize the management of PNI-NPN through management capabilities exposure. ", '', '----media/image9.png----', '', 'Figure 5.5.1-2: Vertical managing SNPN through exposure', '', "Figure 5.5.1-2, as an example, illustrates how the PLMN operator and the vertical manage the SNPN under the MNO-Vertical Managed Mode. The SNPN is deployed as an independent, isolated network. All SNPN network elements are located inside the logical perimeter of the vertical's premises (e.g. factory) and the SNPN is separate from the PLMN. The PLMN operator and the vertical play the role of SNPN operator together, and the vertical can realize the management of SNPN through management capabilities exposure.", '', 'Exposing what kind of management capability and managed resources (e.g. local UPF, gNBs belong to vertical covering specific geographic areas, etc.) for vertical relies on specific cases, such as: ', '', '-\tAs described in clause 5.1.1, the capability of monitoring network errors and alarms could be exposed to vertical to support its fault root-cause analysis, localization, etc., on NPN.', '', '-\tAccording to the issue described in clause 5.3.1, the capability of configuring the NPN network resources (especially for those assets belong to the vertical e.g. local UPF or local gNBs covering specific geographic areas for a specific vertical) could further be exposed to vertical to satisfy the specific logical and/or physical resource isolation requirements for energy applications categorized into different safety zones.', '', '-\tAccording to the issue described in clause 5.4.1, the capability of monitoring KPIs/KQIs, like communication service availability, end-to-end latency, etc., could further be exposed to vertical to detect performance degradation and support performance optimization on NPN.', '']</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> * This part of the standard contains a figure, the generated requirement can be inaccurate, please consult the original text for details. 
+The system shall expose management capabilities and corresponding managed resources to the vertical from the mobile network operator according to the business agreement under MNO-Vertical Managed Mode. This includes the capability of monitoring network errors and alarms, configuring network resources for specific geographic areas and safety zones, and monitoring Key Performance Indicators (KPIs) and Quality of Service Indicators (KQIs) such as communication service availability and end-to-end latency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;7.2.2.4.3	Requirements&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>28104-i00.docx</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1301231530496094</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['', 'Table 7.2.2.4.3-1', '', 'Requirement label', '', 'Description', '', 'Related use case(s)', '', '&lt;b&gt;REQ-LAT_MDA-01&lt;/b&gt;', '', 'MDA capability for E2E latency analytics shall include identifying the type of the E2E latency issue, including, RAN- related latency issue, CNrelated latency issue, TN-related latency issue, UE-related latency issue and service provider originated latency issue.', '', 'E2E latency analytics', '', '&lt;b&gt;REQ-LAT_MDA-02&lt;/b&gt;', '', 'MDA capability for E2E latency analytics shall include providing the root cause analysis of the E2E latency issue.', '', 'E2E latency analytics', '', '&lt;b&gt;REQ-LAT_MDA-03&lt;/b&gt;', '', 'MDA capability for E2E latency analytics shall include providing the recommended actions to solve the E2E latency issue.', '', 'E2E latency analytics', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> * This part of the standard contains a table, the generated requirement can be inaccurate, please consult the original text for details. The system shall provide E2E latency analytics that include identifying the type of the E2E latency issue, including RAN-related latency issue, CN-related latency issue, TN-related latency issue, UE-related latency issue, and service provider originated latency issue. Additionally, the system shall provide root cause analysis of the E2E latency issue and recommended actions to solve the E2E latency issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;4.4.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>28864-i01.docx</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.16322352036257</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['', 'The Data Collection feature permits NWDAF to retrieve data from various data sources (e.g., NF such as AMF, SMF, PCF, UDM and AF; OAM), as a basis of the computation of network analytics [2].', '', 'The retrieval of data has impacts on the performance of both the data source and NWDAF. For the data source, all the data required by NWDAF needs to be generated or prepared accordingly before they are retrieved by NWDAF. And for the NWDAF, it needs to distinguish every piece of data received from different data sources and of data received from the same data source but for different network analytic purposes. ', '', 'The operator may notice that the data collection is the major task of one NWDAF instance, therefore, less computation resource can be allocated to that NWDAF instance, and more storage and network resources may be allocated if necessary. Or on the extreme cases, a new NWDAF instance needs to be provided or it may be found out that deploying a DCCF is the optimum solution. For making a decision, the measurement data is needed, such as how many data is collected by a NWDAF instance or by all NWDAF instances related to some areas of interests, so that the operator could have the understanding and estimation of the working load and working status of the NWDAF instance.', '', 'Moreover, it is also beneficial to have the granular measurement of data collection, such as measuring the data collected from different type of data sources. This measurement may provide information about if it is possible to optimize the deployment of NWDAF. For example, the NWDAF instance may be geographically deployed closer to its major data source to reduce the latency and save network resources.', '', 'In the other case, the monitoring of data collection will help improve the other services provided by NWDAF. For example, for model training, the training data are expected to be collected periodically. However, in practical, not all of the data are collected successfully, some of them can be missing which is probably caused the malfunctioning of the data source or network transmission issue. The more the data is missing the worse the degradation of the quality of the training data will be. And it will bring negative effect to the model training, such as a slow converging rate. Similar situation may also happen to input data of analytic services and analytic results. ', '', 'By monitoring the periodical notification which is used for data collection expected and actually received by the NWDAF, it is possible to estimate the quality of the data collected in a period which will indicate whether the data collected in this period is able to reflect the network correctly and sufficiently and whether some additional data cleansing or data augmentation are needed before the they are used for model training or analytics. ', '', 'In this key issue, the potential solutions are provided to define the new performance measurement reflecting the data collection performed by NWDAF to fulfil the following potential requirements:', '', '&lt;b&gt;REQ-NWDAF_COUNT-1 &lt;/b&gt;the 3GPP management system shall have a capability to allow an authorized consumer to configure the NWDAF to monitoring the data collection actions initiated by the NWDAF and the corresponding result, respectively. And the monitoring shall be able to distinguish the data collection from different type of data sources.', '', '&lt;b&gt;REQ-NWDAF_COUNT-2&lt;/b&gt; the 3GPP management system shall have a capability to allow an authorized consumer to configure the NWDAF to monitoring the periodical notification which is used for data collection expected and received by the NWDAF, respectively.', '']</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide capabilities for authorized consumers to configure Network-wide Data Analytics Function (NWDAF) instances for monitoring data collection actions initiated by the NWDAF and the corresponding results. Additionally, the system shall enable monitoring of periodical notifications used for data collection expected and received by the NWDAF, to distinguish data collection from different types of data sources and assess the quality of collected data over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;4.4.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>28864-i00.docx</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1626647238802237</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['', 'The Data Collection feature permits NWDAF to retrieve data from various data sources (e.g., NF such as AMF, SMF, PCF, UDM and AF; OAM), as a basis of the computation of network analytics [2].', '', 'The retrieval of data has impacts on the performance of both the data source and NWDAF. For the data source, all the data required by NWDAF needs to be generated or prepared accordingly before they are retrieved by NWDAF. And for the NWDAF, it needs to distinguish every piece of data received from different data sources and of data received from the same data source but for different network analytic purposes. ', '', 'The operator may notice that the data collection is the major task of one NWDAF instance, therefore, less computation resource can be allocated to that NWDAF instance, and more storage and network resources may be allocated if necessary. Or on the extreme cases, a new NWDAF instance needs to be provided or we may find out that deploying a DCCF is the optimum solution. For making a decision, the measurement data is needed, such as how many data is collected by a NWDAF instance or by all NWDAF instances related to some areas of interests, so that the operator could have the understanding and estimation of the working load and working status of the NWDAF instance.', '', 'Moreover, it is also beneficial to have the granular measurement of data collection, such as measuring the data collected from different type of data sources. This measurement may provide information about if it is possible to optimize the deployment of NWDAF. For example, the NWDAF instance may be geographically deployed closer to its major data source to reduce the latency and save network resources.', '', 'In the other case, the monitoring of data collection will help improve the other services provided by NWDAF. For example, for model training, the training data are expected to be collected periodically. However, in practical, not all of the data are collected successfully, some of them can be missing which is probably caused the malfunctioning of the data source or network transmission issue. The more the data is missing the worse the degradation of the quality of the training data will be. And it will bring negative effect to the model training, such as a slow converging rate. Similar situation may also happen to input data of analytic services and analytic results. ', '', 'By monitoring the periodical notification which is used for data collection expected and actually received by the NWDAF, it is possible to estimate the quality of the data collected in a period which will indicate whether the data collected in this period is able to reflect the network correctly and sufficiently and whether some additional data cleansing or data augmentation are needed before the they are used for model training or analytics. ', '', 'In this key issue, the potential solutions are provided to define the new performance measurement reflecting the data collection performed by NWDAF to fulfil the following potential requirements:', '', '&lt;b&gt;REQ-NWDAF_COUNT-1 &lt;/b&gt;the 3GPP management system shall have a capability to allow an authorized consumer to configure the NWDAF to monitoring the data collection actions initiated by the NWDAF and the corresponding result, respectively. And the monitoring shall be able to distinguish the data collection from different type of data sources.', '', '&lt;b&gt;REQ-NWDAF_COUNT-2&lt;/b&gt; the 3GPP management system shall have a capability to allow an authorized consumer to configure the NWDAF to monitoring the periodical notification which is used for data collection expected and received by the NWDAF, respectively.', '']</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide capabilities for authorized consumers to configure Network-wide Data Analytics Function (NWDAF) instances for monitoring data collection actions initiated by the NWDAF and the corresponding results. Additionally, the system shall enable configuration for monitoring periodical notifications used for data collection expected and received by the NWDAF, respectively. This monitoring shall distinguish data collection from different types of data sources and ensure accurate reflection of network activities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;8.4.2.4.1	MDA type&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>28104-i00.docx</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1505366201885225</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['', 'The MDA type for Capability-E2E latency analysis is: SLSAnalysis.E2ElatencyAnalysis.', '']</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support Capability-E2E latency analysis using the MDA type SLSAnalysis.E2ElatencyAnalysis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.3.36.2	Attributes&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>28541-i40_c04_c07.docx</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1320566736331731</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['', 'The NetworkSliceSubnetProviderCapabilities IOC includes attributes inherited from Top IOC (defined in TS 28.622[30]) and the following attributes. &lt;span style="color:000000"&gt;The attributes here are subjected to updates, e.g. after each successful subnet allocation or because of any other operator internals decision.&lt;/span&gt;', '', '', '', 'Attribute name', '', 'S', '', 'isReadable', '', 'isWritable', '', 'isInvariant', '', 'isNotifyable', '', 'dLlatency', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'uLlatency', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'dLThptPerSliceSubnet', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'uLThptPerSliceSubnet', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'coverageAreaTAList', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support attributes that are readable, writable, and notifyable, with specific latency metrics (dLatency, uLatency) and throughput metrics (dLThptPerSliceSubnet, uLThptPerSliceSubnet) for operations related to slice subnet allocation. Additionally, the system shall maintain a list of coverage areas (coverageAreaTAList) for each slice subnet, which is readable, writable, and notifyable. These attributes may be updated post-operation or due to internal system decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.3.36.2	Attributes&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>28541-i41_c04_c07.docx</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1320566736331731</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['', 'The NetworkSliceSubnetProviderCapabilities IOC includes attributes inherited from Top IOC (defined in TS 28.622[30]) and the following attributes. &lt;span style="color:000000"&gt;The attributes here are subjected to updates, e.g. after each successful subnet allocation or because of any other operator internals decision.&lt;/span&gt;', '', '', '', 'Attribute name', '', 'S', '', 'isReadable', '', 'isWritable', '', 'isInvariant', '', 'isNotifyable', '', 'dLlatency', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'uLlatency', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'dLThptPerSliceSubnet', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'uLThptPerSliceSubnet', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', 'coverageAreaTAList', '', 'M', '', 'T', '', 'F', '', 'F', '', 'T', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support attributes that are readable, writable, and notifyable, with specific latency metrics (dLatency, uLatency) and throughput metrics (dLThptPerSliceSubnet, uLThptPerSliceSubnet) for operations related to slice subnet allocation. Additionally, the system shall maintain a list of coverage areas (coverageAreaTAList) for each slice subnet, which is readable, writable, and notifyable. These attributes may be updated post-operation or due to internal system decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;&lt;span style="color:000000"&gt;A.59&lt;/span&gt;	&lt;span style="color:000000"&gt;Monitoring of RACH usage&lt;/span&gt;&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>28552-i30.docx</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1535353431133922</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['', 'The RACH plays a vital role in the following procedures:', '', '-\tInitial access from RRC_IDLE;', '', '-\tInitial access after radio link failure;', '', '-\tHandover requiring random access procedure;', '', '-\tDL data arrival during RRC_CONNECTED requiring random access procedure;', '', '-\tUL data arrival during RRC_CONNECTED requiring random access procedure;', '', 'Furthermore, the random access procedure takes two distinct forms:', '', '-\tContention based using a randomly selected preamble (applicable to all five events);', '', '-\tNon-contention based using a dedicated preamble (applicable to only handover and DL data arrival).', '', 'In the use-case of RACH configuration optimization, received Random Access Preambles and a contention indicator are signalled across an OAM interface.', '', 'Monitoring of the preamble usage in a cell allows the operator to determine if the resources allocated to the RACH by the gNodeB are appropriate for the number of random access attempts.  If the resources are underutilised, then the operator may reconfigure the gNodeB (via CM) to allocate less resource to RACH thereby freeing up resource for other uplink transmissions.  Alternatively, if the resources are heavily utilised then this is indicative of RACH congestion leading to increased latency for the procedures listed above. To this effect, measurements directly reflecting RACH congestion experienced by the gNodeB and by the UEs are useful.', '', 'The gNodeB can partition the RACH resource between dedicated preambles, randomly selected preambles in group A and randomly selected preambles in group B.  This partitioning can be evaluated when usage measurements are made on each set separately. In a cell configured with multiple SSBs, it is important to get the measurements per SSB.', '']</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall monitor and record the usage of Random Access Preambles and the contention indicator across an OAM interface during all RACH-related procedures, including initial access from RRC_IDLE, initial access after radio link failure, handover requiring random access, and DL and UL data arrival during RRC_CONNECTED requiring random access.
+The system shall differentiate between contention-based and non-contention-based random access procedures, utilizing either randomly selected preambles or dedicated preambles as applicable.
+The system shall enable the operator to evaluate the allocation of RACH resources by monitoring preamble usage within a cell, allowing for optimization of gNodeB configuration through adjustments in resource allocation.
+The system shall provide measurements that reflect RACH congestion experienced by both the gNodeB and the User Equipments (UEs), facilitating the identification of underutilized or heavily utilized resources.
+The system shall allow the gNodeB to partition RACH resources between dedicated preambles in group A, randomly selected preambles in group B, and provide the capability to evaluate this partitioning based on usage measurements for each set separately, with particular attention to multiple Serving and Base Station (SSB) configurations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.1.2	Potential solutions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>28912-i01.docx</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1527821968473643</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['', 'The Radio Service Expectation needs to be defined by utilizing the construct of the generic IntentExpectation &amp;lt;&amp;lt;dataType&amp;gt;&amp;gt; with set of allowed values and concrete dataTypes specified. ', '', 'The objectType of the Radio Service Expectation can be Radio Service.', '', 'The ObjectContexts for the Radio Service Expectation may include coverageAreaPolygonContext, coverageTACContext, and serviceTypeContext. All these ObjectContexts include attributes: contextAttribute, contextCondition and contextValueRange. The concrete contextValueRange see corresponding attribute definition in RANSliceSubnetProfile in TS 28.541 [3].', '', 'The ExpectationTargets for Radio Service Expectation may include maxNumberofUEsTarget, activityFactorTarget, dLThptPerUETarget, uLThptPerUETarget, uEMobilityLevelTargetTarget, uESpeedTarget, dLLatencyTarget, uLLatencyTarget, dLMaxPktSizeTarget,and uLMaxPktSizeTarget. All these ExpectationTargets include attributes: targetName, targetCondition and targetValueRange. The concrete targetValueRange see corresponding attribute definition in RANSliceSubnetProfile in TS 28.541 [3].', '']</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall define the Radio Service Expectation utilizing the generic IntentExpectation construct with a specified data type and a set of allowed values, alongside concrete data types. It shall identify the objectType of the Radio Service Expectation as Radio Service. The system shall specify ObjectContexts for the Radio Service Expectation, including coverageAreaPolygonContext, coverageTACContext, and serviceTypeContext, each with attributes: contextAttribute, contextCondition, and contextValueRange, aligning with the definitions in RANSliceSubnetProfile TS 28.541 [3]. Furthermore, the system shall establish ExpectationTargets for the Radio Service Expectation, encompassing maxNumberofUEsTarget, activityFactorTarget, dLThptPerUETarget, uLThptPerUETarget, uEMobilityLevelTarget, uESpeedTarget, dLLatencyTarget, uLLatencyTarget, dLMaxPktSizeTarget, and uLMaxPktSizeTarget, each with attributes: targetName, targetCondition, and targetValueRange, consistent with the corresponding attribute definitions in RANSliceSubnetProfile TS 28.541 [3].</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.1.2	Potential solutions&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>28912-i00.docx</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1542343503102356</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['', 'The Radio Service Expectation needs to be defined by utilizing the construct of the generic IntentExpectation &amp;lt;&amp;lt;dataType&amp;gt;&amp;gt; with set of allowed values and concrete dataTypes specified. ', '', 'The objectType of the Radio Service Expectation can be Radio Service.', '', 'The ObjectContexts for the Radio Service Expectation may include coverageAreaPolygonContext, coverageTACContext, and serviceTypeContext. All these ObjectContexts include attributes: contextAttribute, contextCondition and contextValueRange. The concrete contextValueRange see corresponding attribute definition in RANSliceSubnetProfile in TS 28.541[3].', '', 'The ExpectationTargets for Radio Service Expectation may include maxNumberofUEsTarget, activityFactorTarget, dLThptPerUETarget, uLThptPerUETarget, uEMobilityLevelTargetTarget, uESpeedTarget, dLLatencyTarget, uLLatencyTarget, dLMaxPktSizeTarget,and uLMaxPktSizeTarget. All these ExpectationTargets include attributes: targetName, targetCondition and targetValueRange. The concrete targetValueRange see corresponding attribute definition in RANSliceSubnetProfile in TS 28.541[3].', '']</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall define the Radio Service Expectation utilizing the generic IntentExpectation construct, incorporating a set of allowed values and specific concrete data types. It shall identify the objectType of the Radio Service Expectation as Radio Service. The system shall support ObjectContexts for the Radio Service Expectation, including coverageAreaPolygonContext, coverageTACContext, and serviceTypeContext, each with attributes: contextAttribute, contextCondition, and contextValueRange. Additionally, the system shall define ExpectationTargets for the Radio Service Expectation, encompassing attributes: targetName, targetCondition, and targetValueRange, with concrete targetValueRange definitions aligned with those in RANSliceSubnetProfile as per TS 28.541[3].</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;8.4.2.4.2	Enabling data&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>28104-i00.docx</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1273802726450097</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['', 'The enabling data for SLSAnalysis.E2ElatencyAnalysis MDA type are provided in table 8.4.2.4.2-1.', '', 'Table 8.4.2.4.2-1: Enabling data for E2E latency analysis', '', 'Data category', '', 'Description', '', 'References', '', 'Performance measurements', '', 'Average e2e UL/DL delay for a network slice', '', 'Average e2e uplink delay for a network (clause &lt;span style="color:000000"&gt;6.3.1.8.1 in TS 28.554 [5]);&lt;/span&gt; Average e2e downlink delay for a network slice (clause &lt;span style="color:000000"&gt;6.3.1.8.2 in TS 28.554 [5]).&lt;/span&gt;', '', '', '', 'Integrated uplink/downlink delay in RAN', '', 'Integrated downlink delay in RAN (clause 6.3.1.2 &lt;span style="color:000000"&gt;in TS 28.554 [5]); Integrated uplink delay in RAN (&lt;/span&gt;clause\xa0&lt;span style="color:000000"&gt;6.3.1.7 in TS 28.554 [5]).&lt;/span&gt;', '', '', '', 'Round-trip Packet Delay', '', 'Round-trip packet delay between PSA UPF and NG-RAN (clause 5.4.8 &lt;span style="color:000000"&gt;TS 28.552 [4]).&lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide enabling data for SLSAnalysis.E2ElatencyAnalysis MDA type, as detailed in table 8.4.2.4.2-1. This data encompasses performance measurements including the average end-to-end UL/DL delay for a network slice, average end-to-end uplink and downlink delays for a network as specified in clauses 6.3.1.8.1 and 6.3.1.8.2 of TS 28.554, respectively. Additionally, the system shall offer integrated uplink/downlink delay metrics within the Radio Access Network (RAN), as well as round-trip packet delay information between PSA UPF and NG-RAN, in accordance with clause 5.4.8 of TS 28.552.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.1.2.1	Classification of URLLC related RAN features&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1117842595327616</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['', 'The present document sorts out the features related to URLLC defined in RAN and classifies them from a management perspective. According to the characteristics of URLLC service, features are classified into the following two categories based on their effects: low latency and ultra reliability. Features belonging to low-latency category are mainly used to reduce data transmission delay, and reliability features are mainly used to improve the reliability of transmission. Among the features belonging to low-latency category, some of them reduce the transmission latency from the effective mechanism and other features improve service priority to reduce URLLC latency in multi-service scenario. ', '', 'Feature', '', 'Category', '', 'Reference', '', 'Mini-slot transmission', '', 'Low latency', '', 'TS 38.214 [7]', '', 'Numerology/SCS', '', 'Low latency', '', 'TS 38.211 [4]', '', 'UL configured grant', '', 'Low latency', '', 'TS 38.214 [7]', '', 'DL SPS ', '', 'Low latency', '', 'TS 38.213 [6]', '', 'PDCCH monitoring', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Logical channel priority', '', 'Low latency', '', 'TS 38.321 [9]', '', 'Short PUCCH', '', 'Low latency', '', 'TS 38.211 [4]', '', 'UE processing capability#2', '', 'Low latency', '', 'TS 38.214 [7]', '', 'Span based PDCCH monitoring', '', 'Low latency', '', 'TS 38.212 [5]/TS 38.213 [6]', '', 'UL configured grant enhancements', '', 'Low latency', '', 'TS 38.214 [7]', '', 'DL SPS enhancements', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Sub-slot level HARQ-ACK', '', '(UCI enhancements)', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Two HAQR-ACK codebooks', '', '(UCI enhancements)', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Low SE MCS/CQI table', '', 'Ultra reliability', '', 'TS 38.214 [7]', '', 'PDSCH repetitions', '', 'Ultra reliability', '', 'TS 38.214 [7]', '', 'PUSCH repetitions', '', 'Ultra reliability', '', 'TS 38.214 [7]', '', 'PUCCH repetitions', '', 'Ultra reliability', '', 'TS 38.213 [6]', '', 'PDCCH aggregation level 16', '', 'Ultra reliability', '', 'TS 38.213 [6]', '', 'PDCP duplication', '', 'Ultra reliability', '', 'TS 38.323 [10]', '', 'PUSCH repetitions enhancements', '', 'Ultra reliability', '', 'TS 38.214 [7]', '', 'DCI format 0_2 and DCI format 1_2', '', 'Ultra reliability', '', 'TS 38.213 [6]', '', 'DL Multi-TRP for URLLC data channel repetitions', '', 'Ultra reliability', '', 'TS 38.213 [6]', '', 'PDCP duplication enhancements', '', 'Ultra reliability', '', 'TS 38.323 [10]', '', 'DL Preemption Indication (PI)', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Code Block Group (CBG)', '', 'Low latency', '', 'TS 38.214 [7]', '', 'Inter UE: UL Cancellation Indication(CI)', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Inter UE: Power Boosting', '', 'Low latency', '', 'TS 38.213 [6]', '', 'Intra UE: UL Prioritization', '', 'Low latency', '', 'TS 38.213 [6]', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall classify the features related to Ultra Reliable Low Latency Communications (URLLC) defined in Radio Access Network (RAN) into two categories based on their effects: low latency and ultra reliability. 
+For low latency features, the system shall reduce data transmission delay by implementing mechanisms such as mini-slot transmission, numerology/SCS, low latency UL configured grant, DL SPS enhancements, PDCCH monitoring, logical channel priority, short PUCCH, UE processing capability#2, span based PDCCH monitoring, UL configured grant enhancements, DL SPS enhancements, sub-slot level HARQ-ACK (UCI enhancements), two HAQR-ACK codebooks (UCI enhancements), low SE MCS/CQI table. 
+For ultra reliability features, the system shall improve the reliability of transmission by implementing mechanisms such as PDSCH repetitions, PUSCH repetitions enhancements, PUCCH repetitions, PDCCH aggregation level 16, PDCP duplication, DCI format 0_2 and DCI format 1_2, DL Multi-TRP for URLLC data channel repetitions, PUSCH repetitions enhancements, DL Preemption Indication (PI), Code Block Group (CBG), Inter UE: UL Cancellation Indication (CI), and Intra UE: UL Prioritization. 
+Additionally, the system shall prioritize URLLC services in multi-service scenarios by enhancing features that improve service priority, such as low latency UL configured grant enhancements and DL SPS enhancements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.5.2	Potential Solution&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1125985624989877</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['', 'The requirement for configuration management of radio network providing URLLC services is:', '', '-\tThe OAM should have the capability of configuring the maximum allowed downlink and uplink latency in RAN including the delay over air interface.', '', 'According to the requirement above, the attributes "dlLatency" and "ulLatency" of RANSliceSubnetProfile defined in TS 28.541 should be modified to contain the latency over the air interface. The specific changes are proposed.', '', '1. The attributes "dlLatency" and "ulLatency" of RANSliceSubnetProfile&amp;lt;&amp;lt;dataType&amp;gt;&amp;gt; defined in TS 28.541 are modified as follows: ', '', 'Attribute Name', '', 'Documentation and Allowed Values', '', 'Properties', '', 'RANSliceSubnetProfile.&lt;span style="font-size:18pt"&gt;dlLatency&lt;/span&gt;', '', 'An attribute specifies the required DL packet transmission latency (millisecond) in RAN including the air interface of the network slice and is used to evaluate the delay between NG-RAN and UE, e.g. time between received DL packet from UPF the packet successfully received by UE. See clause 5.1.1.1.6 in TS 28.552 [13].', '', '&lt;span style="font-size:18pt"&gt;type: Real&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;multiplicity: 1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isOrdered: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isUnique: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;defaultValue: None&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;allowedValues: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isNullable: False&lt;/span&gt;', '', 'RANSliceSubnetProfile.&lt;span style="font-size:18pt"&gt;ulLatency&lt;/span&gt;', '', 'An attribute specifies the required UL packet transmission latency (millisecond) in RAN including the air interface of the network slice and is used to evaluate the delay between UE and NG-RAN, e.g. time between the UL packet scheduled in UE and the packet successfully sent to UPF. See clause 5.1.1.1.7 in TS 28.552 [13].', '', '&lt;span style="font-size:18pt"&gt;type: Real&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;multiplicity: 1&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isOrdered: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isUnique: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;defaultValue: None&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;allowedValues: N/A&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;isNullable: False&lt;/span&gt;', '', '', '', 'NOTE 1: Even though this study is about URLLC, the two attributes are also applicable for latency requirement for non URLLC services.', '', 'NOTE 2: The two attributes represent maximum latency allowed or target latency of RAN slice subnet.', '']</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall modify the "dlLatency" and "ulLatency" attributes of the RANSliceSubnetProfile in TS 28.541 to accurately represent the maximum allowed downlink and uplink latency over the air interface, including delays in the Radio Access Network (RAN). These modifications will ensure that the system can evaluate the delay between the User Equipment (UE) and the Network Generic Radio Access Network (NG-RAN), as well as the delay between the User Equipment (UE) and the Upcoming Radio Access Network (UPF). The updated attributes will have a data type of Real, with a default value of None, and are not nullable. These changes are essential for meeting the OAM capabilities required for configuring latency in URLLC services, applicable to both URLLC and non-URLLC services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.8.3	Potential Solution&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>28903-i00.docx</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1580814232851196</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['', 'The solution requires adding SLA requirements in EASRequirements IOC. This will enable ASP to provide expected SLA from the edge infrastructure. The following need to be added in the EASREquirements IOC', '', '-\tBandwidth', '', '-\tLatency', '']</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide the required bandwidth as specified in the SLA requirements within the EASRequirements IOC. Additionally, the system shall ensure the latency meets the expected SLA standards as defined in the EASRequirements IOC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.8.3	Potential Solution&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>28903-i01.docx</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1580730628624937</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['', 'The solution requires adding SLA requirements in EASRequirements IOC. This will enable ASP to provide expected SLA from the edge infrastructure. The following need to be added in the EASREquirements IOC:', '', '-\tBandwidth', '', '-\tLatency', '']</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide a specified bandwidth and ensure a defined latency as part of the Service Level Agreement (SLA) requirements, which will be integrated into the EASRequirements IOC to enable ASP to monitor and guarantee the expected performance from the edge infrastructure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;8.4.2.4.3	Analytics output&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>28104-i00.docx</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1516974630263038</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['', 'The specific information elements of the analytics output for E2E latency analysis, in addition to the common information elements of the analytics outputs (see clause 8.3), are provided in table 8.4.2.4.3-1.', '', '&lt;b&gt;Table 8.4.2.4.3-1: Analytics output for E2E latency analysis&lt;/b&gt;', '', 'Information element', '', 'Definition', '', 'Support qualifier', '', 'Properties', '', 'e2ELatencyIssueId', '', 'The identifier indicates the output is for E2E latency issue analysis', '', 'M', '', 'type: String', '', 'multiplicity: 1', '', 'isOrdered: N/A', '', 'isUnique: N/A', '', 'defaultValue: None', '', 'isNullable: False', '', 'e2ELatencyIssueType', '', '&lt;span style="font-size:18pt"&gt;Indication the type of the E2E latency issue.&lt;/span&gt;', '', '', '', 'The allowed value is one of the enumerated values: RAN latency issue, CN latency issue', '', 'M', '', 'type: ENUM', '', 'multiplicity: 1', '', 'isOrdered: N/A', '', 'isUnique: N/A', '', 'defaultValue: None', '', 'isNullable: False', '', 'affectedObjects', '', 'The managed object instances of subnetwork, managed elements or network slices where the latency issue happens', '', 'O', '', 'type: DN', '', 'multiplicity: 1..*', '', 'isOrdered: False', '', 'isUnique: True', '', 'defaultValue: None', '', 'isNullable: False', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide analytics output for end-to-end (E2E) latency analysis, which includes specific information elements such as 'e2ELatencyIssueId', 'e2ELatencyIssueType', and 'affectedObjects'. These elements are defined with their respective data types, multiplicities, and properties to ensure accurate representation and analysis of E2E latency issues within the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;7.1	Possible solution for “exposed MnS support to discovery systems” – Scenario 5.4&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>28824-i00.docx</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1560486439202722</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['', 'The steps of the solution are as follows: ', '', '1)\tA MnS consumer configures using the appropriate MnS (for example the generic provisioning service) the details of the external discovery service location and other supporting details (for e.g., authentication and authorization). Further, the detail on which parts of which MnS (component A) IOCs and which instances of the corresponding MOI (component B) and corresponding data (component C) can be registered with the discovery service/system.  As an example, the operator may want to register her the ability to provision (Management object A) a particular slice type (NSSAI-ID) at a certain coverage area (coverageArea item 6.3.3 TS28.541) with some additional details (example: supported latency or maxNumberofUEs or delayTolerance) to an external discovery service or system. ', '', '2)\tIn addition to the information of what is externally registered, information relating to the address of the exposed MnS needs to be provided. This could be default information based on the operator in the external discovery system or in case of a trusted discovery the address of the actual exposed management service. ', '', '3)\tThe 3GPP Management System registers the exposed management component A, B and C as configured in step 1 to the appropriate external discovery service/system. ', '', '4)\tEventually, if any of the exposure details change – for example the same slice type can now be supported in a new coverageArea – the registration to the external discovery system may now need to be updated.  ', '', 'Editor’s note: provide a picture explain the operator and JV relationship below.', '', 'The solution for the trust issue between the three MnS discovery system owner, MnS consumer and the MnS producer is scenario dependent. Let’s take for example a multi-operator network scenario. In this scenario let’s take operator A as an MnS producer, a joint venture of multiple operators as a MnS discovery system owner and operator B as an MnS consumer. Both Operator A and Operator B have business relations with the joint venture thereby creating a trust relationship between Operator A and the joint venture (JV) AND operator B and the joint venture. The JV provides the authorization and authentication details for each of the operator to use the discovery service. Operator A may then expose aspects of its MnS that it considers ok to expose with the JV. Operator B can then discover the MnS offered by operator A and contact operator A to access them. If operator B requires a higher level of access than operator A provides in the JV by default, then they need to form a new business relationship.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall:
+1) Enable an MnS consumer to configure the appropriate MnS details, such as the generic provisioning service, with external discovery service locations and supporting details including authentication and authorization. The system shall facilitate the registration of specific Management Object (MO) IOCs and instances with the discovery service/system, detailing which parts of which MnS components can be registered.
+2) Provide the capability to register the address of the exposed MnS, either with default information based on the operator within the external discovery system or with the actual exposed management service address in the case of a trusted discovery.
+3) Register the exposed management components (A, B, and C) as configured in step 1 to the appropriate external discovery service/system, ensuring accurate and up-to-date information is available for discovery and interaction.
+4) Support the update of registration details in the external discovery system when exposure details change, such as when a new coverage area is supported or additional details are provided.
+5) Address trust issues between MnS discovery system owners and consumers through scenario-dependent solutions, such as in a multi-operator network scenario where an MnS producer (operator A) and a joint venture (JV) act as the discovery system owner, and an MnS consumer (operator B) has a business relationship with the JV. The system shall ensure that the JV provides authorization and authentication details for operators to use the discovery service, allowing for secure and trusted exposure of MnS components.
+6) Enable operators to establish higher levels of access through new business relationships if required, ensuring flexibility and scalability in the management of MnS components and their discovery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;7.1	Possible solution for "exposed MnS support to discovery systems" – Scenario 5.4&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>28824-i01.docx</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1565949189213645</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['', 'The steps of the solution are as follows: ', '', '1.\tA MnS consumer configures using the appropriate MnS (for example the generic provisioning service) the details of the external discovery service location and other supporting details (for e.g. authentication and authorization). Further, the detail on which parts of which MnS (component A) IOCs and which instances of the corresponding MOI (component B) and corresponding data (component C) can be registered with the discovery service/system. As an example, the operator may want to register her the ability to provision (Management object A) a particular slice type (NSSAI-ID) at a certain coverage area (coverageArea item 6.3.3 TS28.541) with some additional details (example: supported latency or maxNumberofUEs or delayTolerance) to an external discovery service or system. ', '', '2.\tIn addition to the information of what is externally registered, information relating to the address of the exposed MnS needs to be provided. This could be default information based on the operator in the external discovery system or in case of a trusted discovery the address of the actual exposed management service. ', '', '3.\tThe 3GPP Management System registers the exposed management component A, B and C as configured in step 1 to the appropriate external discovery service/system. ', '', '4.\tEventually, if any of the exposure details change – for example the same slice type can now be supported in a new coverageArea – the registration to the external discovery system may now need to be updated. ', '', 'The solution for the trust issue between the three MnS discovery system owner, MnS consumer and the MnS producer is scenario dependent. For example in a multi-operator network scenario. In this scenario operator A is an MnS producer, a joint venture of multiple operators as a MnS discovery system owner and operator B as an MnS consumer. Both Operator A and Operator B have business relations with the joint venture thereby creating a trust relationship between Operator A and the joint venture (JV) AND operator B and the joint venture. The JV provides the authorization and authentication details for each of the operator to use the discovery service. Operator A may then expose aspects of its MnS that it considers ok to expose with the JV. Operator B can then discover the MnS offered by operator A and contact operator A to access them. If operator B requires a higher level of access than operator A provides in the JV by default, then they need to form a new business relationship.', '']</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall:
+1. Enable a MnS consumer to configure the appropriate MnS details, including external discovery service location, authentication, and authorization specifics, for registering MnS component A IOCs, component B MOI instances, and component C data with the discovery service/system.
+2. Allow the provision of default or trusted discovery information regarding the exposed MnS's address to the external discovery system, either based on the operator's default settings or the actual exposed management service's address.
+3. Register the exposed management components (A, B, and C) as configured in step 1 to the designated external discovery service/system by the 3GPP Management System.
+4. Update the registration in the external discovery system if exposure details change, such as supporting a new coverage area or additional service parameters, to reflect the current capabilities of the MnS.
+5. Address trust issues between the MnS discovery system owners, MnS consumers, and MnS producers through scenario-dependent solutions, such as leveraging existing business relationships in multi-operator network scenarios to facilitate trust and authorization for discovery service usage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;7.2.2.4.1	Description&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>28104-i00.docx</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1313645402963909</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['', 'This MDA capability is for E2E latency related issue analysis.', '']</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide End-to-End (E2E) latency related issue analysis capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;&lt;span style="color:000000"&gt;5.1.3.4.1&lt;/span&gt;	General&lt;span style="color:000000"&gt; information&lt;/span&gt;&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>28552-i30.docx</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1657328252058974</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['', 'This clause  defines the DL latency in gNB-DU. DL latency measurements for CU-UP and F1-U are not defined.', '']</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall define DL latency in gNB-DU, excluding the measurements for CU-UP and F1-U.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;8	Guidelines for using scenario specific intent expectation for intent driven use cases&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>28312-i00.docx</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1592812873458966</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['', 'This clause describes guidelines for using scenario specific intent expectation defined in clause 6.2.2 to satisfy the intent driven use cases defined in clause 5.1. Following table provide the information which ObjectContexts and ExpectationTargets defined in clause 6.2.2 are used for corresponding use case.', '', 'Table 8-1', '', 'Use case', '', 'Scenario specific IntentExpectation', '', 'ExpectationObject.', '', 'ObjectContext', '', 'ExpectationTarget', '', 'Intent containing an expectation for delivering radio network (clause 5.1.1)', '', 'Radio Network Expectation', '', '-coverageAreaPolygonContext', '', '- coverageTACContext', '', '- pLMNContext', '', '- nRFqBandContext', '', '- rATContext', '', '-weakRSRPRatioTarget', '', '- lowSINRRatioTarget', '', '- aveULRANUEThptTarget', '', '- aveDLRANUEthptTarget', '', 'Intent containing an expectation for delivering a service (clause 5.1.3)', '', 'Service Support Expectation', '', '- edgeIdenfiticationIdContext', '', '- edgeIdenfiticationLocContext', '', '- coverageAreaTAContext', '', '- dlThptPerUETarget', '', '- UlThptPerUETarget', '', '- dLLatencyTarget', '', '- uLLatencyTarget', '', '- maxNumberofUEsTarget', '', '- activityFactorTarget', '', '- uESpeedTarget', '', 'Intent containing an expectation on coverage performance to be assured (clause 5.1.4)', '', 'Radio Network Expectation', '', '-coverageAreaPolygonContext', '', '- nRFqBandContext', '', '- rATContext', '', '-weakRSRPRatioTarget', '', '-lowSINRRatioTarget', '', 'Intent containing an expectation on RAN UE throughput performance to be assured (clause 5.1.5)', '', 'Radio Network Expectation', '', '-coverageAreaPolygonContext', '', '- nRFqBandContext', '', '- rATContext', '', '-aveULRANUEThptTarget', '', '-aveDLRANUEthptTarget', '', '-lowULRANUEThptRatioTarget', '', '-lowDLRANUEThptRatioTarget', '', '', '', '', '', '', '', '', 'Annex A (informative):', 'PlantUML source code', '']</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall utilize scenario-specific intent expectations defined in clause 6.2.2 to fulfill the intent-driven use cases outlined in clause 5.1. Additionally, the system shall reference the provided Table 8-1 to identify which ObjectContexts and ExpectationTargets from clause 6.2.2 are applicable for each corresponding use case.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.1.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>28829-i00.docx</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1427213207428377</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['', 'This describes the issues to be studied in context of the use case of MNO exposes Network Performance Monitoring. This corresponds to the use case and associated requirements in 6.1. The requirements from C.5 are not addressed by this key issue: alarms and fault management are not considered by the solutions corresponding to this key issue.', '', 'This key issue is that DSO has to be an MNO trusted entity to access MnSes provided by the 3GPP Management System. The existing performance assurance mechanism can be used to report network performance to DSO. However, the following need to be studied', '', 'a.\tHow the existing ThresholdMonitor can be used for configuring the network monitoring.', '', 'b.\tHow the existing NtfSubscriptionControl can be used for sending reports as notifications against monitoring.', '', 'c.\tWhether the existing performance measurements [13] and KPIs [12] are enough to support the requirements (e.g. latency, throughput, packet loss, availability etc.) ', '']</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall:
+1. Utilize the existing ThresholdMonitor to configure network monitoring effectively.
+2. Employ the existing NtfSubscriptionControl to send monitoring reports as notifications to the designated entities.
+3. Assess whether the current performance measurements and Key Performance Indicators (KPIs) are sufficient to support the requirements, including latency, throughput, packet loss, and availability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;7.1.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>28829-i01.docx</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1427213207428377</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['', 'This describes the issues to be studied in context of the use case of MNO exposes Network Performance Monitoring. This corresponds to the use case and associated requirements in 6.1. The requirements from C.5 are not addressed by this key issue: alarms and fault management are not considered by the solutions corresponding to this key issue.', '', 'This key issue is that DSO has to be an MNO trusted entity to access MnSes provided by the 3GPP Management System. The existing performance assurance mechanism can be used to report network performance to DSO. However, the following need to be studied', '', 'a.\tHow the existing ThresholdMonitor can be used for configuring the network monitoring.', '', 'b.\tHow the existing NtfSubscriptionControl can be used for sending reports as notifications against monitoring.', '', 'c.\tWhether the existing performance measurements [13] and KPIs [12] are enough to support the requirements (e.g. latency, throughput, packet loss, availability etc.) ', '']</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall:
+1. Utilize the existing ThresholdMonitor to configure network monitoring effectively.
+2. Employ the existing NtfSubscriptionControl to send monitoring reports as notifications to the designated entities.
+3. Assess whether the current performance measurements and Key Performance Indicators (KPIs) are sufficient to support the requirements, including latency, throughput, packet loss, and availability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;6.1	Issue #1: Classification of URLLC related RAN features from management perspective&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.146358914647404</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['', 'This issue and corresponding solution have investigated the features designed for URLLC and try to classify the RAN features related to URLLC into two categories based on the effects: low latency and ultra-reliability from management perspective. Some important features are identified as candidates for the investigation of URLLC management. Features to implement inter-UE multiplexing, PDSCH enhancement, PDCP duplication, etc. are selected as examples. The detailed classification method and candidate features are described in clause 5.1.2. ', '', 'The above work is concluded as the summary of existing features related to URLLC and preparation the follow-up issues of this study and no further normative work needs to be recommended.', '']</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall classify RAN features related to Ultra-Reliable Low Latency Communications (URLLC) into two categories based on their effects on low latency and ultra-reliability from a management perspective. It shall identify key features that are candidates for URLLC management, including but not limited to the implementation of inter-UE multiplexing, PDSCH enhancement, and PDCP duplication. The system shall provide a detailed classification method as described in clause 5.1.2, and prepare for follow-up issues without recommending further normative work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;6.5	Issue #5: Configuration of latency for URLLC in RAN including the air interface&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.128537324491578</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['', 'This issue identifies that "RANSliceSubnetProfile.dLLatency" and "RANSliceSubnetProfile.uLLatency" in TS\xa028.541\xa0[12] only representing the latency within gNB cannot cover the requirement for configuration of RAN latency between gNB and UE. The corresponding solution tries to address the issue by modifying the existing attributes defined in TS\xa028.541 [12] to cover the whole RAN latency between gNB and UE. Detailed description about the solution is in clause 5.5.2. It is recommended to make some enhancement on NRM referred to this solution in the future normative work.', '', '', '', '', 'Annex A:', 'Change history', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '2022-04', '', 'SA5#142e', '', 'S5-222292', '', 'S5-222307', '', 'S5-222344', '', 'S5-222660', '', '', '', '', '', '', '', '1. TR 28.832-0.0.0 initial skeleton', '', '2. pCR 28.832 Add scope', '', '3. pCR 28.832 Add Concepts and overview', '', '4. pCR TR28.832 Add key issue on classification of URLLC related RAN features from management perspective', '', '0.1.0', '', '2022-05', '', 'SA5#143e', '', 'S5-223367', '', '', '', '', '', '', '', '1. pCR TR28.832 Add candidates for study of feature management', '', '0.2.0', '', '2022-08', '', 'SA5#145e', '', 'S5-225807', '', 'S5-225808', '', '', '', '', '', '', '', '1. pCR TR28.832 Add Issue on support for performance management related on URLLC resource load', '', '2. pCR TR28.832 Add Issue on URLLC Performance management on reliability', '', '0.3.0', '', '2022-11', '', 'SA5#146', '', 'S5-226966', '', 'S5-226975', '', 'S5-226972', '', '', '', '', '', '', '', '1. S5-226966 pCR TR 28.832 Add issue on configuration of reliability in slice profiles and service profile', '', '2. S5-226971 pCR TR 28.832 Add potential solution for issue on configuration of reliability in slice profiles and service profile', '', '3. S5-226972 pCR TR28.832 Add New Key issue on configuration of latency for URLLC in RAN', '', '0.4.0', '', '2023-03', '', 'SA5#147', '', 'S5-232956', '', '', '', '', '', '', '', '1. S5-232956 pCR TR28.832 Add Conclusion and recommendation for issue#1', '', '0.5.0', '', '2023-04', '', 'SA5#148e', '', 'S5-233349', '', 'S5-233604', '', 'S5-233605', '', 'S5-233636', '', '', '', '', '', '', '', '1. pCR 28.832 Correction of terminologies and missing references', '', '2. pCR TR28.832 Add New Solution for configuration of latency for URLLC in RAN', '', '3. pCR TR28.832 Add Conclusion and recommendation for issue#4', '', '4. pCR TR28.832 Add New Solution for URLLC performance management related to reliability', '', '0.6.0', '', '2023-05', '', 'SA5#149e', '', 'S5-234384', '', 'S5-234553', '', 'S5-234554', '', '', '', '', '', '', '', '1. pCR 28.832 pCR TR28.832 Add New Solution and conclusion for performance measurements related on URLLC resource load', '', '2. pCR TR28.832 Add Conclusion and recommendation for issue#3', '', '3. pCR TR28.832 Add Conclusion and recommendation for issue#5', '', '0.7.0', '', '2023-06', '', 'SA#100', '', 'SP-230643', '', '', '', '', '', '', '', 'Presented for information and approval', '', '1.0.0', '', '2023-06', '', 'SA#100', '', '', '', '', '', '', '', '', '', 'Upgraded to change control version', '', '18.0.0', '', '2023-06', '', 'SA#100', '', '', '', '', '', '', '', '', '', 'EditHelp review', '', '18.0.1', '', '', '', '3GPP', '', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall modify existing attributes defined in TS 28.541 [12] to cover the whole RAN latency between gNB and UE, addressing the requirement for configuration of RAN latency between gNB and UE. It is recommended to enhance NRM in future normative work to fully meet this requirement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;&lt;span style="color:000000"&gt;5.1.1.1&lt;/span&gt;	&lt;span style="color:000000"&gt;Create a &lt;/span&gt;SNPN&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>28557-i00.docx</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1520907729050484</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['', 'This use case describes a scenario where an NPN-SP decides to provision an NPN for use by an NPN-SC in the form of SNPN. It is either an MNO or an enterprise can be playing a role of NPN-SP, and it is an enterprise (the different or same if the enterprise is also NPN-SP) be playing a role of NPN-SC. This SNPN consists of network resources decoupled from PLMN resources, including:', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;RAN NE(s)&lt;/span&gt;', '', '-\t5GC network functions ', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Transport network&lt;/span&gt;', '', 'In this scenario, the NPN-SC sends to the NPN-SP a request for the provision of an NPN. This request contains the NPN related SLS requirements. To fulfil the SLS of requested NPN, the NPN-SP decides to create a new SNPN.', '', 'The NPN-SP maps SLS of requested NPN into 3GPP 5G system related requirements. These requirements allow the NPN operator to decide on the constituent network resources and the topology of the 3GPP 5G network to be created for the SNPN, as follows:', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;For the AN and CN related parts, the &lt;/span&gt;NPN&lt;span style="color:000000"&gt; operator takes all the actions needed to set up and configure required network resources, including RAN NE(s) and 5GC network functions. For more details, refer to TS 28.531 [8], clauses 5.1.17 "Creation of 3GPP NF" and 5.1.18 "Configuration of a 3GPP NF instance". Some of these actions can require setting up a new 3GPP sub-network. For more details, refer to TS 28.531 [8], clause 5.1.19 "Creation of a 3GPP sub-network".&lt;/span&gt;', '', '-\tFor the TN related part, the NPN operator takes all the actions needed to set up the required connectivity along the RAN and CN, configuring the underlying transport network. When taking these actions, information on SNPN topology (e.g. external connection points of AN and CN) and performance (e.g. latency, bandwidth) should be considered.', '', 'If the requested NPN requires connectivity to external PLMN resources (e.g. to allow UEs registered into the SNPN to access public network services), the NPN-SP derives the requirements for such a connectivity. These requirements allow the NPN operator to configure the transport network connecting the SNPN and the PLMN accordingly.', '', 'NOTE 1:\tTo allow UEs to access public network services from the SNPN, the UEs also have to be registered in the PLMN UDM.', '', 'NOTE 2:\tFor the derivation of connectivity requirements between SNPN and the PLMN, the NPN-SP makes use of two sources of information: ', '', '1)\tthe SLS of requested NPN, received from the NPN-SC; and ', '', '2)\tconnectivity information of the created 3GPP 5G network, received from the NPN operator.', '', 'In this use case, depending on different situations, the NPN operator role can be played by:', '', '-\tthe mobile network operator only. In such MNO Managed Mode case, the mobile network operator takes the entire responsibility of operating the SNPN and managing SNPN-PLMN connectivity, if required; or', '', '-\tthe mobile network operator and the enterprise. In such MNO-Vertical Mode case, the mobile network operator can expose some management capabilities to the enterprise, according to business agreement between the two parties. SNPN-PLMN connectivity, if required, is always managed by the mobile network operator; or', '', '-\tthe vertical only. In such Vertical Managed Mode case, the enterprise takes the entire responsibility of operating the SNPN. The SNPN-PLMN connectivity, if required, is always managed by the mobile network operator who takes the entire responsibility of operating the PLMN.', '', 'In this use case depending on the different NID assignment models as described in clause 4.4, the NPN operator role can configure the NID to related AN nodes and 5GC NFs. The management of NID is described in clause 4.4 in the present document.', '']</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provision an NPN for use by an NPN-SC in the form of SNPN, where the provisioning can be initiated by either an MNO or an enterprise acting as the NPN-SP. The system shall map the SLS of the requested NPN into 3GPP 5G system requirements, allowing the NPN operator to decide on the constituent network resources and the SNPN topology. The system shall configure required network resources, including RAN NE(s) and 5GC network functions, and set up a new 3GPP sub-network if necessary. The system shall establish connectivity for the TN part by configuring the underlying transport network, considering SNPN topology and performance. For connectivity to external PLMN resources, the system shall derive requirements and configure the transport network accordingly. The system shall manage SNPN-PLMN connectivity if required, with the mobile network operator taking full responsibility in MNO-Vertical Mode. The system shall also handle NID assignment to related AN nodes and 5GC NFs, as per the NID assignment models described in clause 4.4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.5.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.08292251655933902</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['', 'URLLC is a service with requirement of ultra-reliability and low latency. End to end latency is an important attribute used to describe the requirement for URLLC service. Latency in RAN is part of end to end latency and the corresponding attribute can be used to specify the maximum allowed delay in RAN including the air interface. The definition of latency in RAN is specified in ITU-R M.2410. The description is as follows:', '', '&lt;i&gt;4.7.1 User plane latency &lt;/i&gt;', '', '&lt;i&gt;User plane latency is the contribution of the radio network to the time from when the source sends a packet to when the destination receives it (in ms). It is defined as the one-way time it takes to successfully deliver an application layer packet/message from the radio protocol layer 2/3 SDU ingress point to the radio protocol layer 2/3 SDU egress point of the radio interface in either uplink or downlink in the network for a given service in unloaded conditions, assuming the mobile station is in the active state. This requirement is defined for the purpose of evaluation in the eMBB and URLLC usage scenarios. &lt;/i&gt;', '', 'According to the definition above, the latency in RAN should contain the delay over the air interface which is a crucial part of end to end latency. In TS 28.541 [12], the attribute "dlLatency" and "ulLatency" in RANSliceSubnetProfile only represent the packet processing latency in gNB excluding that of air interface. The performance of delay over the air interface cannot be evaluated simply through the existing latency configuration. Consequently, the issue is that the existing attributes in RANSliceSubnetProfile cannot match the configuration requirement for latency when taking air interface into consideration. ', '']</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall ensure that the latency in the Radio Access Network (RAN) encompasses the total end-to-end delay, including the critical contribution of the air interface delay. This comprehensive latency measurement should align with the ITU-R M.2410 definition, capturing the one-way time from the ingress point of the radio protocol layer 2/3 Sub-Multiplex Unit (SDU) to the egress point in both uplink and downlink directions under unloaded conditions. Specifically, the system shall provide a mechanism to evaluate and configure the latency in RAN, taking into account the air interface delay, to meet the stringent requirements of Ultra-Reliable and Low Latency Communications (URLLC) services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.1.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1114490228361763</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['', 'URLLC is a set of service scenarios which require low-latency and high reliable communications. Specific SLAs are defined for each scenario correspondingly. Different scenarios have different requirements, some of which focus on latency (e.g. Motion control) and some focus on reliability (e.g. Discrete automation). ', '', 'In order to satisfy the requirements of URLLC, many features have been defined by 3GPP to decrease latency and increase reliability to guarantee the SLAs of different URLLC service scenarios. These features with different functions and different effects are distributed in different specifications, which bring complexity to the invocation and management when deploying URLLC service. Features related to URLLC need to be classified from the perspective of management, so that different features can be invoked according to different SLAs, and the management of URLLC-related features can be achieved. ', '']</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall classify URLLC features from the management perspective to enable selective invocation based on specific Service Level Agreements (SLAs) and achieve efficient management of URLLC-related features across different specifications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.4.1	Description&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1078275388360347</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>['', 'URLLC is a set of service scenarios which require low-latency and high reliable communications. TS 22.261 [3] specifies service requirements for the 5G system. There are use cases of different reliability requirement between UL and DL, like in 1st use case of table 7.6.1-1 in TS 22.261 [3]. However, the NRM for slice profiles in TS 28.541 [12] does not support reliability to distinguish between UL and DL configuration. Based on the above description, the configuration of reliability in slice profiles and service profile need to be studied.', '']</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall support distinct reliability configurations for both uplink (UL) and downlink (DL) in slice profiles to meet the specific service requirements outlined in TS 22.261 for 5G systems, addressing the diverse reliability needs of different use cases as exemplified in table 7.6.1-1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;4	Concepts and overview&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1067658534797674</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['', 'URLLC, Ultra Reliable Low Latency Communication, is a typical service of 5G network, which is mainly applicable to the scenarios having high requirements on latency and reliability. The deployment and commercialization of URLLC service are of great significance to network operators. Efforts to build URLLC service oriented to vertical industries may become a potential growth point to increase revenue.', '', 'In order to satisfy the requirements of URLLC service, 3GPP has defined many features to decrease latency and increase reliability to guarantee the SLA of URLLC service. However, only principle and implementation mode of each feature are defined in 3GPP specifications, and it is not indicated that how to manage the features to enable URLLC service in actual network deployment. Consequently, the management of URLLC related features need to be studied to achieve the service requirements of URLLC defined in TS 22.261 [3].', '', 'The characteristics of URLLC are mainly reflected in several aspects such as delay/latency, reliability and availability. The concepts and terms used in the present document related to management of URLLC service are shown below:', '', 'Term', '', 'Reference', '', 'Definition', '', 'end-to-end latency', '', 'TS 22.261 [3]', '', 'The time that it takes to transfer a given piece of information from a source to a destination, measured at the communication interface, from the moment it is transmitted by the source to the moment it is successfully received at the destination.', '', 'reliability', '', 'TS 22.261 [3]', '', 'In the context of network layer packet transmissions, percentage value of the packets successfully delivered to a given system entity within the time constraint required by the targeted service out of all the packets transmitted.', '', 'survival time', '', 'TS 22.261 [3]', '', 'The time that an application consuming a communication service may continue without an anticipated message.', '', 'communication service availability', '', 'TS 22.261 [3]', '', 'Percentage value of the amount of time the end-to-end communication service is delivered according to a specified QoS, divided by the amount of time the system is expected to deliver the end-to-end service.', '', '', '', 'The present document studies on the management of URLLC related features defined in RAN groups, including sorting the features from latency, reliability and multiplexing aspects, investigating the requirements of configuration management and performance measurements in OAM.', '']</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall manage URLLC related features defined in RAN groups by sorting them based on latency, reliability, and multiplexing aspects. It shall investigate the requirements of configuration management and performance measurements in OAM to ensure the end-to-end latency is minimized, reliability is maximized, and survival time meets the specified QoS, thereby achieving the service requirements of URLLC as defined in TS 22.261 [3].</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.2.1.1	It exists URLLC and eMBB coexistence scenarios&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1133732699283647</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['', 'Under the new definition of 5G application scenarios, there are coexistence scenarios of URLLC and eMBB services, and 3GPP specifications also contains related contents of eMBB and URLLC multiplexing mechanisms.', '', '&lt;b&gt;Co-existence Scenario&lt;/b&gt;', '', 'URLLC UEs and eMBB UEs can co-exist in a cell when the cell provides both services, which can be achieved by different slices. According to TS 38.300 [8], hardware/software resource isolation is up to implementation. Each slice may be assigned with either shared, prioritized or dedicated radio resource up to RRM implementation and SLA as in TS 28.541 [12]. Consequently, URLLC UEs and eMBB UEs can share the resource in the same cell even the two kinds of services allocated to different slices.', '', '&lt;b&gt;Resource Multiplexing/Pre-emption&lt;/b&gt;', '', 'URLLC service has more stringent requirement on latency and pre-emption may happen when the resource for URLLC is not enough under co-existence scenario. When URLLC service arrives, gNB can reuse the radio resource which is already allocated for eMBB to URLLC in order to guarantee the on-demand transmission of URLLC service.', '', 'Several features are defined in TS 38.213 [6] for URLLC to achieve inter-UE resource multiplexing, such as CI(cancellation indication), PB(power boosting) and PI(preemption indication). Detailed description about the features are listed in the following paragraph.', '', 'Taking the uplink service scenario as an example, TR 38.824 [11] evaluates the performance of URLLC and eMBB services under enhanced UL inter UE Tx prioritization/multiplexing mechanisms, and proposes potential enhancements for UL inter UE Tx prioritization/multiplexing, which includes UE UL cancelation mechanisms and enhanced UL power control.', '', 'Corresponding to the UE UL cancelation mechanisms, there is a definition of Cancellation Indication (CI) in TS 38.213 [6]. The Cancellation Indication instructs other UE services to cancel their transmissions, which can realize resource preemption for different services in the uplink transmissions. Corresponding to enhanced UL power control, there is a related definition of &lt;span style="text-transform:uppercase"&gt;p&lt;/span&gt;ower &lt;span style="text-transform:uppercase"&gt;b&lt;/span&gt;oosting (PB). By increasing the uplink transmission power of the UE, it can resist the interference caused by the transmission of other UEs.', '', 'At the same time,&lt;span style="text-transform:uppercase"&gt; p&lt;/span&gt;reemption &lt;span style="text-transform:uppercase"&gt;i&lt;/span&gt;ndication (PI) is also defined for resource preemption of different services in the downlink transmission, and PI can be used to indicate to other UEs that their resources are preempted.', '']</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide coexistence scenarios for URLLC and eMBB services as defined under the new 5G application scenarios. It shall support different slices for URLLC and eMBB services, allowing them to share the same cell resources with prioritized or dedicated radio resources based on Radio Resource Management (RRM) implementation and Service Level Agreements (SLAs).
+The system shall enable resource multiplexing and preemption, particularly for URLLC services, which have stringent latency requirements. It shall allow the reuse of radio resources already allocated for eMBB services when URLLC services arrive, ensuring on-demand transmission of URLLC services.
+The system shall incorporate features defined in TS 38.213 for URLLC to achieve inter-UE resource multiplexing, including Cancellation Indication (CI), Power Boosting (PB), and Preemption Indication (PI). It shall implement UE UL cancelation mechanisms and enhanced UL power control to facilitate resource preemption for different services in uplink transmissions.
+The system shall evaluate the performance of URLLC and eMBB services under enhanced UL inter-UE Tx prioritization/multiplexing mechanisms, as proposed in TS 38.824. It shall also suggest potential enhancements for UL inter-UE Tx prioritization/multiplexing, including UE UL cancelation mechanisms and enhanced UL power control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;4.3.1	Drivers&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>28557-i00.docx</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1534375428185329</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['', 'Vertical industries have a very wide range of use cases with very diverse requirements comparing with management of traditional PLMN. Management of NPN has the following specific aspects:', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Assurance for diversified SLA requirements: The diversified SLA requirements from different kinds of vertical industries need to be guaranteed, e.g. manufacturing industry and medical care need ultra-reliable low-latency wireless connectivity and indoor, outdoor or hybrid coverage &lt;/span&gt;NPN&lt;span style="color:000000"&gt; deployments. Other than performance requirements (e.g. ultra-low latency, ultra-high reliability), functional and operational requirements should also be guaranteed in SLA, e.g. high-precision positioning, real-time monitoring, etc.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Support of different O&amp;amp;M models: an O&amp;amp;M model allows specifying who is responsible for managing what part of the network. The various &lt;/span&gt;NPN&lt;span style="color:000000"&gt; scenarios, with a number of vertical use cases and a plenty of deployment variants, in some cases may lead to the definition of different O&amp;amp;M models. For example, many &lt;/span&gt;&lt;span style="color:000000;text-transform:uppercase"&gt;s&lt;/span&gt;&lt;span style="color:000000"&gt;mall and &lt;/span&gt;&lt;span style="color:000000;text-transform:uppercase"&gt;m&lt;/span&gt;&lt;span style="color:000000"&gt;edium-sized &lt;/span&gt;&lt;span style="color:000000;text-transform:uppercase"&gt;e&lt;/span&gt;&lt;span style="color:000000"&gt;nterprises (SMEs) do not have sufficient technical expertise for their NPNs\' deployment and operation. Therefore, cooperation with PLMN Operators to obtain O&amp;amp;M of NPNs from PLMN Operators might be the most cost-effective way for such customers. On the other hand, large enterprises like electric utility companies might want to have their own O&amp;amp;M for their NPNs to fulfil specific requirements.&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Management capability exposure: this expresses the ability of an &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SP to expose some management capabilities, such as performance and KPIs monitoring, fault supervision and provisioning management capabilities, to the corresponding &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SC. The &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SP makes the selected &lt;/span&gt;NPN&lt;span style="color:000000"&gt; management capabilities available through well-defined APIs to allow the &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SC to consume these capabilities, as well as extending them with their own operation and maintenance systems, if needed. &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SC may provide their business objectives by intents and policies management to &lt;/span&gt;NPN&lt;span style="color:000000"&gt;-SP and no need to focus on detailed configuration parameters of NPNs. The mobile management capabilities exposed to the enterprise are as follows. &lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Management capability of configuration: The vertical may request to mobile network operator for a limited management capability which would enable the enterprise to dynamically change the configuration parameters (e.g. CAG configuration).&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Management capability of performance assurance: The performance assurance capabilities that may be provided to the enterprise may include creation of certain measurement jobs which collects the value of one or multiple measurement types which are the performance measurements and assurance data defined in TS\xa028.552 [12] or collects the value of one or multiple KPIs defined in TS 28.554 [13].&lt;/span&gt;', '', '&lt;span style="color:000000"&gt;-&lt;/span&gt;\t&lt;span style="color:000000"&gt;Management capability of fault supervision: The fault supervision capabilities that may be provided to the enterprise may include get NSI/NSSI/NF alarm data and control NSI/NSSI/NF alarm data.&lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall assure diversified Service Level Agreement (SLA) requirements by guaranteeing ultra-reliable low-latency wireless connectivity and comprehensive indoor, outdoor, or hybrid coverage for industries with stringent performance needs such as manufacturing and medical care.
+The system shall support different Operations &amp; Maintenance (O&amp;M) models, allowing specification of responsibilities for network management across various vertical use cases and deployment scenarios.
+The system shall expose management capabilities to the enterprise, including performance and KPIs monitoring, fault supervision, and provisioning management, through well-defined APIs for consumption and potential extension by enterprise systems.
+The system shall provide limited management capability for enterprises to dynamically change configuration parameters, such as Cellular Access Gateway (CAG) configuration, as requested by the enterprise.
+The system shall offer management capability of performance assurance, enabling the creation of measurement jobs to collect performance measurements and assurance data as defined in relevant technical specifications.
+The system shall provide management capability of fault supervision, allowing enterprises to obtain NSI/NSSI/NF alarm data and control NSI/NSSI/NF alarm data for effective fault management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;&lt;span style="color:000000"&gt;5.1.3.4.2&lt;/span&gt;	&lt;span style="color:000000"&gt;Average IP Latency DL in gNB-DU&lt;/span&gt;&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>28552-i30.docx</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1126959593180401</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>['', 'a)\tThis measurement provides the average IP Latency in DL (arithmetic mean) within the gNB-DU, when there is no other prior data to be transmitted to the same UE in the gNB-DU. The measurement is optionally split into subcounters per QoS level and subcounters per S-NSSAI.', '', 'b)\tDER (n=1)', '', 'c)\tThis measurement is obtained as: sum of (time when the first piece of an RLC SDU transmitted on the air interface, minus time of arrival of the same packet at the RLC ingress F1-U termination, for IP packets arriving when there is no other prior data to be transmitted to the same UE in the gNB-DU) divided by total number of RLC SDUs arriving at the RLC ingress F1-U termination when there is no other prior data to be transmitted to the same UE in the gNB-DU. Separate counters are optionally maintained for each mapped 5QI (or QCI for option 3) and for each S-NSSAI.', '', 'd)\tEach measurement is a real representing the average latency in 0.1 millisecond. The number of measurements is equal to one. If the optional QoS level subcounters and S-NSSAI subcounters are measurement is performed, the number of measurements is equal to the sum of number of supported mapped 5QIs and the number of S-NSSAIs. ', '', 'e)\tThe measurement name has the form DRB.RlcSduLatencyDl, ', 'optionally DRB.RlcSduLatencyDl.&lt;i&gt;QOS &lt;/i&gt;where &lt;i&gt;QOS&lt;/i&gt; identifies the target quality of service class, and', 'optionally DRB.RlcSduLatencyDl.&lt;i&gt;SNSSAI, &lt;/i&gt;where &lt;i&gt;SNSSAI&lt;/i&gt; identifies the S-NSSAI.', '', 'f)\tNRCellDU', '', 'g)\tValid for packet switched traffic', '', 'h)\t5GS', '', 'i)\tOne usage of this measurement is for performance assurance within integrity area (user plane connection quality).', '']</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide an average IP Latency measurement in DL (arithmetic mean) within the gNB-DU when there is no prior data transmission to the same UE in the gNB-DU. This measurement can optionally be divided into subcounters for each QoS level and S-NSSAI. Each measurement represents the average latency in 0.1 milliseconds, with the number of measurements corresponding to the sum of supported mapped 5QIs and S-NSSAIs if subcounters are used. The measurement name follows the format DRB.RlcSduLatencyDl, with optional extensions for QoS and S-NSSAI. This measurement is valid for packet-switched traffic and is utilized for performance assurance within the integrity area, specifically for user plane connection quality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;&lt;span style="color:000000"&gt;5.1.3.4.3&lt;/span&gt;	&lt;span style="color:000000"&gt;Distribution of IP Latency DL in gNB-DU&lt;/span&gt;&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>28552-i30.docx</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1072292159698527</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>['', 'a)\tThis measurement provides the distribution of IP Latency in DL within the gNB-DU, when there is no other prior data to be transmitted to the same UE in the gNB-DU. The measurement is split into subcounters per QoS level and subcounters per S-NSSAI.', '', 'b)\tDER (n=1)', '', 'c)\tThis measurement is obtained by 1) calculating the latency on the downlink within the gNB-DU for a RLC SDU packet by: time when the first piece of an RLC SDU transmitted on the air interface, minus time of arrival of the same packet at the RLC ingress F1-U termination, for IP packets arriving when there is no other prior data to be transmitted to the same UE in the gNB-DU; and 2) incrementing the corresponding bin with the latency range where the result of 1) falls into by 1 for the subcounters per QoS level (mapped 5QI or QCI in NR option 3) and subcunters per S-NSSAI. ', '', 'd)\tEach measurement is an integer representing the number of RLC SDU packets measured with the latency within the range of the bin.', '', 'e)\tDRB.RlcSduLatencyDlDist.&lt;i&gt;bin&lt;/i&gt;.&lt;i&gt;QOS, &lt;/i&gt;where &lt;i&gt;QOS&lt;/i&gt; identifies the target quality of service class, and &lt;i&gt;Bin&lt;/i&gt; indicates a latency range which is vendor specific;', 'DRB.RlcSduLatencyDlDist.&lt;i&gt;bin&lt;/i&gt;.&lt;i&gt;SNSSAI, &lt;/i&gt;where &lt;i&gt;SNSSAI&lt;/i&gt; identifies the S-NSSAI, and &lt;i&gt;Bin&lt;/i&gt; indicates a latency range which is vendor specifics.', '', 'f)\tNRCellDU', '', 'g)\tValid for packet switched traffic', '', 'h)\t5GS', '', 'i)\tOne usage of this measurement is for performance assurance within integrity area (user plane connection quality).', '']</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The system shall provide a measurement of IP Latency in DL within the gNB-DU for scenarios where no prior data transmission to the same UE exists in the gNB-DU. This measurement will be categorized into subcounters based on QoS levels and S-NSSAI. Each measurement will represent the count of RLC SDU packets with latency falling within specific predefined latency bins. These bins are vendor-specific and will be used to identify latency ranges for different QoS classes and S-NSSAI.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;5.5	Issue #5: Configuration of latency for URLLC in RAN including the air interface&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>28832-i01.docx</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.2327205076416784</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>This section is empty. The word latency is probably only in a section title</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;8.4.2.4	E2E latency analysis&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>28104-i00.docx</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.2327205076416784</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>This section is empty. The word latency is probably only in a section title</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;&lt;span style="color:000000"&gt;5.1.3.4&lt;/span&gt;	&lt;span style="color:000000"&gt;IP &lt;/span&gt;Latency&lt;span style="color:000000"&gt; measurements&lt;/span&gt;&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>28552-i30.docx</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.2327205076416784</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>This section is empty. The word latency is probably only in a section title</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;&lt;span style="font-size:28pt"&gt;7.2.2.4&lt;/span&gt;	&lt;span style="font-size:28pt"&gt;E2E latency analysis&lt;/span&gt;&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>28104-i00.docx</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.2327205076416784</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>This section is empty. The word latency is probably only in a section title</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
